--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-02-23.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-02-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G714"/>
+  <dimension ref="A1:G647"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17125,10 +17125,8 @@
           <t>$-93.0B</t>
         </is>
       </c>
-      <c r="G606" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G606" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="607">
@@ -17146,10 +17144,8 @@
       <c r="D607" t="inlineStr"/>
       <c r="E607" t="inlineStr"/>
       <c r="F607" t="inlineStr"/>
-      <c r="G607" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G607" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="608">
@@ -17179,10 +17175,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G608" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G608" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="609">
@@ -17212,10 +17206,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="G609" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G609" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="610">
@@ -17245,10 +17237,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="G610" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G610" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="611">
@@ -17278,10 +17268,8 @@
           <t>1875.0K</t>
         </is>
       </c>
-      <c r="G611" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G611" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="612">
@@ -17311,10 +17299,8 @@
           <t>3.5%</t>
         </is>
       </c>
-      <c r="G612" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G612" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="613">
@@ -17340,10 +17326,8 @@
           <t>216.0K</t>
         </is>
       </c>
-      <c r="G613" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G613" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="614">
@@ -17369,10 +17353,8 @@
           <t>147.2</t>
         </is>
       </c>
-      <c r="G614" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G614" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="615">
@@ -17398,10 +17380,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G615" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G615" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="616">
@@ -17431,10 +17411,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="G616" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G616" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="617">
@@ -17464,10 +17442,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="G617" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G617" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="618">
@@ -17493,10 +17469,8 @@
         </is>
       </c>
       <c r="F618" t="inlineStr"/>
-      <c r="G618" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G618" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="619">
@@ -17518,10 +17492,8 @@
       </c>
       <c r="E619" t="inlineStr"/>
       <c r="F619" t="inlineStr"/>
-      <c r="G619" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G619" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="620">
@@ -17543,10 +17515,8 @@
       </c>
       <c r="E620" t="inlineStr"/>
       <c r="F620" t="inlineStr"/>
-      <c r="G620" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G620" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="621">
@@ -17568,10 +17538,8 @@
       </c>
       <c r="E621" t="inlineStr"/>
       <c r="F621" t="inlineStr"/>
-      <c r="G621" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G621" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="622">
@@ -17593,10 +17561,8 @@
       </c>
       <c r="E622" t="inlineStr"/>
       <c r="F622" t="inlineStr"/>
-      <c r="G622" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G622" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="623">
@@ -17618,10 +17584,8 @@
       </c>
       <c r="E623" t="inlineStr"/>
       <c r="F623" t="inlineStr"/>
-      <c r="G623" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G623" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="624">
@@ -17643,40 +17607,50 @@
       </c>
       <c r="E624" t="inlineStr"/>
       <c r="F624" t="inlineStr"/>
-      <c r="G624" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G624" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>Friday February 14 2025</t>
-        </is>
-      </c>
-      <c r="B625" t="inlineStr"/>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>EIA Crude Oil Imports ChangeFEB/14</t>
+        </is>
+      </c>
       <c r="C625" t="inlineStr"/>
-      <c r="D625" t="inlineStr"/>
+      <c r="D625" t="inlineStr">
+        <is>
+          <t>-0.184M</t>
+        </is>
+      </c>
       <c r="E625" t="inlineStr"/>
       <c r="F625" t="inlineStr"/>
-      <c r="G625" t="inlineStr"/>
+      <c r="G625" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>Fed Balance SheetFEB/12</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C626" t="inlineStr"/>
       <c r="D626" t="inlineStr">
         <is>
-          <t>$6.81T</t>
+          <t>0.872M</t>
         </is>
       </c>
       <c r="E626" t="inlineStr"/>
@@ -17690,191 +17664,147 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>Retail Sales MoMJAN</t>
+          <t>EIA Distillate Fuel Production ChangeFEB/14</t>
         </is>
       </c>
       <c r="C627" t="inlineStr"/>
       <c r="D627" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E627" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F627" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+          <t>-0.009M</t>
+        </is>
+      </c>
+      <c r="E627" t="inlineStr"/>
+      <c r="F627" t="inlineStr"/>
       <c r="G627" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>Export Prices MoMJAN</t>
+          <t>EIA Distillate Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C628" t="inlineStr"/>
       <c r="D628" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E628" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F628" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>0.135M</t>
+        </is>
+      </c>
+      <c r="E628" t="inlineStr"/>
+      <c r="F628" t="inlineStr"/>
       <c r="G628" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>Import Prices MoMJAN</t>
+          <t>EIA Gasoline Production ChangeFEB/14</t>
         </is>
       </c>
       <c r="C629" t="inlineStr"/>
       <c r="D629" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E629" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F629" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>0.18M</t>
+        </is>
+      </c>
+      <c r="E629" t="inlineStr"/>
+      <c r="F629" t="inlineStr"/>
       <c r="G629" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>Retail Sales Control Group MoMJAN</t>
+          <t>EIA Heating Oil Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C630" t="inlineStr"/>
       <c r="D630" t="inlineStr">
         <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="E630" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F630" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>0.159M</t>
+        </is>
+      </c>
+      <c r="E630" t="inlineStr"/>
+      <c r="F630" t="inlineStr"/>
       <c r="G630" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Autos MoMJAN</t>
+          <t>EIA Refinery Crude Runs ChangeFEB/14</t>
         </is>
       </c>
       <c r="C631" t="inlineStr"/>
       <c r="D631" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E631" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F631" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>0.082M</t>
+        </is>
+      </c>
+      <c r="E631" t="inlineStr"/>
+      <c r="F631" t="inlineStr"/>
       <c r="G631" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>Export Prices YoYJAN</t>
+          <t>30-Year TIPS Auction</t>
         </is>
       </c>
       <c r="C632" t="inlineStr"/>
       <c r="D632" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>2.055%</t>
         </is>
       </c>
       <c r="E632" t="inlineStr"/>
-      <c r="F632" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="F632" t="inlineStr"/>
       <c r="G632" t="inlineStr">
         <is>
           <t>3</t>
@@ -17884,55 +17814,31 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B633" t="inlineStr">
-        <is>
-          <t>Import Prices YoYJAN</t>
-        </is>
-      </c>
+          <t>Friday February 21 2025</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr"/>
       <c r="C633" t="inlineStr"/>
-      <c r="D633" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
+      <c r="D633" t="inlineStr"/>
       <c r="E633" t="inlineStr"/>
-      <c r="F633" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="G633" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="F633" t="inlineStr"/>
+      <c r="G633" t="inlineStr"/>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Gas/Autos MoMJAN</t>
+          <t>Fed Balance SheetFEB/19</t>
         </is>
       </c>
       <c r="C634" t="inlineStr"/>
-      <c r="D634" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="D634" t="inlineStr"/>
       <c r="E634" t="inlineStr"/>
-      <c r="F634" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F634" t="inlineStr"/>
       <c r="G634" t="inlineStr">
         <is>
           <t>3</t>
@@ -17942,57 +17848,53 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>Retail Sales YoYJAN</t>
+          <t>S&amp;P Global Composite PMI FlashFEB</t>
         </is>
       </c>
       <c r="C635" t="inlineStr"/>
       <c r="D635" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>52.7</t>
         </is>
       </c>
       <c r="E635" t="inlineStr"/>
       <c r="F635" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>52.7</t>
         </is>
       </c>
       <c r="G635" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>Industrial Production MoMJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashFEB</t>
         </is>
       </c>
       <c r="C636" t="inlineStr"/>
       <c r="D636" t="inlineStr">
         <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="E636" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="E636" t="inlineStr"/>
       <c r="F636" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>51.3</t>
         </is>
       </c>
       <c r="G636" t="inlineStr">
@@ -18004,124 +17906,120 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>S&amp;P Global Services PMI FlashFEB</t>
         </is>
       </c>
       <c r="C637" t="inlineStr"/>
       <c r="D637" t="inlineStr">
         <is>
-          <t>77.6%</t>
-        </is>
-      </c>
-      <c r="E637" t="inlineStr">
-        <is>
-          <t>77.7%</t>
-        </is>
-      </c>
+          <t>52.9</t>
+        </is>
+      </c>
+      <c r="E637" t="inlineStr"/>
       <c r="F637" t="inlineStr">
         <is>
-          <t>77.4%</t>
+          <t>52.7</t>
         </is>
       </c>
       <c r="G637" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>Industrial Production YoYJAN</t>
+          <t>Existing Home SalesJAN</t>
         </is>
       </c>
       <c r="C638" t="inlineStr"/>
       <c r="D638" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>4.24M</t>
         </is>
       </c>
       <c r="E638" t="inlineStr"/>
       <c r="F638" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>4.16M</t>
         </is>
       </c>
       <c r="G638" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMJAN</t>
+          <t>Existing Home Sales MoMJAN</t>
         </is>
       </c>
       <c r="C639" t="inlineStr"/>
       <c r="D639" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="E639" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="E639" t="inlineStr"/>
       <c r="F639" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="G639" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYJAN</t>
+          <t>Michigan Consumer Sentiment FinalFEB</t>
         </is>
       </c>
       <c r="C640" t="inlineStr"/>
       <c r="D640" t="inlineStr">
         <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E640" t="inlineStr"/>
+          <t>71.1</t>
+        </is>
+      </c>
+      <c r="E640" t="inlineStr">
+        <is>
+          <t>67.8</t>
+        </is>
+      </c>
       <c r="F640" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>67.8</t>
         </is>
       </c>
       <c r="G640" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -18133,28 +18031,28 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>Business Inventories MoMDEC</t>
+          <t>Michigan 5 Year Inflation Expectations FinalFEB</t>
         </is>
       </c>
       <c r="C641" t="inlineStr"/>
       <c r="D641" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="E641" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F641" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G641" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -18166,23 +18064,23 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoMDEC</t>
+          <t>Michigan Consumer Expectations FinalFEB</t>
         </is>
       </c>
       <c r="C642" t="inlineStr"/>
       <c r="D642" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>69.3</t>
         </is>
       </c>
       <c r="E642" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>67.3</t>
         </is>
       </c>
       <c r="F642" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>67.3</t>
         </is>
       </c>
       <c r="G642" t="inlineStr">
@@ -18194,22 +18092,30 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountFEB/14</t>
+          <t>Michigan Current Conditions FinalFEB</t>
         </is>
       </c>
       <c r="C643" t="inlineStr"/>
       <c r="D643" t="inlineStr">
         <is>
-          <t>480</t>
-        </is>
-      </c>
-      <c r="E643" t="inlineStr"/>
-      <c r="F643" t="inlineStr"/>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="E643" t="inlineStr">
+        <is>
+          <t>68.7</t>
+        </is>
+      </c>
+      <c r="F643" t="inlineStr">
+        <is>
+          <t>68.7</t>
+        </is>
+      </c>
       <c r="G643" t="inlineStr">
         <is>
           <t>3</t>
@@ -18219,22 +18125,30 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountFEB/14</t>
+          <t>Michigan Inflation Expectations FinalFEB</t>
         </is>
       </c>
       <c r="C644" t="inlineStr"/>
       <c r="D644" t="inlineStr">
         <is>
-          <t>586</t>
-        </is>
-      </c>
-      <c r="E644" t="inlineStr"/>
-      <c r="F644" t="inlineStr"/>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="E644" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
+      <c r="F644" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="G644" t="inlineStr">
         <is>
           <t>3</t>
@@ -18244,1704 +18158,57 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>Sunday February 16 2025</t>
-        </is>
-      </c>
-      <c r="B645" t="inlineStr"/>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>Baker Hughes Oil Rig CountFEB/21</t>
+        </is>
+      </c>
       <c r="C645" t="inlineStr"/>
       <c r="D645" t="inlineStr"/>
       <c r="E645" t="inlineStr"/>
       <c r="F645" t="inlineStr"/>
-      <c r="G645" t="inlineStr"/>
+      <c r="G645" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>Monday February 17 2025</t>
-        </is>
-      </c>
-      <c r="B646" t="inlineStr"/>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>Baker Hughes Total Rigs CountFEB/21</t>
+        </is>
+      </c>
       <c r="C646" t="inlineStr"/>
       <c r="D646" t="inlineStr"/>
       <c r="E646" t="inlineStr"/>
       <c r="F646" t="inlineStr"/>
-      <c r="G646" t="inlineStr"/>
+      <c r="G646" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B647" t="inlineStr">
-        <is>
-          <t>Fed Harker Speech</t>
-        </is>
-      </c>
+          <t>Sunday February 23 2025</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr"/>
       <c r="C647" t="inlineStr"/>
       <c r="D647" t="inlineStr"/>
       <c r="E647" t="inlineStr"/>
       <c r="F647" t="inlineStr"/>
-      <c r="G647" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="648">
-      <c r="A648" t="inlineStr">
-        <is>
-          <t>Tuesday February 18 2025</t>
-        </is>
-      </c>
-      <c r="B648" t="inlineStr"/>
-      <c r="C648" t="inlineStr"/>
-      <c r="D648" t="inlineStr"/>
-      <c r="E648" t="inlineStr"/>
-      <c r="F648" t="inlineStr"/>
-      <c r="G648" t="inlineStr"/>
-    </row>
-    <row r="649">
-      <c r="A649" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B649" t="inlineStr">
-        <is>
-          <t>NY Empire State Manufacturing IndexFEB</t>
-        </is>
-      </c>
-      <c r="C649" t="inlineStr"/>
-      <c r="D649" t="inlineStr">
-        <is>
-          <t>-12.6</t>
-        </is>
-      </c>
-      <c r="E649" t="inlineStr"/>
-      <c r="F649" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G649" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="650">
-      <c r="A650" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B650" t="inlineStr">
-        <is>
-          <t>NAHB Housing Market IndexFEB</t>
-        </is>
-      </c>
-      <c r="C650" t="inlineStr"/>
-      <c r="D650" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="E650" t="inlineStr"/>
-      <c r="F650" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="G650" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="651">
-      <c r="A651" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B651" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C651" t="inlineStr"/>
-      <c r="D651" t="inlineStr">
-        <is>
-          <t>4.225%</t>
-        </is>
-      </c>
-      <c r="E651" t="inlineStr"/>
-      <c r="F651" t="inlineStr"/>
-      <c r="G651" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="652">
-      <c r="A652" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B652" t="inlineStr">
-        <is>
-          <t>52-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C652" t="inlineStr"/>
-      <c r="D652" t="inlineStr">
-        <is>
-          <t>4.025%</t>
-        </is>
-      </c>
-      <c r="E652" t="inlineStr"/>
-      <c r="F652" t="inlineStr"/>
-      <c r="G652" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="653">
-      <c r="A653" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B653" t="inlineStr">
-        <is>
-          <t>NOPA Crush Report</t>
-        </is>
-      </c>
-      <c r="C653" t="inlineStr"/>
-      <c r="D653" t="inlineStr"/>
-      <c r="E653" t="inlineStr"/>
-      <c r="F653" t="inlineStr"/>
-      <c r="G653" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="654">
-      <c r="A654" t="inlineStr">
-        <is>
-          <t>Wednesday February 19 2025</t>
-        </is>
-      </c>
-      <c r="B654" t="inlineStr"/>
-      <c r="C654" t="inlineStr"/>
-      <c r="D654" t="inlineStr"/>
-      <c r="E654" t="inlineStr"/>
-      <c r="F654" t="inlineStr"/>
-      <c r="G654" t="inlineStr"/>
-    </row>
-    <row r="655">
-      <c r="A655" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B655" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsDEC</t>
-        </is>
-      </c>
-      <c r="C655" t="inlineStr"/>
-      <c r="D655" t="inlineStr">
-        <is>
-          <t>$79B</t>
-        </is>
-      </c>
-      <c r="E655" t="inlineStr"/>
-      <c r="F655" t="inlineStr"/>
-      <c r="G655" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="656">
-      <c r="A656" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B656" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentDEC</t>
-        </is>
-      </c>
-      <c r="C656" t="inlineStr"/>
-      <c r="D656" t="inlineStr">
-        <is>
-          <t>$-15.8B</t>
-        </is>
-      </c>
-      <c r="E656" t="inlineStr"/>
-      <c r="F656" t="inlineStr"/>
-      <c r="G656" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="657">
-      <c r="A657" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B657" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsDEC</t>
-        </is>
-      </c>
-      <c r="C657" t="inlineStr"/>
-      <c r="D657" t="inlineStr">
-        <is>
-          <t>$159.9B</t>
-        </is>
-      </c>
-      <c r="E657" t="inlineStr"/>
-      <c r="F657" t="inlineStr"/>
-      <c r="G657" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="658">
-      <c r="A658" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B658" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateFEB/14</t>
-        </is>
-      </c>
-      <c r="C658" t="inlineStr"/>
-      <c r="D658" t="inlineStr">
-        <is>
-          <t>6.95%</t>
-        </is>
-      </c>
-      <c r="E658" t="inlineStr"/>
-      <c r="F658" t="inlineStr"/>
-      <c r="G658" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="659">
-      <c r="A659" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B659" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsFEB/14</t>
-        </is>
-      </c>
-      <c r="C659" t="inlineStr"/>
-      <c r="D659" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="E659" t="inlineStr"/>
-      <c r="F659" t="inlineStr"/>
-      <c r="G659" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="660">
-      <c r="A660" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B660" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexFEB/14</t>
-        </is>
-      </c>
-      <c r="C660" t="inlineStr"/>
-      <c r="D660" t="inlineStr">
-        <is>
-          <t>230.0</t>
-        </is>
-      </c>
-      <c r="E660" t="inlineStr"/>
-      <c r="F660" t="inlineStr"/>
-      <c r="G660" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="661">
-      <c r="A661" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B661" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexFEB/14</t>
-        </is>
-      </c>
-      <c r="C661" t="inlineStr"/>
-      <c r="D661" t="inlineStr">
-        <is>
-          <t>640.6</t>
-        </is>
-      </c>
-      <c r="E661" t="inlineStr"/>
-      <c r="F661" t="inlineStr"/>
-      <c r="G661" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="662">
-      <c r="A662" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B662" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexFEB/14</t>
-        </is>
-      </c>
-      <c r="C662" t="inlineStr"/>
-      <c r="D662" t="inlineStr">
-        <is>
-          <t>153.1</t>
-        </is>
-      </c>
-      <c r="E662" t="inlineStr"/>
-      <c r="F662" t="inlineStr"/>
-      <c r="G662" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="663">
-      <c r="A663" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B663" t="inlineStr">
-        <is>
-          <t>Building Permits PrelJAN</t>
-        </is>
-      </c>
-      <c r="C663" t="inlineStr"/>
-      <c r="D663" t="inlineStr">
-        <is>
-          <t>1.482M</t>
-        </is>
-      </c>
-      <c r="E663" t="inlineStr"/>
-      <c r="F663" t="inlineStr">
-        <is>
-          <t>1.47M</t>
-        </is>
-      </c>
-      <c r="G663" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="664">
-      <c r="A664" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B664" t="inlineStr">
-        <is>
-          <t>Housing StartsJAN</t>
-        </is>
-      </c>
-      <c r="C664" t="inlineStr"/>
-      <c r="D664" t="inlineStr">
-        <is>
-          <t>1.499M</t>
-        </is>
-      </c>
-      <c r="E664" t="inlineStr"/>
-      <c r="F664" t="inlineStr">
-        <is>
-          <t>1.35M</t>
-        </is>
-      </c>
-      <c r="G664" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="665">
-      <c r="A665" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B665" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelJAN</t>
-        </is>
-      </c>
-      <c r="C665" t="inlineStr"/>
-      <c r="D665" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="E665" t="inlineStr"/>
-      <c r="F665" t="inlineStr">
-        <is>
-          <t>-0.8%</t>
-        </is>
-      </c>
-      <c r="G665" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="666">
-      <c r="A666" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B666" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMJAN</t>
-        </is>
-      </c>
-      <c r="C666" t="inlineStr"/>
-      <c r="D666" t="inlineStr">
-        <is>
-          <t>15.8%</t>
-        </is>
-      </c>
-      <c r="E666" t="inlineStr"/>
-      <c r="F666" t="inlineStr">
-        <is>
-          <t>-9.0%</t>
-        </is>
-      </c>
-      <c r="G666" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="667">
-      <c r="A667" t="inlineStr">
-        <is>
-          <t>07:25 PM</t>
-        </is>
-      </c>
-      <c r="B667" t="inlineStr">
-        <is>
-          <t>Redbook YoYFEB/15</t>
-        </is>
-      </c>
-      <c r="C667" t="inlineStr"/>
-      <c r="D667" t="inlineStr">
-        <is>
-          <t>5.3%</t>
-        </is>
-      </c>
-      <c r="E667" t="inlineStr"/>
-      <c r="F667" t="inlineStr"/>
-      <c r="G667" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="668">
-      <c r="A668" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B668" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C668" t="inlineStr"/>
-      <c r="D668" t="inlineStr"/>
-      <c r="E668" t="inlineStr"/>
-      <c r="F668" t="inlineStr"/>
-      <c r="G668" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="669">
-      <c r="A669" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B669" t="inlineStr">
-        <is>
-          <t>20-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C669" t="inlineStr"/>
-      <c r="D669" t="inlineStr">
-        <is>
-          <t>4.900%</t>
-        </is>
-      </c>
-      <c r="E669" t="inlineStr"/>
-      <c r="F669" t="inlineStr"/>
-      <c r="G669" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="670">
-      <c r="A670" t="inlineStr">
-        <is>
-          <t>Thursday February 20 2025</t>
-        </is>
-      </c>
-      <c r="B670" t="inlineStr"/>
-      <c r="C670" t="inlineStr"/>
-      <c r="D670" t="inlineStr"/>
-      <c r="E670" t="inlineStr"/>
-      <c r="F670" t="inlineStr"/>
-      <c r="G670" t="inlineStr"/>
-    </row>
-    <row r="671">
-      <c r="A671" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B671" t="inlineStr">
-        <is>
-          <t>FOMC Minutes</t>
-        </is>
-      </c>
-      <c r="C671" t="inlineStr"/>
-      <c r="D671" t="inlineStr"/>
-      <c r="E671" t="inlineStr"/>
-      <c r="F671" t="inlineStr"/>
-      <c r="G671" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="672">
-      <c r="A672" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B672" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C672" t="inlineStr"/>
-      <c r="D672" t="inlineStr">
-        <is>
-          <t>9.043M</t>
-        </is>
-      </c>
-      <c r="E672" t="inlineStr"/>
-      <c r="F672" t="inlineStr"/>
-      <c r="G672" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="673">
-      <c r="A673" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B673" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsFEB/15</t>
-        </is>
-      </c>
-      <c r="C673" t="inlineStr"/>
-      <c r="D673" t="inlineStr"/>
-      <c r="E673" t="inlineStr"/>
-      <c r="F673" t="inlineStr">
-        <is>
-          <t>220.0K</t>
-        </is>
-      </c>
-      <c r="G673" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="674">
-      <c r="A674" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B674" t="inlineStr">
-        <is>
-          <t>Philadelphia Fed Manufacturing IndexFEB</t>
-        </is>
-      </c>
-      <c r="C674" t="inlineStr"/>
-      <c r="D674" t="inlineStr">
-        <is>
-          <t>44.3</t>
-        </is>
-      </c>
-      <c r="E674" t="inlineStr"/>
-      <c r="F674" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="G674" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="675">
-      <c r="A675" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B675" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsFEB/08</t>
-        </is>
-      </c>
-      <c r="C675" t="inlineStr"/>
-      <c r="D675" t="inlineStr"/>
-      <c r="E675" t="inlineStr"/>
-      <c r="F675" t="inlineStr">
-        <is>
-          <t>1879.0K</t>
-        </is>
-      </c>
-      <c r="G675" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="676">
-      <c r="A676" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B676" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageFEB/15</t>
-        </is>
-      </c>
-      <c r="C676" t="inlineStr"/>
-      <c r="D676" t="inlineStr"/>
-      <c r="E676" t="inlineStr"/>
-      <c r="F676" t="inlineStr">
-        <is>
-          <t>219.0K</t>
-        </is>
-      </c>
-      <c r="G676" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="677">
-      <c r="A677" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B677" t="inlineStr">
-        <is>
-          <t>Philly Fed Business ConditionsFEB</t>
-        </is>
-      </c>
-      <c r="C677" t="inlineStr"/>
-      <c r="D677" t="inlineStr">
-        <is>
-          <t>46.3</t>
-        </is>
-      </c>
-      <c r="E677" t="inlineStr"/>
-      <c r="F677" t="inlineStr"/>
-      <c r="G677" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="678">
-      <c r="A678" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B678" t="inlineStr">
-        <is>
-          <t>Philly Fed CAPEX IndexFEB</t>
-        </is>
-      </c>
-      <c r="C678" t="inlineStr"/>
-      <c r="D678" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="E678" t="inlineStr"/>
-      <c r="F678" t="inlineStr"/>
-      <c r="G678" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="679">
-      <c r="A679" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B679" t="inlineStr">
-        <is>
-          <t>Philly Fed EmploymentFEB</t>
-        </is>
-      </c>
-      <c r="C679" t="inlineStr"/>
-      <c r="D679" t="inlineStr">
-        <is>
-          <t>11.9</t>
-        </is>
-      </c>
-      <c r="E679" t="inlineStr"/>
-      <c r="F679" t="inlineStr"/>
-      <c r="G679" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="680">
-      <c r="A680" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B680" t="inlineStr">
-        <is>
-          <t>Philly Fed New OrdersFEB</t>
-        </is>
-      </c>
-      <c r="C680" t="inlineStr"/>
-      <c r="D680" t="inlineStr">
-        <is>
-          <t>42.9</t>
-        </is>
-      </c>
-      <c r="E680" t="inlineStr"/>
-      <c r="F680" t="inlineStr"/>
-      <c r="G680" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="681">
-      <c r="A681" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B681" t="inlineStr">
-        <is>
-          <t>Philly Fed Prices PaidFEB</t>
-        </is>
-      </c>
-      <c r="C681" t="inlineStr"/>
-      <c r="D681" t="inlineStr">
-        <is>
-          <t>31.9</t>
-        </is>
-      </c>
-      <c r="E681" t="inlineStr"/>
-      <c r="F681" t="inlineStr"/>
-      <c r="G681" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="682">
-      <c r="A682" t="inlineStr">
-        <is>
-          <t>08:05 PM</t>
-        </is>
-      </c>
-      <c r="B682" t="inlineStr">
-        <is>
-          <t>Fed Golsbee Speech</t>
-        </is>
-      </c>
-      <c r="C682" t="inlineStr"/>
-      <c r="D682" t="inlineStr"/>
-      <c r="E682" t="inlineStr"/>
-      <c r="F682" t="inlineStr"/>
-      <c r="G682" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="683">
-      <c r="A683" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B683" t="inlineStr">
-        <is>
-          <t>CB Leading Index MoMJAN</t>
-        </is>
-      </c>
-      <c r="C683" t="inlineStr"/>
-      <c r="D683" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E683" t="inlineStr"/>
-      <c r="F683" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G683" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="684">
-      <c r="A684" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B684" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C684" t="inlineStr"/>
-      <c r="D684" t="inlineStr"/>
-      <c r="E684" t="inlineStr"/>
-      <c r="F684" t="inlineStr"/>
-      <c r="G684" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="685">
-      <c r="A685" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B685" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C685" t="inlineStr"/>
-      <c r="D685" t="inlineStr"/>
-      <c r="E685" t="inlineStr"/>
-      <c r="F685" t="inlineStr"/>
-      <c r="G685" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="686">
-      <c r="A686" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B686" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C686" t="inlineStr"/>
-      <c r="D686" t="inlineStr"/>
-      <c r="E686" t="inlineStr"/>
-      <c r="F686" t="inlineStr"/>
-      <c r="G686" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="687">
-      <c r="A687" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B687" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C687" t="inlineStr"/>
-      <c r="D687" t="inlineStr">
-        <is>
-          <t>4.07M</t>
-        </is>
-      </c>
-      <c r="E687" t="inlineStr"/>
-      <c r="F687" t="inlineStr"/>
-      <c r="G687" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="688">
-      <c r="A688" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B688" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C688" t="inlineStr"/>
-      <c r="D688" t="inlineStr">
-        <is>
-          <t>-3.035M</t>
-        </is>
-      </c>
-      <c r="E688" t="inlineStr"/>
-      <c r="F688" t="inlineStr"/>
-      <c r="G688" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="689">
-      <c r="A689" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B689" t="inlineStr">
-        <is>
-          <t>Fed Musalem Speech</t>
-        </is>
-      </c>
-      <c r="C689" t="inlineStr"/>
-      <c r="D689" t="inlineStr"/>
-      <c r="E689" t="inlineStr"/>
-      <c r="F689" t="inlineStr"/>
-      <c r="G689" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="690">
-      <c r="A690" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B690" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateFEB/20</t>
-        </is>
-      </c>
-      <c r="C690" t="inlineStr"/>
-      <c r="D690" t="inlineStr"/>
-      <c r="E690" t="inlineStr"/>
-      <c r="F690" t="inlineStr"/>
-      <c r="G690" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="691">
-      <c r="A691" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B691" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateFEB/20</t>
-        </is>
-      </c>
-      <c r="C691" t="inlineStr"/>
-      <c r="D691" t="inlineStr"/>
-      <c r="E691" t="inlineStr"/>
-      <c r="F691" t="inlineStr"/>
-      <c r="G691" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="692">
-      <c r="A692" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B692" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C692" t="inlineStr"/>
-      <c r="D692" t="inlineStr">
-        <is>
-          <t>-0.184M</t>
-        </is>
-      </c>
-      <c r="E692" t="inlineStr"/>
-      <c r="F692" t="inlineStr"/>
-      <c r="G692" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="693">
-      <c r="A693" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B693" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C693" t="inlineStr"/>
-      <c r="D693" t="inlineStr">
-        <is>
-          <t>0.872M</t>
-        </is>
-      </c>
-      <c r="E693" t="inlineStr"/>
-      <c r="F693" t="inlineStr"/>
-      <c r="G693" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="694">
-      <c r="A694" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B694" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C694" t="inlineStr"/>
-      <c r="D694" t="inlineStr">
-        <is>
-          <t>-0.009M</t>
-        </is>
-      </c>
-      <c r="E694" t="inlineStr"/>
-      <c r="F694" t="inlineStr"/>
-      <c r="G694" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="695">
-      <c r="A695" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B695" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C695" t="inlineStr"/>
-      <c r="D695" t="inlineStr">
-        <is>
-          <t>0.135M</t>
-        </is>
-      </c>
-      <c r="E695" t="inlineStr"/>
-      <c r="F695" t="inlineStr"/>
-      <c r="G695" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="696">
-      <c r="A696" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B696" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C696" t="inlineStr"/>
-      <c r="D696" t="inlineStr">
-        <is>
-          <t>0.18M</t>
-        </is>
-      </c>
-      <c r="E696" t="inlineStr"/>
-      <c r="F696" t="inlineStr"/>
-      <c r="G696" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="697">
-      <c r="A697" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B697" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C697" t="inlineStr"/>
-      <c r="D697" t="inlineStr">
-        <is>
-          <t>0.159M</t>
-        </is>
-      </c>
-      <c r="E697" t="inlineStr"/>
-      <c r="F697" t="inlineStr"/>
-      <c r="G697" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="698">
-      <c r="A698" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B698" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C698" t="inlineStr"/>
-      <c r="D698" t="inlineStr">
-        <is>
-          <t>0.082M</t>
-        </is>
-      </c>
-      <c r="E698" t="inlineStr"/>
-      <c r="F698" t="inlineStr"/>
-      <c r="G698" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="699">
-      <c r="A699" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B699" t="inlineStr">
-        <is>
-          <t>30-Year TIPS Auction</t>
-        </is>
-      </c>
-      <c r="C699" t="inlineStr"/>
-      <c r="D699" t="inlineStr">
-        <is>
-          <t>2.055%</t>
-        </is>
-      </c>
-      <c r="E699" t="inlineStr"/>
-      <c r="F699" t="inlineStr"/>
-      <c r="G699" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="700">
-      <c r="A700" t="inlineStr">
-        <is>
-          <t>Friday February 21 2025</t>
-        </is>
-      </c>
-      <c r="B700" t="inlineStr"/>
-      <c r="C700" t="inlineStr"/>
-      <c r="D700" t="inlineStr"/>
-      <c r="E700" t="inlineStr"/>
-      <c r="F700" t="inlineStr"/>
-      <c r="G700" t="inlineStr"/>
-    </row>
-    <row r="701">
-      <c r="A701" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B701" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetFEB/19</t>
-        </is>
-      </c>
-      <c r="C701" t="inlineStr"/>
-      <c r="D701" t="inlineStr"/>
-      <c r="E701" t="inlineStr"/>
-      <c r="F701" t="inlineStr"/>
-      <c r="G701" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="702">
-      <c r="A702" t="inlineStr">
-        <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B702" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Composite PMI FlashFEB</t>
-        </is>
-      </c>
-      <c r="C702" t="inlineStr"/>
-      <c r="D702" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="E702" t="inlineStr"/>
-      <c r="F702" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="G702" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="703">
-      <c r="A703" t="inlineStr">
-        <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B703" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMI FlashFEB</t>
-        </is>
-      </c>
-      <c r="C703" t="inlineStr"/>
-      <c r="D703" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="E703" t="inlineStr"/>
-      <c r="F703" t="inlineStr">
-        <is>
-          <t>51.3</t>
-        </is>
-      </c>
-      <c r="G703" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="704">
-      <c r="A704" t="inlineStr">
-        <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B704" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Services PMI FlashFEB</t>
-        </is>
-      </c>
-      <c r="C704" t="inlineStr"/>
-      <c r="D704" t="inlineStr">
-        <is>
-          <t>52.9</t>
-        </is>
-      </c>
-      <c r="E704" t="inlineStr"/>
-      <c r="F704" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="G704" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="705">
-      <c r="A705" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B705" t="inlineStr">
-        <is>
-          <t>Existing Home SalesJAN</t>
-        </is>
-      </c>
-      <c r="C705" t="inlineStr"/>
-      <c r="D705" t="inlineStr">
-        <is>
-          <t>4.24M</t>
-        </is>
-      </c>
-      <c r="E705" t="inlineStr"/>
-      <c r="F705" t="inlineStr">
-        <is>
-          <t>4.16M</t>
-        </is>
-      </c>
-      <c r="G705" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="706">
-      <c r="A706" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B706" t="inlineStr">
-        <is>
-          <t>Existing Home Sales MoMJAN</t>
-        </is>
-      </c>
-      <c r="C706" t="inlineStr"/>
-      <c r="D706" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E706" t="inlineStr"/>
-      <c r="F706" t="inlineStr">
-        <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="G706" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="707">
-      <c r="A707" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B707" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment FinalFEB</t>
-        </is>
-      </c>
-      <c r="C707" t="inlineStr"/>
-      <c r="D707" t="inlineStr">
-        <is>
-          <t>71.1</t>
-        </is>
-      </c>
-      <c r="E707" t="inlineStr">
-        <is>
-          <t>67.8</t>
-        </is>
-      </c>
-      <c r="F707" t="inlineStr">
-        <is>
-          <t>67.8</t>
-        </is>
-      </c>
-      <c r="G707" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="708">
-      <c r="A708" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B708" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations FinalFEB</t>
-        </is>
-      </c>
-      <c r="C708" t="inlineStr"/>
-      <c r="D708" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="E708" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F708" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G708" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="709">
-      <c r="A709" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B709" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations FinalFEB</t>
-        </is>
-      </c>
-      <c r="C709" t="inlineStr"/>
-      <c r="D709" t="inlineStr">
-        <is>
-          <t>69.3</t>
-        </is>
-      </c>
-      <c r="E709" t="inlineStr">
-        <is>
-          <t>67.3</t>
-        </is>
-      </c>
-      <c r="F709" t="inlineStr">
-        <is>
-          <t>67.3</t>
-        </is>
-      </c>
-      <c r="G709" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="710">
-      <c r="A710" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B710" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions FinalFEB</t>
-        </is>
-      </c>
-      <c r="C710" t="inlineStr"/>
-      <c r="D710" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="E710" t="inlineStr">
-        <is>
-          <t>68.7</t>
-        </is>
-      </c>
-      <c r="F710" t="inlineStr">
-        <is>
-          <t>68.7</t>
-        </is>
-      </c>
-      <c r="G710" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="711">
-      <c r="A711" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B711" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations FinalFEB</t>
-        </is>
-      </c>
-      <c r="C711" t="inlineStr"/>
-      <c r="D711" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E711" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="F711" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="G711" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="712">
-      <c r="A712" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B712" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountFEB/21</t>
-        </is>
-      </c>
-      <c r="C712" t="inlineStr"/>
-      <c r="D712" t="inlineStr"/>
-      <c r="E712" t="inlineStr"/>
-      <c r="F712" t="inlineStr"/>
-      <c r="G712" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="713">
-      <c r="A713" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B713" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountFEB/21</t>
-        </is>
-      </c>
-      <c r="C713" t="inlineStr"/>
-      <c r="D713" t="inlineStr"/>
-      <c r="E713" t="inlineStr"/>
-      <c r="F713" t="inlineStr"/>
-      <c r="G713" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="714">
-      <c r="A714" t="inlineStr">
-        <is>
-          <t>Sunday February 23 2025</t>
-        </is>
-      </c>
-      <c r="B714" t="inlineStr"/>
-      <c r="C714" t="inlineStr"/>
-      <c r="D714" t="inlineStr"/>
-      <c r="E714" t="inlineStr"/>
-      <c r="F714" t="inlineStr"/>
-      <c r="G714" t="inlineStr"/>
+      <c r="G647" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-02-23.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-02-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G715"/>
+  <dimension ref="A1:G657"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17125,10 +17125,8 @@
           <t>$-93.0B</t>
         </is>
       </c>
-      <c r="G606" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G606" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="607">
@@ -17146,10 +17144,8 @@
       <c r="D607" t="inlineStr"/>
       <c r="E607" t="inlineStr"/>
       <c r="F607" t="inlineStr"/>
-      <c r="G607" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G607" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="608">
@@ -17179,10 +17175,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G608" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G608" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="609">
@@ -17212,10 +17206,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="G609" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G609" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="610">
@@ -17245,10 +17237,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="G610" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G610" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="611">
@@ -17278,10 +17268,8 @@
           <t>1875.0K</t>
         </is>
       </c>
-      <c r="G611" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G611" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="612">
@@ -17311,10 +17299,8 @@
           <t>3.5%</t>
         </is>
       </c>
-      <c r="G612" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G612" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="613">
@@ -17340,10 +17326,8 @@
           <t>216.0K</t>
         </is>
       </c>
-      <c r="G613" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G613" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="614">
@@ -17369,10 +17353,8 @@
           <t>147.2</t>
         </is>
       </c>
-      <c r="G614" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G614" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="615">
@@ -17398,10 +17380,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G615" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G615" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="616">
@@ -17431,10 +17411,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="G616" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G616" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="617">
@@ -17464,10 +17442,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="G617" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G617" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="618">
@@ -17493,10 +17469,8 @@
         </is>
       </c>
       <c r="F618" t="inlineStr"/>
-      <c r="G618" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G618" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="619">
@@ -17518,10 +17492,8 @@
       </c>
       <c r="E619" t="inlineStr"/>
       <c r="F619" t="inlineStr"/>
-      <c r="G619" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G619" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="620">
@@ -17543,10 +17515,8 @@
       </c>
       <c r="E620" t="inlineStr"/>
       <c r="F620" t="inlineStr"/>
-      <c r="G620" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G620" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="621">
@@ -17568,10 +17538,8 @@
       </c>
       <c r="E621" t="inlineStr"/>
       <c r="F621" t="inlineStr"/>
-      <c r="G621" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G621" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="622">
@@ -17593,10 +17561,8 @@
       </c>
       <c r="E622" t="inlineStr"/>
       <c r="F622" t="inlineStr"/>
-      <c r="G622" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G622" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="623">
@@ -17618,10 +17584,8 @@
       </c>
       <c r="E623" t="inlineStr"/>
       <c r="F623" t="inlineStr"/>
-      <c r="G623" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G623" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="624">
@@ -17643,44 +17607,54 @@
       </c>
       <c r="E624" t="inlineStr"/>
       <c r="F624" t="inlineStr"/>
-      <c r="G624" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G624" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>Friday February 14 2025</t>
-        </is>
-      </c>
-      <c r="B625" t="inlineStr"/>
+          <t>08:05 PM</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>Fed Golsbee Speech</t>
+        </is>
+      </c>
       <c r="C625" t="inlineStr"/>
       <c r="D625" t="inlineStr"/>
       <c r="E625" t="inlineStr"/>
       <c r="F625" t="inlineStr"/>
-      <c r="G625" t="inlineStr"/>
+      <c r="G625" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>Fed Balance SheetFEB/12</t>
+          <t>CB Leading Index MoMJAN</t>
         </is>
       </c>
       <c r="C626" t="inlineStr"/>
       <c r="D626" t="inlineStr">
         <is>
-          <t>$6.81T</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E626" t="inlineStr"/>
-      <c r="F626" t="inlineStr"/>
+      <c r="F626" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="G626" t="inlineStr">
         <is>
           <t>3</t>
@@ -17690,129 +17664,85 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>Retail Sales MoMJAN</t>
+          <t>EIA Natural Gas Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C627" t="inlineStr"/>
-      <c r="D627" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E627" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F627" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="D627" t="inlineStr"/>
+      <c r="E627" t="inlineStr"/>
+      <c r="F627" t="inlineStr"/>
       <c r="G627" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>Export Prices MoMJAN</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C628" t="inlineStr"/>
-      <c r="D628" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E628" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F628" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="D628" t="inlineStr"/>
+      <c r="E628" t="inlineStr"/>
+      <c r="F628" t="inlineStr"/>
       <c r="G628" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>Import Prices MoMJAN</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C629" t="inlineStr"/>
-      <c r="D629" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E629" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F629" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="D629" t="inlineStr"/>
+      <c r="E629" t="inlineStr"/>
+      <c r="F629" t="inlineStr"/>
       <c r="G629" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>Retail Sales Control Group MoMJAN</t>
+          <t>EIA Crude Oil Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C630" t="inlineStr"/>
       <c r="D630" t="inlineStr">
         <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="E630" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F630" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>4.07M</t>
+        </is>
+      </c>
+      <c r="E630" t="inlineStr"/>
+      <c r="F630" t="inlineStr"/>
       <c r="G630" t="inlineStr">
         <is>
           <t>2</t>
@@ -17822,30 +17752,22 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Autos MoMJAN</t>
+          <t>EIA Gasoline Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C631" t="inlineStr"/>
       <c r="D631" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E631" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F631" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>-3.035M</t>
+        </is>
+      </c>
+      <c r="E631" t="inlineStr"/>
+      <c r="F631" t="inlineStr"/>
       <c r="G631" t="inlineStr">
         <is>
           <t>2</t>
@@ -17855,55 +17777,39 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>Export Prices YoYJAN</t>
+          <t>Fed Musalem Speech</t>
         </is>
       </c>
       <c r="C632" t="inlineStr"/>
-      <c r="D632" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
+      <c r="D632" t="inlineStr"/>
       <c r="E632" t="inlineStr"/>
-      <c r="F632" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="F632" t="inlineStr"/>
       <c r="G632" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>Import Prices YoYJAN</t>
+          <t>15-Year Mortgage RateFEB/20</t>
         </is>
       </c>
       <c r="C633" t="inlineStr"/>
-      <c r="D633" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
+      <c r="D633" t="inlineStr"/>
       <c r="E633" t="inlineStr"/>
-      <c r="F633" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="F633" t="inlineStr"/>
       <c r="G633" t="inlineStr">
         <is>
           <t>3</t>
@@ -17913,26 +17819,18 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Gas/Autos MoMJAN</t>
+          <t>30-Year Mortgage RateFEB/20</t>
         </is>
       </c>
       <c r="C634" t="inlineStr"/>
-      <c r="D634" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="D634" t="inlineStr"/>
       <c r="E634" t="inlineStr"/>
-      <c r="F634" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F634" t="inlineStr"/>
       <c r="G634" t="inlineStr">
         <is>
           <t>3</t>
@@ -17942,26 +17840,22 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>Retail Sales YoYJAN</t>
+          <t>EIA Crude Oil Imports ChangeFEB/14</t>
         </is>
       </c>
       <c r="C635" t="inlineStr"/>
       <c r="D635" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-0.184M</t>
         </is>
       </c>
       <c r="E635" t="inlineStr"/>
-      <c r="F635" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
+      <c r="F635" t="inlineStr"/>
       <c r="G635" t="inlineStr">
         <is>
           <t>3</t>
@@ -17971,63 +17865,47 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>Industrial Production MoMJAN</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C636" t="inlineStr"/>
       <c r="D636" t="inlineStr">
         <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="E636" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F636" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>0.872M</t>
+        </is>
+      </c>
+      <c r="E636" t="inlineStr"/>
+      <c r="F636" t="inlineStr"/>
       <c r="G636" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>EIA Distillate Fuel Production ChangeFEB/14</t>
         </is>
       </c>
       <c r="C637" t="inlineStr"/>
       <c r="D637" t="inlineStr">
         <is>
-          <t>77.6%</t>
-        </is>
-      </c>
-      <c r="E637" t="inlineStr">
-        <is>
-          <t>77.7%</t>
-        </is>
-      </c>
-      <c r="F637" t="inlineStr">
-        <is>
-          <t>77.4%</t>
-        </is>
-      </c>
+          <t>-0.009M</t>
+        </is>
+      </c>
+      <c r="E637" t="inlineStr"/>
+      <c r="F637" t="inlineStr"/>
       <c r="G637" t="inlineStr">
         <is>
           <t>3</t>
@@ -18037,26 +17915,22 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>Industrial Production YoYJAN</t>
+          <t>EIA Distillate Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C638" t="inlineStr"/>
       <c r="D638" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.135M</t>
         </is>
       </c>
       <c r="E638" t="inlineStr"/>
-      <c r="F638" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="F638" t="inlineStr"/>
       <c r="G638" t="inlineStr">
         <is>
           <t>3</t>
@@ -18066,30 +17940,22 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMJAN</t>
+          <t>EIA Gasoline Production ChangeFEB/14</t>
         </is>
       </c>
       <c r="C639" t="inlineStr"/>
       <c r="D639" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="E639" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F639" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>0.18M</t>
+        </is>
+      </c>
+      <c r="E639" t="inlineStr"/>
+      <c r="F639" t="inlineStr"/>
       <c r="G639" t="inlineStr">
         <is>
           <t>3</t>
@@ -18099,26 +17965,22 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYJAN</t>
+          <t>EIA Heating Oil Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C640" t="inlineStr"/>
       <c r="D640" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.159M</t>
         </is>
       </c>
       <c r="E640" t="inlineStr"/>
-      <c r="F640" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="F640" t="inlineStr"/>
       <c r="G640" t="inlineStr">
         <is>
           <t>3</t>
@@ -18128,63 +17990,47 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>Business Inventories MoMDEC</t>
+          <t>EIA Refinery Crude Runs ChangeFEB/14</t>
         </is>
       </c>
       <c r="C641" t="inlineStr"/>
       <c r="D641" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E641" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F641" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+          <t>0.082M</t>
+        </is>
+      </c>
+      <c r="E641" t="inlineStr"/>
+      <c r="F641" t="inlineStr"/>
       <c r="G641" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoMDEC</t>
+          <t>30-Year TIPS Auction</t>
         </is>
       </c>
       <c r="C642" t="inlineStr"/>
       <c r="D642" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E642" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F642" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>2.055%</t>
+        </is>
+      </c>
+      <c r="E642" t="inlineStr"/>
+      <c r="F642" t="inlineStr"/>
       <c r="G642" t="inlineStr">
         <is>
           <t>3</t>
@@ -18194,45 +18040,29 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B643" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountFEB/14</t>
-        </is>
-      </c>
+          <t>Friday February 21 2025</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr"/>
       <c r="C643" t="inlineStr"/>
-      <c r="D643" t="inlineStr">
-        <is>
-          <t>480</t>
-        </is>
-      </c>
+      <c r="D643" t="inlineStr"/>
       <c r="E643" t="inlineStr"/>
       <c r="F643" t="inlineStr"/>
-      <c r="G643" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G643" t="inlineStr"/>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountFEB/14</t>
+          <t>Fed Balance SheetFEB/19</t>
         </is>
       </c>
       <c r="C644" t="inlineStr"/>
-      <c r="D644" t="inlineStr">
-        <is>
-          <t>586</t>
-        </is>
-      </c>
+      <c r="D644" t="inlineStr"/>
       <c r="E644" t="inlineStr"/>
       <c r="F644" t="inlineStr"/>
       <c r="G644" t="inlineStr">
@@ -18244,44 +18074,84 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>Sunday February 16 2025</t>
-        </is>
-      </c>
-      <c r="B645" t="inlineStr"/>
+          <t>08:15 PM</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Composite PMI FlashFEB</t>
+        </is>
+      </c>
       <c r="C645" t="inlineStr"/>
-      <c r="D645" t="inlineStr"/>
+      <c r="D645" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
       <c r="E645" t="inlineStr"/>
-      <c r="F645" t="inlineStr"/>
-      <c r="G645" t="inlineStr"/>
+      <c r="F645" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
+      <c r="G645" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>Monday February 17 2025</t>
-        </is>
-      </c>
-      <c r="B646" t="inlineStr"/>
+          <t>08:15 PM</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Manufacturing PMI FlashFEB</t>
+        </is>
+      </c>
       <c r="C646" t="inlineStr"/>
-      <c r="D646" t="inlineStr"/>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
       <c r="E646" t="inlineStr"/>
-      <c r="F646" t="inlineStr"/>
-      <c r="G646" t="inlineStr"/>
+      <c r="F646" t="inlineStr">
+        <is>
+          <t>51.3</t>
+        </is>
+      </c>
+      <c r="G646" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>Fed Harker Speech</t>
+          <t>S&amp;P Global Services PMI FlashFEB</t>
         </is>
       </c>
       <c r="C647" t="inlineStr"/>
-      <c r="D647" t="inlineStr"/>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t>52.9</t>
+        </is>
+      </c>
       <c r="E647" t="inlineStr"/>
-      <c r="F647" t="inlineStr"/>
+      <c r="F647" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
       <c r="G647" t="inlineStr">
         <is>
           <t>2</t>
@@ -18291,37 +18161,53 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>Tuesday February 18 2025</t>
-        </is>
-      </c>
-      <c r="B648" t="inlineStr"/>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>Existing Home SalesJAN</t>
+        </is>
+      </c>
       <c r="C648" t="inlineStr"/>
-      <c r="D648" t="inlineStr"/>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>4.24M</t>
+        </is>
+      </c>
       <c r="E648" t="inlineStr"/>
-      <c r="F648" t="inlineStr"/>
-      <c r="G648" t="inlineStr"/>
+      <c r="F648" t="inlineStr">
+        <is>
+          <t>4.16M</t>
+        </is>
+      </c>
+      <c r="G648" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>NY Empire State Manufacturing IndexFEB</t>
+          <t>Existing Home Sales MoMJAN</t>
         </is>
       </c>
       <c r="C649" t="inlineStr"/>
       <c r="D649" t="inlineStr">
         <is>
-          <t>-12.6</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="E649" t="inlineStr"/>
       <c r="F649" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="G649" t="inlineStr">
@@ -18338,19 +18224,23 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>NAHB Housing Market IndexFEB</t>
+          <t>Michigan Consumer Sentiment FinalFEB</t>
         </is>
       </c>
       <c r="C650" t="inlineStr"/>
       <c r="D650" t="inlineStr">
         <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="E650" t="inlineStr"/>
+          <t>71.1</t>
+        </is>
+      </c>
+      <c r="E650" t="inlineStr">
+        <is>
+          <t>67.8</t>
+        </is>
+      </c>
       <c r="F650" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>67.8</t>
         </is>
       </c>
       <c r="G650" t="inlineStr">
@@ -18362,22 +18252,30 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Michigan 5 Year Inflation Expectations FinalFEB</t>
         </is>
       </c>
       <c r="C651" t="inlineStr"/>
       <c r="D651" t="inlineStr">
         <is>
-          <t>4.225%</t>
-        </is>
-      </c>
-      <c r="E651" t="inlineStr"/>
-      <c r="F651" t="inlineStr"/>
+          <t>3.2%</t>
+        </is>
+      </c>
+      <c r="E651" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="F651" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G651" t="inlineStr">
         <is>
           <t>3</t>
@@ -18387,22 +18285,30 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>Michigan Consumer Expectations FinalFEB</t>
         </is>
       </c>
       <c r="C652" t="inlineStr"/>
       <c r="D652" t="inlineStr">
         <is>
-          <t>4.025%</t>
-        </is>
-      </c>
-      <c r="E652" t="inlineStr"/>
-      <c r="F652" t="inlineStr"/>
+          <t>69.3</t>
+        </is>
+      </c>
+      <c r="E652" t="inlineStr">
+        <is>
+          <t>67.3</t>
+        </is>
+      </c>
+      <c r="F652" t="inlineStr">
+        <is>
+          <t>67.3</t>
+        </is>
+      </c>
       <c r="G652" t="inlineStr">
         <is>
           <t>3</t>
@@ -18412,22 +18318,30 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Michigan Current Conditions FinalFEB</t>
         </is>
       </c>
       <c r="C653" t="inlineStr"/>
       <c r="D653" t="inlineStr">
         <is>
-          <t>4.185%</t>
-        </is>
-      </c>
-      <c r="E653" t="inlineStr"/>
-      <c r="F653" t="inlineStr"/>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="E653" t="inlineStr">
+        <is>
+          <t>68.7</t>
+        </is>
+      </c>
+      <c r="F653" t="inlineStr">
+        <is>
+          <t>68.7</t>
+        </is>
+      </c>
       <c r="G653" t="inlineStr">
         <is>
           <t>3</t>
@@ -18437,18 +18351,30 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>NOPA Crush Report</t>
+          <t>Michigan Inflation Expectations FinalFEB</t>
         </is>
       </c>
       <c r="C654" t="inlineStr"/>
-      <c r="D654" t="inlineStr"/>
-      <c r="E654" t="inlineStr"/>
-      <c r="F654" t="inlineStr"/>
+      <c r="D654" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="E654" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
+      <c r="F654" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="G654" t="inlineStr">
         <is>
           <t>3</t>
@@ -18458,1515 +18384,57 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>Wednesday February 19 2025</t>
-        </is>
-      </c>
-      <c r="B655" t="inlineStr"/>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>Baker Hughes Oil Rig CountFEB/21</t>
+        </is>
+      </c>
       <c r="C655" t="inlineStr"/>
       <c r="D655" t="inlineStr"/>
       <c r="E655" t="inlineStr"/>
       <c r="F655" t="inlineStr"/>
-      <c r="G655" t="inlineStr"/>
+      <c r="G655" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsDEC</t>
+          <t>Baker Hughes Total Rigs CountFEB/21</t>
         </is>
       </c>
       <c r="C656" t="inlineStr"/>
-      <c r="D656" t="inlineStr">
-        <is>
-          <t>$79B</t>
-        </is>
-      </c>
+      <c r="D656" t="inlineStr"/>
       <c r="E656" t="inlineStr"/>
       <c r="F656" t="inlineStr"/>
       <c r="G656" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B657" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentDEC</t>
-        </is>
-      </c>
+          <t>Sunday February 23 2025</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr"/>
       <c r="C657" t="inlineStr"/>
-      <c r="D657" t="inlineStr">
-        <is>
-          <t>$-15.8B</t>
-        </is>
-      </c>
+      <c r="D657" t="inlineStr"/>
       <c r="E657" t="inlineStr"/>
       <c r="F657" t="inlineStr"/>
-      <c r="G657" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="658">
-      <c r="A658" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B658" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsDEC</t>
-        </is>
-      </c>
-      <c r="C658" t="inlineStr"/>
-      <c r="D658" t="inlineStr">
-        <is>
-          <t>$159.9B</t>
-        </is>
-      </c>
-      <c r="E658" t="inlineStr"/>
-      <c r="F658" t="inlineStr"/>
-      <c r="G658" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="659">
-      <c r="A659" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B659" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateFEB/14</t>
-        </is>
-      </c>
-      <c r="C659" t="inlineStr"/>
-      <c r="D659" t="inlineStr">
-        <is>
-          <t>6.95%</t>
-        </is>
-      </c>
-      <c r="E659" t="inlineStr"/>
-      <c r="F659" t="inlineStr"/>
-      <c r="G659" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="660">
-      <c r="A660" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B660" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsFEB/14</t>
-        </is>
-      </c>
-      <c r="C660" t="inlineStr"/>
-      <c r="D660" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="E660" t="inlineStr"/>
-      <c r="F660" t="inlineStr"/>
-      <c r="G660" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="661">
-      <c r="A661" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B661" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexFEB/14</t>
-        </is>
-      </c>
-      <c r="C661" t="inlineStr"/>
-      <c r="D661" t="inlineStr">
-        <is>
-          <t>230.0</t>
-        </is>
-      </c>
-      <c r="E661" t="inlineStr"/>
-      <c r="F661" t="inlineStr"/>
-      <c r="G661" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="662">
-      <c r="A662" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B662" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexFEB/14</t>
-        </is>
-      </c>
-      <c r="C662" t="inlineStr"/>
-      <c r="D662" t="inlineStr">
-        <is>
-          <t>640.6</t>
-        </is>
-      </c>
-      <c r="E662" t="inlineStr"/>
-      <c r="F662" t="inlineStr"/>
-      <c r="G662" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="663">
-      <c r="A663" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B663" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexFEB/14</t>
-        </is>
-      </c>
-      <c r="C663" t="inlineStr"/>
-      <c r="D663" t="inlineStr">
-        <is>
-          <t>153.1</t>
-        </is>
-      </c>
-      <c r="E663" t="inlineStr"/>
-      <c r="F663" t="inlineStr"/>
-      <c r="G663" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="664">
-      <c r="A664" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B664" t="inlineStr">
-        <is>
-          <t>Building Permits PrelJAN</t>
-        </is>
-      </c>
-      <c r="C664" t="inlineStr"/>
-      <c r="D664" t="inlineStr">
-        <is>
-          <t>1.482M</t>
-        </is>
-      </c>
-      <c r="E664" t="inlineStr"/>
-      <c r="F664" t="inlineStr">
-        <is>
-          <t>1.47M</t>
-        </is>
-      </c>
-      <c r="G664" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="665">
-      <c r="A665" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B665" t="inlineStr">
-        <is>
-          <t>Housing StartsJAN</t>
-        </is>
-      </c>
-      <c r="C665" t="inlineStr"/>
-      <c r="D665" t="inlineStr">
-        <is>
-          <t>1.499M</t>
-        </is>
-      </c>
-      <c r="E665" t="inlineStr"/>
-      <c r="F665" t="inlineStr">
-        <is>
-          <t>1.35M</t>
-        </is>
-      </c>
-      <c r="G665" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="666">
-      <c r="A666" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B666" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelJAN</t>
-        </is>
-      </c>
-      <c r="C666" t="inlineStr"/>
-      <c r="D666" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="E666" t="inlineStr"/>
-      <c r="F666" t="inlineStr">
-        <is>
-          <t>-0.8%</t>
-        </is>
-      </c>
-      <c r="G666" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="667">
-      <c r="A667" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B667" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMJAN</t>
-        </is>
-      </c>
-      <c r="C667" t="inlineStr"/>
-      <c r="D667" t="inlineStr">
-        <is>
-          <t>15.8%</t>
-        </is>
-      </c>
-      <c r="E667" t="inlineStr"/>
-      <c r="F667" t="inlineStr">
-        <is>
-          <t>-9.0%</t>
-        </is>
-      </c>
-      <c r="G667" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="668">
-      <c r="A668" t="inlineStr">
-        <is>
-          <t>07:25 PM</t>
-        </is>
-      </c>
-      <c r="B668" t="inlineStr">
-        <is>
-          <t>Redbook YoYFEB/15</t>
-        </is>
-      </c>
-      <c r="C668" t="inlineStr"/>
-      <c r="D668" t="inlineStr">
-        <is>
-          <t>5.3%</t>
-        </is>
-      </c>
-      <c r="E668" t="inlineStr"/>
-      <c r="F668" t="inlineStr"/>
-      <c r="G668" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="669">
-      <c r="A669" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B669" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C669" t="inlineStr"/>
-      <c r="D669" t="inlineStr"/>
-      <c r="E669" t="inlineStr"/>
-      <c r="F669" t="inlineStr"/>
-      <c r="G669" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="670">
-      <c r="A670" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B670" t="inlineStr">
-        <is>
-          <t>20-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C670" t="inlineStr"/>
-      <c r="D670" t="inlineStr">
-        <is>
-          <t>4.900%</t>
-        </is>
-      </c>
-      <c r="E670" t="inlineStr"/>
-      <c r="F670" t="inlineStr"/>
-      <c r="G670" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="671">
-      <c r="A671" t="inlineStr">
-        <is>
-          <t>Thursday February 20 2025</t>
-        </is>
-      </c>
-      <c r="B671" t="inlineStr"/>
-      <c r="C671" t="inlineStr"/>
-      <c r="D671" t="inlineStr"/>
-      <c r="E671" t="inlineStr"/>
-      <c r="F671" t="inlineStr"/>
-      <c r="G671" t="inlineStr"/>
-    </row>
-    <row r="672">
-      <c r="A672" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B672" t="inlineStr">
-        <is>
-          <t>FOMC Minutes</t>
-        </is>
-      </c>
-      <c r="C672" t="inlineStr"/>
-      <c r="D672" t="inlineStr"/>
-      <c r="E672" t="inlineStr"/>
-      <c r="F672" t="inlineStr"/>
-      <c r="G672" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="673">
-      <c r="A673" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B673" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C673" t="inlineStr"/>
-      <c r="D673" t="inlineStr">
-        <is>
-          <t>9.043M</t>
-        </is>
-      </c>
-      <c r="E673" t="inlineStr"/>
-      <c r="F673" t="inlineStr"/>
-      <c r="G673" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="674">
-      <c r="A674" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B674" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsFEB/15</t>
-        </is>
-      </c>
-      <c r="C674" t="inlineStr"/>
-      <c r="D674" t="inlineStr"/>
-      <c r="E674" t="inlineStr"/>
-      <c r="F674" t="inlineStr">
-        <is>
-          <t>220.0K</t>
-        </is>
-      </c>
-      <c r="G674" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="675">
-      <c r="A675" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B675" t="inlineStr">
-        <is>
-          <t>Philadelphia Fed Manufacturing IndexFEB</t>
-        </is>
-      </c>
-      <c r="C675" t="inlineStr"/>
-      <c r="D675" t="inlineStr">
-        <is>
-          <t>44.3</t>
-        </is>
-      </c>
-      <c r="E675" t="inlineStr"/>
-      <c r="F675" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="G675" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="676">
-      <c r="A676" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B676" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsFEB/08</t>
-        </is>
-      </c>
-      <c r="C676" t="inlineStr"/>
-      <c r="D676" t="inlineStr"/>
-      <c r="E676" t="inlineStr"/>
-      <c r="F676" t="inlineStr">
-        <is>
-          <t>1879.0K</t>
-        </is>
-      </c>
-      <c r="G676" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="677">
-      <c r="A677" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B677" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageFEB/15</t>
-        </is>
-      </c>
-      <c r="C677" t="inlineStr"/>
-      <c r="D677" t="inlineStr"/>
-      <c r="E677" t="inlineStr"/>
-      <c r="F677" t="inlineStr">
-        <is>
-          <t>219.0K</t>
-        </is>
-      </c>
-      <c r="G677" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="678">
-      <c r="A678" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B678" t="inlineStr">
-        <is>
-          <t>Philly Fed Business ConditionsFEB</t>
-        </is>
-      </c>
-      <c r="C678" t="inlineStr"/>
-      <c r="D678" t="inlineStr">
-        <is>
-          <t>46.3</t>
-        </is>
-      </c>
-      <c r="E678" t="inlineStr"/>
-      <c r="F678" t="inlineStr"/>
-      <c r="G678" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="679">
-      <c r="A679" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B679" t="inlineStr">
-        <is>
-          <t>Philly Fed CAPEX IndexFEB</t>
-        </is>
-      </c>
-      <c r="C679" t="inlineStr"/>
-      <c r="D679" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="E679" t="inlineStr"/>
-      <c r="F679" t="inlineStr"/>
-      <c r="G679" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="680">
-      <c r="A680" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B680" t="inlineStr">
-        <is>
-          <t>Philly Fed EmploymentFEB</t>
-        </is>
-      </c>
-      <c r="C680" t="inlineStr"/>
-      <c r="D680" t="inlineStr">
-        <is>
-          <t>11.9</t>
-        </is>
-      </c>
-      <c r="E680" t="inlineStr"/>
-      <c r="F680" t="inlineStr"/>
-      <c r="G680" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="681">
-      <c r="A681" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B681" t="inlineStr">
-        <is>
-          <t>Philly Fed New OrdersFEB</t>
-        </is>
-      </c>
-      <c r="C681" t="inlineStr"/>
-      <c r="D681" t="inlineStr">
-        <is>
-          <t>42.9</t>
-        </is>
-      </c>
-      <c r="E681" t="inlineStr"/>
-      <c r="F681" t="inlineStr"/>
-      <c r="G681" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="682">
-      <c r="A682" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B682" t="inlineStr">
-        <is>
-          <t>Philly Fed Prices PaidFEB</t>
-        </is>
-      </c>
-      <c r="C682" t="inlineStr"/>
-      <c r="D682" t="inlineStr">
-        <is>
-          <t>31.9</t>
-        </is>
-      </c>
-      <c r="E682" t="inlineStr"/>
-      <c r="F682" t="inlineStr"/>
-      <c r="G682" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="683">
-      <c r="A683" t="inlineStr">
-        <is>
-          <t>08:05 PM</t>
-        </is>
-      </c>
-      <c r="B683" t="inlineStr">
-        <is>
-          <t>Fed Golsbee Speech</t>
-        </is>
-      </c>
-      <c r="C683" t="inlineStr"/>
-      <c r="D683" t="inlineStr"/>
-      <c r="E683" t="inlineStr"/>
-      <c r="F683" t="inlineStr"/>
-      <c r="G683" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="684">
-      <c r="A684" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B684" t="inlineStr">
-        <is>
-          <t>CB Leading Index MoMJAN</t>
-        </is>
-      </c>
-      <c r="C684" t="inlineStr"/>
-      <c r="D684" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E684" t="inlineStr"/>
-      <c r="F684" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G684" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="685">
-      <c r="A685" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B685" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C685" t="inlineStr"/>
-      <c r="D685" t="inlineStr"/>
-      <c r="E685" t="inlineStr"/>
-      <c r="F685" t="inlineStr"/>
-      <c r="G685" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="686">
-      <c r="A686" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B686" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C686" t="inlineStr"/>
-      <c r="D686" t="inlineStr"/>
-      <c r="E686" t="inlineStr"/>
-      <c r="F686" t="inlineStr"/>
-      <c r="G686" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="687">
-      <c r="A687" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B687" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C687" t="inlineStr"/>
-      <c r="D687" t="inlineStr"/>
-      <c r="E687" t="inlineStr"/>
-      <c r="F687" t="inlineStr"/>
-      <c r="G687" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="688">
-      <c r="A688" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B688" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C688" t="inlineStr"/>
-      <c r="D688" t="inlineStr">
-        <is>
-          <t>4.07M</t>
-        </is>
-      </c>
-      <c r="E688" t="inlineStr"/>
-      <c r="F688" t="inlineStr"/>
-      <c r="G688" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="689">
-      <c r="A689" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B689" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C689" t="inlineStr"/>
-      <c r="D689" t="inlineStr">
-        <is>
-          <t>-3.035M</t>
-        </is>
-      </c>
-      <c r="E689" t="inlineStr"/>
-      <c r="F689" t="inlineStr"/>
-      <c r="G689" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="690">
-      <c r="A690" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B690" t="inlineStr">
-        <is>
-          <t>Fed Musalem Speech</t>
-        </is>
-      </c>
-      <c r="C690" t="inlineStr"/>
-      <c r="D690" t="inlineStr"/>
-      <c r="E690" t="inlineStr"/>
-      <c r="F690" t="inlineStr"/>
-      <c r="G690" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="691">
-      <c r="A691" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B691" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateFEB/20</t>
-        </is>
-      </c>
-      <c r="C691" t="inlineStr"/>
-      <c r="D691" t="inlineStr"/>
-      <c r="E691" t="inlineStr"/>
-      <c r="F691" t="inlineStr"/>
-      <c r="G691" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="692">
-      <c r="A692" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B692" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateFEB/20</t>
-        </is>
-      </c>
-      <c r="C692" t="inlineStr"/>
-      <c r="D692" t="inlineStr"/>
-      <c r="E692" t="inlineStr"/>
-      <c r="F692" t="inlineStr"/>
-      <c r="G692" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="693">
-      <c r="A693" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B693" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C693" t="inlineStr"/>
-      <c r="D693" t="inlineStr">
-        <is>
-          <t>-0.184M</t>
-        </is>
-      </c>
-      <c r="E693" t="inlineStr"/>
-      <c r="F693" t="inlineStr"/>
-      <c r="G693" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="694">
-      <c r="A694" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B694" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C694" t="inlineStr"/>
-      <c r="D694" t="inlineStr">
-        <is>
-          <t>0.872M</t>
-        </is>
-      </c>
-      <c r="E694" t="inlineStr"/>
-      <c r="F694" t="inlineStr"/>
-      <c r="G694" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="695">
-      <c r="A695" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B695" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C695" t="inlineStr"/>
-      <c r="D695" t="inlineStr">
-        <is>
-          <t>-0.009M</t>
-        </is>
-      </c>
-      <c r="E695" t="inlineStr"/>
-      <c r="F695" t="inlineStr"/>
-      <c r="G695" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="696">
-      <c r="A696" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B696" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C696" t="inlineStr"/>
-      <c r="D696" t="inlineStr">
-        <is>
-          <t>0.135M</t>
-        </is>
-      </c>
-      <c r="E696" t="inlineStr"/>
-      <c r="F696" t="inlineStr"/>
-      <c r="G696" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="697">
-      <c r="A697" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B697" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C697" t="inlineStr"/>
-      <c r="D697" t="inlineStr">
-        <is>
-          <t>0.18M</t>
-        </is>
-      </c>
-      <c r="E697" t="inlineStr"/>
-      <c r="F697" t="inlineStr"/>
-      <c r="G697" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="698">
-      <c r="A698" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B698" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C698" t="inlineStr"/>
-      <c r="D698" t="inlineStr">
-        <is>
-          <t>0.159M</t>
-        </is>
-      </c>
-      <c r="E698" t="inlineStr"/>
-      <c r="F698" t="inlineStr"/>
-      <c r="G698" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="699">
-      <c r="A699" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B699" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C699" t="inlineStr"/>
-      <c r="D699" t="inlineStr">
-        <is>
-          <t>0.082M</t>
-        </is>
-      </c>
-      <c r="E699" t="inlineStr"/>
-      <c r="F699" t="inlineStr"/>
-      <c r="G699" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="700">
-      <c r="A700" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B700" t="inlineStr">
-        <is>
-          <t>30-Year TIPS Auction</t>
-        </is>
-      </c>
-      <c r="C700" t="inlineStr"/>
-      <c r="D700" t="inlineStr">
-        <is>
-          <t>2.055%</t>
-        </is>
-      </c>
-      <c r="E700" t="inlineStr"/>
-      <c r="F700" t="inlineStr"/>
-      <c r="G700" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="701">
-      <c r="A701" t="inlineStr">
-        <is>
-          <t>Friday February 21 2025</t>
-        </is>
-      </c>
-      <c r="B701" t="inlineStr"/>
-      <c r="C701" t="inlineStr"/>
-      <c r="D701" t="inlineStr"/>
-      <c r="E701" t="inlineStr"/>
-      <c r="F701" t="inlineStr"/>
-      <c r="G701" t="inlineStr"/>
-    </row>
-    <row r="702">
-      <c r="A702" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B702" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetFEB/19</t>
-        </is>
-      </c>
-      <c r="C702" t="inlineStr"/>
-      <c r="D702" t="inlineStr"/>
-      <c r="E702" t="inlineStr"/>
-      <c r="F702" t="inlineStr"/>
-      <c r="G702" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="703">
-      <c r="A703" t="inlineStr">
-        <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B703" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Composite PMI FlashFEB</t>
-        </is>
-      </c>
-      <c r="C703" t="inlineStr"/>
-      <c r="D703" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="E703" t="inlineStr"/>
-      <c r="F703" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="G703" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="704">
-      <c r="A704" t="inlineStr">
-        <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B704" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMI FlashFEB</t>
-        </is>
-      </c>
-      <c r="C704" t="inlineStr"/>
-      <c r="D704" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="E704" t="inlineStr"/>
-      <c r="F704" t="inlineStr">
-        <is>
-          <t>51.3</t>
-        </is>
-      </c>
-      <c r="G704" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="705">
-      <c r="A705" t="inlineStr">
-        <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B705" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Services PMI FlashFEB</t>
-        </is>
-      </c>
-      <c r="C705" t="inlineStr"/>
-      <c r="D705" t="inlineStr">
-        <is>
-          <t>52.9</t>
-        </is>
-      </c>
-      <c r="E705" t="inlineStr"/>
-      <c r="F705" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="G705" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="706">
-      <c r="A706" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B706" t="inlineStr">
-        <is>
-          <t>Existing Home SalesJAN</t>
-        </is>
-      </c>
-      <c r="C706" t="inlineStr"/>
-      <c r="D706" t="inlineStr">
-        <is>
-          <t>4.24M</t>
-        </is>
-      </c>
-      <c r="E706" t="inlineStr"/>
-      <c r="F706" t="inlineStr">
-        <is>
-          <t>4.16M</t>
-        </is>
-      </c>
-      <c r="G706" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="707">
-      <c r="A707" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B707" t="inlineStr">
-        <is>
-          <t>Existing Home Sales MoMJAN</t>
-        </is>
-      </c>
-      <c r="C707" t="inlineStr"/>
-      <c r="D707" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E707" t="inlineStr"/>
-      <c r="F707" t="inlineStr">
-        <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="G707" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="708">
-      <c r="A708" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B708" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment FinalFEB</t>
-        </is>
-      </c>
-      <c r="C708" t="inlineStr"/>
-      <c r="D708" t="inlineStr">
-        <is>
-          <t>71.1</t>
-        </is>
-      </c>
-      <c r="E708" t="inlineStr">
-        <is>
-          <t>67.8</t>
-        </is>
-      </c>
-      <c r="F708" t="inlineStr">
-        <is>
-          <t>67.8</t>
-        </is>
-      </c>
-      <c r="G708" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="709">
-      <c r="A709" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B709" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations FinalFEB</t>
-        </is>
-      </c>
-      <c r="C709" t="inlineStr"/>
-      <c r="D709" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="E709" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F709" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G709" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="710">
-      <c r="A710" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B710" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations FinalFEB</t>
-        </is>
-      </c>
-      <c r="C710" t="inlineStr"/>
-      <c r="D710" t="inlineStr">
-        <is>
-          <t>69.3</t>
-        </is>
-      </c>
-      <c r="E710" t="inlineStr">
-        <is>
-          <t>67.3</t>
-        </is>
-      </c>
-      <c r="F710" t="inlineStr">
-        <is>
-          <t>67.3</t>
-        </is>
-      </c>
-      <c r="G710" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="711">
-      <c r="A711" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B711" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions FinalFEB</t>
-        </is>
-      </c>
-      <c r="C711" t="inlineStr"/>
-      <c r="D711" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="E711" t="inlineStr">
-        <is>
-          <t>68.7</t>
-        </is>
-      </c>
-      <c r="F711" t="inlineStr">
-        <is>
-          <t>68.7</t>
-        </is>
-      </c>
-      <c r="G711" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="712">
-      <c r="A712" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B712" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations FinalFEB</t>
-        </is>
-      </c>
-      <c r="C712" t="inlineStr"/>
-      <c r="D712" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E712" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="F712" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="G712" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="713">
-      <c r="A713" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B713" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountFEB/21</t>
-        </is>
-      </c>
-      <c r="C713" t="inlineStr"/>
-      <c r="D713" t="inlineStr"/>
-      <c r="E713" t="inlineStr"/>
-      <c r="F713" t="inlineStr"/>
-      <c r="G713" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="714">
-      <c r="A714" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B714" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountFEB/21</t>
-        </is>
-      </c>
-      <c r="C714" t="inlineStr"/>
-      <c r="D714" t="inlineStr"/>
-      <c r="E714" t="inlineStr"/>
-      <c r="F714" t="inlineStr"/>
-      <c r="G714" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="715">
-      <c r="A715" t="inlineStr">
-        <is>
-          <t>Sunday February 23 2025</t>
-        </is>
-      </c>
-      <c r="B715" t="inlineStr"/>
-      <c r="C715" t="inlineStr"/>
-      <c r="D715" t="inlineStr"/>
-      <c r="E715" t="inlineStr"/>
-      <c r="F715" t="inlineStr"/>
-      <c r="G715" t="inlineStr"/>
+      <c r="G657" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-02-23.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-02-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G715"/>
+  <dimension ref="A1:G657"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17125,10 +17125,8 @@
           <t>$-93.0B</t>
         </is>
       </c>
-      <c r="G606" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G606" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="607">
@@ -17146,10 +17144,8 @@
       <c r="D607" t="inlineStr"/>
       <c r="E607" t="inlineStr"/>
       <c r="F607" t="inlineStr"/>
-      <c r="G607" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G607" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="608">
@@ -17183,10 +17179,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G608" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G608" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="609">
@@ -17220,10 +17214,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="G609" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G609" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="610">
@@ -17257,10 +17249,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="G610" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G610" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="611">
@@ -17294,10 +17284,8 @@
           <t>1875.0K</t>
         </is>
       </c>
-      <c r="G611" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G611" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="612">
@@ -17331,10 +17319,8 @@
           <t>3.5%</t>
         </is>
       </c>
-      <c r="G612" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G612" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="613">
@@ -17364,10 +17350,8 @@
           <t>216.0K</t>
         </is>
       </c>
-      <c r="G613" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G613" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="614">
@@ -17397,10 +17381,8 @@
           <t>147.2</t>
         </is>
       </c>
-      <c r="G614" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G614" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="615">
@@ -17430,10 +17412,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G615" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G615" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="616">
@@ -17467,10 +17447,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="G616" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G616" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="617">
@@ -17504,10 +17482,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="G617" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G617" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="618">
@@ -17533,10 +17509,8 @@
         </is>
       </c>
       <c r="F618" t="inlineStr"/>
-      <c r="G618" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G618" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="619">
@@ -17558,10 +17532,8 @@
       </c>
       <c r="E619" t="inlineStr"/>
       <c r="F619" t="inlineStr"/>
-      <c r="G619" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G619" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="620">
@@ -17583,10 +17555,8 @@
       </c>
       <c r="E620" t="inlineStr"/>
       <c r="F620" t="inlineStr"/>
-      <c r="G620" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G620" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="621">
@@ -17608,10 +17578,8 @@
       </c>
       <c r="E621" t="inlineStr"/>
       <c r="F621" t="inlineStr"/>
-      <c r="G621" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G621" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="622">
@@ -17633,10 +17601,8 @@
       </c>
       <c r="E622" t="inlineStr"/>
       <c r="F622" t="inlineStr"/>
-      <c r="G622" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G622" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="623">
@@ -17658,10 +17624,8 @@
       </c>
       <c r="E623" t="inlineStr"/>
       <c r="F623" t="inlineStr"/>
-      <c r="G623" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G623" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="624">
@@ -17683,44 +17647,54 @@
       </c>
       <c r="E624" t="inlineStr"/>
       <c r="F624" t="inlineStr"/>
-      <c r="G624" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G624" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>Friday February 14 2025</t>
-        </is>
-      </c>
-      <c r="B625" t="inlineStr"/>
+          <t>08:05 PM</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>Fed Golsbee Speech</t>
+        </is>
+      </c>
       <c r="C625" t="inlineStr"/>
       <c r="D625" t="inlineStr"/>
       <c r="E625" t="inlineStr"/>
       <c r="F625" t="inlineStr"/>
-      <c r="G625" t="inlineStr"/>
+      <c r="G625" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>Fed Balance SheetFEB/12</t>
+          <t>CB Leading Index MoMJAN</t>
         </is>
       </c>
       <c r="C626" t="inlineStr"/>
       <c r="D626" t="inlineStr">
         <is>
-          <t>$6.81T</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E626" t="inlineStr"/>
-      <c r="F626" t="inlineStr"/>
+      <c r="F626" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="G626" t="inlineStr">
         <is>
           <t>3</t>
@@ -17730,129 +17704,85 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>Retail Sales MoMJAN</t>
+          <t>EIA Natural Gas Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C627" t="inlineStr"/>
-      <c r="D627" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E627" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F627" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="D627" t="inlineStr"/>
+      <c r="E627" t="inlineStr"/>
+      <c r="F627" t="inlineStr"/>
       <c r="G627" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>Export Prices MoMJAN</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C628" t="inlineStr"/>
-      <c r="D628" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E628" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F628" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="D628" t="inlineStr"/>
+      <c r="E628" t="inlineStr"/>
+      <c r="F628" t="inlineStr"/>
       <c r="G628" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>Import Prices MoMJAN</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C629" t="inlineStr"/>
-      <c r="D629" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E629" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F629" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="D629" t="inlineStr"/>
+      <c r="E629" t="inlineStr"/>
+      <c r="F629" t="inlineStr"/>
       <c r="G629" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>Retail Sales Control Group MoMJAN</t>
+          <t>EIA Crude Oil Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C630" t="inlineStr"/>
       <c r="D630" t="inlineStr">
         <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="E630" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F630" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>4.07M</t>
+        </is>
+      </c>
+      <c r="E630" t="inlineStr"/>
+      <c r="F630" t="inlineStr"/>
       <c r="G630" t="inlineStr">
         <is>
           <t>2</t>
@@ -17862,30 +17792,22 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Autos MoMJAN</t>
+          <t>EIA Gasoline Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C631" t="inlineStr"/>
       <c r="D631" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E631" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F631" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>-3.035M</t>
+        </is>
+      </c>
+      <c r="E631" t="inlineStr"/>
+      <c r="F631" t="inlineStr"/>
       <c r="G631" t="inlineStr">
         <is>
           <t>2</t>
@@ -17895,55 +17817,39 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>Export Prices YoYJAN</t>
+          <t>Fed Musalem Speech</t>
         </is>
       </c>
       <c r="C632" t="inlineStr"/>
-      <c r="D632" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
+      <c r="D632" t="inlineStr"/>
       <c r="E632" t="inlineStr"/>
-      <c r="F632" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="F632" t="inlineStr"/>
       <c r="G632" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>Import Prices YoYJAN</t>
+          <t>15-Year Mortgage RateFEB/20</t>
         </is>
       </c>
       <c r="C633" t="inlineStr"/>
-      <c r="D633" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
+      <c r="D633" t="inlineStr"/>
       <c r="E633" t="inlineStr"/>
-      <c r="F633" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="F633" t="inlineStr"/>
       <c r="G633" t="inlineStr">
         <is>
           <t>3</t>
@@ -17953,26 +17859,18 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Gas/Autos MoMJAN</t>
+          <t>30-Year Mortgage RateFEB/20</t>
         </is>
       </c>
       <c r="C634" t="inlineStr"/>
-      <c r="D634" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="D634" t="inlineStr"/>
       <c r="E634" t="inlineStr"/>
-      <c r="F634" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F634" t="inlineStr"/>
       <c r="G634" t="inlineStr">
         <is>
           <t>3</t>
@@ -17982,26 +17880,22 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>Retail Sales YoYJAN</t>
+          <t>EIA Crude Oil Imports ChangeFEB/14</t>
         </is>
       </c>
       <c r="C635" t="inlineStr"/>
       <c r="D635" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-0.184M</t>
         </is>
       </c>
       <c r="E635" t="inlineStr"/>
-      <c r="F635" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
+      <c r="F635" t="inlineStr"/>
       <c r="G635" t="inlineStr">
         <is>
           <t>3</t>
@@ -18011,63 +17905,47 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>Industrial Production MoMJAN</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C636" t="inlineStr"/>
       <c r="D636" t="inlineStr">
         <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="E636" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F636" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>0.872M</t>
+        </is>
+      </c>
+      <c r="E636" t="inlineStr"/>
+      <c r="F636" t="inlineStr"/>
       <c r="G636" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>EIA Distillate Fuel Production ChangeFEB/14</t>
         </is>
       </c>
       <c r="C637" t="inlineStr"/>
       <c r="D637" t="inlineStr">
         <is>
-          <t>77.6%</t>
-        </is>
-      </c>
-      <c r="E637" t="inlineStr">
-        <is>
-          <t>77.7%</t>
-        </is>
-      </c>
-      <c r="F637" t="inlineStr">
-        <is>
-          <t>77.4%</t>
-        </is>
-      </c>
+          <t>-0.009M</t>
+        </is>
+      </c>
+      <c r="E637" t="inlineStr"/>
+      <c r="F637" t="inlineStr"/>
       <c r="G637" t="inlineStr">
         <is>
           <t>3</t>
@@ -18077,26 +17955,22 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>Industrial Production YoYJAN</t>
+          <t>EIA Distillate Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C638" t="inlineStr"/>
       <c r="D638" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.135M</t>
         </is>
       </c>
       <c r="E638" t="inlineStr"/>
-      <c r="F638" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="F638" t="inlineStr"/>
       <c r="G638" t="inlineStr">
         <is>
           <t>3</t>
@@ -18106,30 +17980,22 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMJAN</t>
+          <t>EIA Gasoline Production ChangeFEB/14</t>
         </is>
       </c>
       <c r="C639" t="inlineStr"/>
       <c r="D639" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="E639" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F639" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>0.18M</t>
+        </is>
+      </c>
+      <c r="E639" t="inlineStr"/>
+      <c r="F639" t="inlineStr"/>
       <c r="G639" t="inlineStr">
         <is>
           <t>3</t>
@@ -18139,26 +18005,22 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYJAN</t>
+          <t>EIA Heating Oil Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C640" t="inlineStr"/>
       <c r="D640" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.159M</t>
         </is>
       </c>
       <c r="E640" t="inlineStr"/>
-      <c r="F640" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="F640" t="inlineStr"/>
       <c r="G640" t="inlineStr">
         <is>
           <t>3</t>
@@ -18168,63 +18030,47 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>Business Inventories MoMDEC</t>
+          <t>EIA Refinery Crude Runs ChangeFEB/14</t>
         </is>
       </c>
       <c r="C641" t="inlineStr"/>
       <c r="D641" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E641" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F641" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+          <t>0.082M</t>
+        </is>
+      </c>
+      <c r="E641" t="inlineStr"/>
+      <c r="F641" t="inlineStr"/>
       <c r="G641" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoMDEC</t>
+          <t>30-Year TIPS Auction</t>
         </is>
       </c>
       <c r="C642" t="inlineStr"/>
       <c r="D642" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E642" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F642" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>2.055%</t>
+        </is>
+      </c>
+      <c r="E642" t="inlineStr"/>
+      <c r="F642" t="inlineStr"/>
       <c r="G642" t="inlineStr">
         <is>
           <t>3</t>
@@ -18234,45 +18080,29 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B643" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountFEB/14</t>
-        </is>
-      </c>
+          <t>Friday February 21 2025</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr"/>
       <c r="C643" t="inlineStr"/>
-      <c r="D643" t="inlineStr">
-        <is>
-          <t>480</t>
-        </is>
-      </c>
+      <c r="D643" t="inlineStr"/>
       <c r="E643" t="inlineStr"/>
       <c r="F643" t="inlineStr"/>
-      <c r="G643" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G643" t="inlineStr"/>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountFEB/14</t>
+          <t>Fed Balance SheetFEB/19</t>
         </is>
       </c>
       <c r="C644" t="inlineStr"/>
-      <c r="D644" t="inlineStr">
-        <is>
-          <t>586</t>
-        </is>
-      </c>
+      <c r="D644" t="inlineStr"/>
       <c r="E644" t="inlineStr"/>
       <c r="F644" t="inlineStr"/>
       <c r="G644" t="inlineStr">
@@ -18284,44 +18114,84 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>Sunday February 16 2025</t>
-        </is>
-      </c>
-      <c r="B645" t="inlineStr"/>
+          <t>08:15 PM</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Composite PMI FlashFEB</t>
+        </is>
+      </c>
       <c r="C645" t="inlineStr"/>
-      <c r="D645" t="inlineStr"/>
+      <c r="D645" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
       <c r="E645" t="inlineStr"/>
-      <c r="F645" t="inlineStr"/>
-      <c r="G645" t="inlineStr"/>
+      <c r="F645" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
+      <c r="G645" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>Monday February 17 2025</t>
-        </is>
-      </c>
-      <c r="B646" t="inlineStr"/>
+          <t>08:15 PM</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Manufacturing PMI FlashFEB</t>
+        </is>
+      </c>
       <c r="C646" t="inlineStr"/>
-      <c r="D646" t="inlineStr"/>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
       <c r="E646" t="inlineStr"/>
-      <c r="F646" t="inlineStr"/>
-      <c r="G646" t="inlineStr"/>
+      <c r="F646" t="inlineStr">
+        <is>
+          <t>51.3</t>
+        </is>
+      </c>
+      <c r="G646" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>Fed Harker Speech</t>
+          <t>S&amp;P Global Services PMI FlashFEB</t>
         </is>
       </c>
       <c r="C647" t="inlineStr"/>
-      <c r="D647" t="inlineStr"/>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t>52.9</t>
+        </is>
+      </c>
       <c r="E647" t="inlineStr"/>
-      <c r="F647" t="inlineStr"/>
+      <c r="F647" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
       <c r="G647" t="inlineStr">
         <is>
           <t>2</t>
@@ -18331,37 +18201,53 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>Tuesday February 18 2025</t>
-        </is>
-      </c>
-      <c r="B648" t="inlineStr"/>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>Existing Home SalesJAN</t>
+        </is>
+      </c>
       <c r="C648" t="inlineStr"/>
-      <c r="D648" t="inlineStr"/>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>4.24M</t>
+        </is>
+      </c>
       <c r="E648" t="inlineStr"/>
-      <c r="F648" t="inlineStr"/>
-      <c r="G648" t="inlineStr"/>
+      <c r="F648" t="inlineStr">
+        <is>
+          <t>4.16M</t>
+        </is>
+      </c>
+      <c r="G648" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>NY Empire State Manufacturing IndexFEB</t>
+          <t>Existing Home Sales MoMJAN</t>
         </is>
       </c>
       <c r="C649" t="inlineStr"/>
       <c r="D649" t="inlineStr">
         <is>
-          <t>-12.6</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="E649" t="inlineStr"/>
       <c r="F649" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="G649" t="inlineStr">
@@ -18378,19 +18264,23 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>NAHB Housing Market IndexFEB</t>
+          <t>Michigan Consumer Sentiment FinalFEB</t>
         </is>
       </c>
       <c r="C650" t="inlineStr"/>
       <c r="D650" t="inlineStr">
         <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="E650" t="inlineStr"/>
+          <t>71.1</t>
+        </is>
+      </c>
+      <c r="E650" t="inlineStr">
+        <is>
+          <t>67.8</t>
+        </is>
+      </c>
       <c r="F650" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>67.8</t>
         </is>
       </c>
       <c r="G650" t="inlineStr">
@@ -18402,22 +18292,30 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Michigan 5 Year Inflation Expectations FinalFEB</t>
         </is>
       </c>
       <c r="C651" t="inlineStr"/>
       <c r="D651" t="inlineStr">
         <is>
-          <t>4.225%</t>
-        </is>
-      </c>
-      <c r="E651" t="inlineStr"/>
-      <c r="F651" t="inlineStr"/>
+          <t>3.2%</t>
+        </is>
+      </c>
+      <c r="E651" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="F651" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G651" t="inlineStr">
         <is>
           <t>3</t>
@@ -18427,22 +18325,30 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>Michigan Consumer Expectations FinalFEB</t>
         </is>
       </c>
       <c r="C652" t="inlineStr"/>
       <c r="D652" t="inlineStr">
         <is>
-          <t>4.025%</t>
-        </is>
-      </c>
-      <c r="E652" t="inlineStr"/>
-      <c r="F652" t="inlineStr"/>
+          <t>69.3</t>
+        </is>
+      </c>
+      <c r="E652" t="inlineStr">
+        <is>
+          <t>67.3</t>
+        </is>
+      </c>
+      <c r="F652" t="inlineStr">
+        <is>
+          <t>67.3</t>
+        </is>
+      </c>
       <c r="G652" t="inlineStr">
         <is>
           <t>3</t>
@@ -18452,22 +18358,30 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Michigan Current Conditions FinalFEB</t>
         </is>
       </c>
       <c r="C653" t="inlineStr"/>
       <c r="D653" t="inlineStr">
         <is>
-          <t>4.185%</t>
-        </is>
-      </c>
-      <c r="E653" t="inlineStr"/>
-      <c r="F653" t="inlineStr"/>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="E653" t="inlineStr">
+        <is>
+          <t>68.7</t>
+        </is>
+      </c>
+      <c r="F653" t="inlineStr">
+        <is>
+          <t>68.7</t>
+        </is>
+      </c>
       <c r="G653" t="inlineStr">
         <is>
           <t>3</t>
@@ -18477,18 +18391,30 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>NOPA Crush Report</t>
+          <t>Michigan Inflation Expectations FinalFEB</t>
         </is>
       </c>
       <c r="C654" t="inlineStr"/>
-      <c r="D654" t="inlineStr"/>
-      <c r="E654" t="inlineStr"/>
-      <c r="F654" t="inlineStr"/>
+      <c r="D654" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="E654" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
+      <c r="F654" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="G654" t="inlineStr">
         <is>
           <t>3</t>
@@ -18498,1523 +18424,57 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>Wednesday February 19 2025</t>
-        </is>
-      </c>
-      <c r="B655" t="inlineStr"/>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>Baker Hughes Oil Rig CountFEB/21</t>
+        </is>
+      </c>
       <c r="C655" t="inlineStr"/>
       <c r="D655" t="inlineStr"/>
       <c r="E655" t="inlineStr"/>
       <c r="F655" t="inlineStr"/>
-      <c r="G655" t="inlineStr"/>
+      <c r="G655" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsDEC</t>
+          <t>Baker Hughes Total Rigs CountFEB/21</t>
         </is>
       </c>
       <c r="C656" t="inlineStr"/>
-      <c r="D656" t="inlineStr">
-        <is>
-          <t>$79B</t>
-        </is>
-      </c>
+      <c r="D656" t="inlineStr"/>
       <c r="E656" t="inlineStr"/>
       <c r="F656" t="inlineStr"/>
       <c r="G656" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B657" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentDEC</t>
-        </is>
-      </c>
+          <t>Sunday February 23 2025</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr"/>
       <c r="C657" t="inlineStr"/>
-      <c r="D657" t="inlineStr">
-        <is>
-          <t>$-15.8B</t>
-        </is>
-      </c>
+      <c r="D657" t="inlineStr"/>
       <c r="E657" t="inlineStr"/>
       <c r="F657" t="inlineStr"/>
-      <c r="G657" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="658">
-      <c r="A658" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B658" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsDEC</t>
-        </is>
-      </c>
-      <c r="C658" t="inlineStr"/>
-      <c r="D658" t="inlineStr">
-        <is>
-          <t>$159.9B</t>
-        </is>
-      </c>
-      <c r="E658" t="inlineStr"/>
-      <c r="F658" t="inlineStr"/>
-      <c r="G658" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="659">
-      <c r="A659" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B659" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateFEB/14</t>
-        </is>
-      </c>
-      <c r="C659" t="inlineStr"/>
-      <c r="D659" t="inlineStr">
-        <is>
-          <t>6.95%</t>
-        </is>
-      </c>
-      <c r="E659" t="inlineStr"/>
-      <c r="F659" t="inlineStr"/>
-      <c r="G659" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="660">
-      <c r="A660" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B660" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsFEB/14</t>
-        </is>
-      </c>
-      <c r="C660" t="inlineStr"/>
-      <c r="D660" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="E660" t="inlineStr"/>
-      <c r="F660" t="inlineStr"/>
-      <c r="G660" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="661">
-      <c r="A661" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B661" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexFEB/14</t>
-        </is>
-      </c>
-      <c r="C661" t="inlineStr"/>
-      <c r="D661" t="inlineStr">
-        <is>
-          <t>230.0</t>
-        </is>
-      </c>
-      <c r="E661" t="inlineStr"/>
-      <c r="F661" t="inlineStr"/>
-      <c r="G661" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="662">
-      <c r="A662" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B662" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexFEB/14</t>
-        </is>
-      </c>
-      <c r="C662" t="inlineStr"/>
-      <c r="D662" t="inlineStr">
-        <is>
-          <t>640.6</t>
-        </is>
-      </c>
-      <c r="E662" t="inlineStr"/>
-      <c r="F662" t="inlineStr"/>
-      <c r="G662" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="663">
-      <c r="A663" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B663" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexFEB/14</t>
-        </is>
-      </c>
-      <c r="C663" t="inlineStr"/>
-      <c r="D663" t="inlineStr">
-        <is>
-          <t>153.1</t>
-        </is>
-      </c>
-      <c r="E663" t="inlineStr"/>
-      <c r="F663" t="inlineStr"/>
-      <c r="G663" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="664">
-      <c r="A664" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B664" t="inlineStr">
-        <is>
-          <t>Building Permits PrelJAN</t>
-        </is>
-      </c>
-      <c r="C664" t="inlineStr"/>
-      <c r="D664" t="inlineStr">
-        <is>
-          <t>1.482M</t>
-        </is>
-      </c>
-      <c r="E664" t="inlineStr"/>
-      <c r="F664" t="inlineStr">
-        <is>
-          <t>1.47M</t>
-        </is>
-      </c>
-      <c r="G664" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="665">
-      <c r="A665" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B665" t="inlineStr">
-        <is>
-          <t>Housing StartsJAN</t>
-        </is>
-      </c>
-      <c r="C665" t="inlineStr"/>
-      <c r="D665" t="inlineStr">
-        <is>
-          <t>1.499M</t>
-        </is>
-      </c>
-      <c r="E665" t="inlineStr"/>
-      <c r="F665" t="inlineStr">
-        <is>
-          <t>1.35M</t>
-        </is>
-      </c>
-      <c r="G665" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="666">
-      <c r="A666" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B666" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelJAN</t>
-        </is>
-      </c>
-      <c r="C666" t="inlineStr"/>
-      <c r="D666" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="E666" t="inlineStr"/>
-      <c r="F666" t="inlineStr">
-        <is>
-          <t>-0.8%</t>
-        </is>
-      </c>
-      <c r="G666" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="667">
-      <c r="A667" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B667" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMJAN</t>
-        </is>
-      </c>
-      <c r="C667" t="inlineStr"/>
-      <c r="D667" t="inlineStr">
-        <is>
-          <t>15.8%</t>
-        </is>
-      </c>
-      <c r="E667" t="inlineStr"/>
-      <c r="F667" t="inlineStr">
-        <is>
-          <t>-9.0%</t>
-        </is>
-      </c>
-      <c r="G667" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="668">
-      <c r="A668" t="inlineStr">
-        <is>
-          <t>07:25 PM</t>
-        </is>
-      </c>
-      <c r="B668" t="inlineStr">
-        <is>
-          <t>Redbook YoYFEB/15</t>
-        </is>
-      </c>
-      <c r="C668" t="inlineStr"/>
-      <c r="D668" t="inlineStr">
-        <is>
-          <t>5.3%</t>
-        </is>
-      </c>
-      <c r="E668" t="inlineStr"/>
-      <c r="F668" t="inlineStr"/>
-      <c r="G668" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="669">
-      <c r="A669" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B669" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C669" t="inlineStr"/>
-      <c r="D669" t="inlineStr"/>
-      <c r="E669" t="inlineStr"/>
-      <c r="F669" t="inlineStr"/>
-      <c r="G669" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="670">
-      <c r="A670" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B670" t="inlineStr">
-        <is>
-          <t>20-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C670" t="inlineStr"/>
-      <c r="D670" t="inlineStr">
-        <is>
-          <t>4.900%</t>
-        </is>
-      </c>
-      <c r="E670" t="inlineStr"/>
-      <c r="F670" t="inlineStr"/>
-      <c r="G670" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="671">
-      <c r="A671" t="inlineStr">
-        <is>
-          <t>Thursday February 20 2025</t>
-        </is>
-      </c>
-      <c r="B671" t="inlineStr"/>
-      <c r="C671" t="inlineStr"/>
-      <c r="D671" t="inlineStr"/>
-      <c r="E671" t="inlineStr"/>
-      <c r="F671" t="inlineStr"/>
-      <c r="G671" t="inlineStr"/>
-    </row>
-    <row r="672">
-      <c r="A672" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B672" t="inlineStr">
-        <is>
-          <t>FOMC Minutes</t>
-        </is>
-      </c>
-      <c r="C672" t="inlineStr"/>
-      <c r="D672" t="inlineStr"/>
-      <c r="E672" t="inlineStr"/>
-      <c r="F672" t="inlineStr"/>
-      <c r="G672" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="673">
-      <c r="A673" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B673" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C673" t="inlineStr"/>
-      <c r="D673" t="inlineStr">
-        <is>
-          <t>9.043M</t>
-        </is>
-      </c>
-      <c r="E673" t="inlineStr"/>
-      <c r="F673" t="inlineStr"/>
-      <c r="G673" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="674">
-      <c r="A674" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B674" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsFEB/15</t>
-        </is>
-      </c>
-      <c r="C674" t="inlineStr"/>
-      <c r="D674" t="inlineStr">
-        <is>
-          <t>213K</t>
-        </is>
-      </c>
-      <c r="E674" t="inlineStr"/>
-      <c r="F674" t="inlineStr">
-        <is>
-          <t>220.0K</t>
-        </is>
-      </c>
-      <c r="G674" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="675">
-      <c r="A675" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B675" t="inlineStr">
-        <is>
-          <t>Philadelphia Fed Manufacturing IndexFEB</t>
-        </is>
-      </c>
-      <c r="C675" t="inlineStr"/>
-      <c r="D675" t="inlineStr">
-        <is>
-          <t>44.3</t>
-        </is>
-      </c>
-      <c r="E675" t="inlineStr"/>
-      <c r="F675" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="G675" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="676">
-      <c r="A676" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B676" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsFEB/08</t>
-        </is>
-      </c>
-      <c r="C676" t="inlineStr"/>
-      <c r="D676" t="inlineStr">
-        <is>
-          <t>1850K</t>
-        </is>
-      </c>
-      <c r="E676" t="inlineStr"/>
-      <c r="F676" t="inlineStr">
-        <is>
-          <t>1879.0K</t>
-        </is>
-      </c>
-      <c r="G676" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="677">
-      <c r="A677" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B677" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageFEB/15</t>
-        </is>
-      </c>
-      <c r="C677" t="inlineStr"/>
-      <c r="D677" t="inlineStr"/>
-      <c r="E677" t="inlineStr"/>
-      <c r="F677" t="inlineStr">
-        <is>
-          <t>219.0K</t>
-        </is>
-      </c>
-      <c r="G677" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="678">
-      <c r="A678" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B678" t="inlineStr">
-        <is>
-          <t>Philly Fed Business ConditionsFEB</t>
-        </is>
-      </c>
-      <c r="C678" t="inlineStr"/>
-      <c r="D678" t="inlineStr">
-        <is>
-          <t>46.3</t>
-        </is>
-      </c>
-      <c r="E678" t="inlineStr"/>
-      <c r="F678" t="inlineStr"/>
-      <c r="G678" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="679">
-      <c r="A679" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B679" t="inlineStr">
-        <is>
-          <t>Philly Fed CAPEX IndexFEB</t>
-        </is>
-      </c>
-      <c r="C679" t="inlineStr"/>
-      <c r="D679" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="E679" t="inlineStr"/>
-      <c r="F679" t="inlineStr"/>
-      <c r="G679" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="680">
-      <c r="A680" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B680" t="inlineStr">
-        <is>
-          <t>Philly Fed EmploymentFEB</t>
-        </is>
-      </c>
-      <c r="C680" t="inlineStr"/>
-      <c r="D680" t="inlineStr">
-        <is>
-          <t>11.9</t>
-        </is>
-      </c>
-      <c r="E680" t="inlineStr"/>
-      <c r="F680" t="inlineStr"/>
-      <c r="G680" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="681">
-      <c r="A681" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B681" t="inlineStr">
-        <is>
-          <t>Philly Fed New OrdersFEB</t>
-        </is>
-      </c>
-      <c r="C681" t="inlineStr"/>
-      <c r="D681" t="inlineStr">
-        <is>
-          <t>42.9</t>
-        </is>
-      </c>
-      <c r="E681" t="inlineStr"/>
-      <c r="F681" t="inlineStr"/>
-      <c r="G681" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="682">
-      <c r="A682" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B682" t="inlineStr">
-        <is>
-          <t>Philly Fed Prices PaidFEB</t>
-        </is>
-      </c>
-      <c r="C682" t="inlineStr"/>
-      <c r="D682" t="inlineStr">
-        <is>
-          <t>31.9</t>
-        </is>
-      </c>
-      <c r="E682" t="inlineStr"/>
-      <c r="F682" t="inlineStr"/>
-      <c r="G682" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="683">
-      <c r="A683" t="inlineStr">
-        <is>
-          <t>08:05 PM</t>
-        </is>
-      </c>
-      <c r="B683" t="inlineStr">
-        <is>
-          <t>Fed Golsbee Speech</t>
-        </is>
-      </c>
-      <c r="C683" t="inlineStr"/>
-      <c r="D683" t="inlineStr"/>
-      <c r="E683" t="inlineStr"/>
-      <c r="F683" t="inlineStr"/>
-      <c r="G683" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="684">
-      <c r="A684" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B684" t="inlineStr">
-        <is>
-          <t>CB Leading Index MoMJAN</t>
-        </is>
-      </c>
-      <c r="C684" t="inlineStr"/>
-      <c r="D684" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E684" t="inlineStr"/>
-      <c r="F684" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G684" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="685">
-      <c r="A685" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B685" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C685" t="inlineStr"/>
-      <c r="D685" t="inlineStr"/>
-      <c r="E685" t="inlineStr"/>
-      <c r="F685" t="inlineStr"/>
-      <c r="G685" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="686">
-      <c r="A686" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B686" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C686" t="inlineStr"/>
-      <c r="D686" t="inlineStr"/>
-      <c r="E686" t="inlineStr"/>
-      <c r="F686" t="inlineStr"/>
-      <c r="G686" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="687">
-      <c r="A687" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B687" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C687" t="inlineStr"/>
-      <c r="D687" t="inlineStr"/>
-      <c r="E687" t="inlineStr"/>
-      <c r="F687" t="inlineStr"/>
-      <c r="G687" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="688">
-      <c r="A688" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B688" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C688" t="inlineStr"/>
-      <c r="D688" t="inlineStr">
-        <is>
-          <t>4.07M</t>
-        </is>
-      </c>
-      <c r="E688" t="inlineStr"/>
-      <c r="F688" t="inlineStr"/>
-      <c r="G688" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="689">
-      <c r="A689" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B689" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C689" t="inlineStr"/>
-      <c r="D689" t="inlineStr">
-        <is>
-          <t>-3.035M</t>
-        </is>
-      </c>
-      <c r="E689" t="inlineStr"/>
-      <c r="F689" t="inlineStr"/>
-      <c r="G689" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="690">
-      <c r="A690" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B690" t="inlineStr">
-        <is>
-          <t>Fed Musalem Speech</t>
-        </is>
-      </c>
-      <c r="C690" t="inlineStr"/>
-      <c r="D690" t="inlineStr"/>
-      <c r="E690" t="inlineStr"/>
-      <c r="F690" t="inlineStr"/>
-      <c r="G690" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="691">
-      <c r="A691" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B691" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateFEB/20</t>
-        </is>
-      </c>
-      <c r="C691" t="inlineStr"/>
-      <c r="D691" t="inlineStr"/>
-      <c r="E691" t="inlineStr"/>
-      <c r="F691" t="inlineStr"/>
-      <c r="G691" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="692">
-      <c r="A692" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B692" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateFEB/20</t>
-        </is>
-      </c>
-      <c r="C692" t="inlineStr"/>
-      <c r="D692" t="inlineStr"/>
-      <c r="E692" t="inlineStr"/>
-      <c r="F692" t="inlineStr"/>
-      <c r="G692" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="693">
-      <c r="A693" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B693" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C693" t="inlineStr"/>
-      <c r="D693" t="inlineStr">
-        <is>
-          <t>-0.184M</t>
-        </is>
-      </c>
-      <c r="E693" t="inlineStr"/>
-      <c r="F693" t="inlineStr"/>
-      <c r="G693" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="694">
-      <c r="A694" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B694" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C694" t="inlineStr"/>
-      <c r="D694" t="inlineStr">
-        <is>
-          <t>0.872M</t>
-        </is>
-      </c>
-      <c r="E694" t="inlineStr"/>
-      <c r="F694" t="inlineStr"/>
-      <c r="G694" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="695">
-      <c r="A695" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B695" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C695" t="inlineStr"/>
-      <c r="D695" t="inlineStr">
-        <is>
-          <t>-0.009M</t>
-        </is>
-      </c>
-      <c r="E695" t="inlineStr"/>
-      <c r="F695" t="inlineStr"/>
-      <c r="G695" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="696">
-      <c r="A696" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B696" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C696" t="inlineStr"/>
-      <c r="D696" t="inlineStr">
-        <is>
-          <t>0.135M</t>
-        </is>
-      </c>
-      <c r="E696" t="inlineStr"/>
-      <c r="F696" t="inlineStr"/>
-      <c r="G696" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="697">
-      <c r="A697" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B697" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C697" t="inlineStr"/>
-      <c r="D697" t="inlineStr">
-        <is>
-          <t>0.18M</t>
-        </is>
-      </c>
-      <c r="E697" t="inlineStr"/>
-      <c r="F697" t="inlineStr"/>
-      <c r="G697" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="698">
-      <c r="A698" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B698" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C698" t="inlineStr"/>
-      <c r="D698" t="inlineStr">
-        <is>
-          <t>0.159M</t>
-        </is>
-      </c>
-      <c r="E698" t="inlineStr"/>
-      <c r="F698" t="inlineStr"/>
-      <c r="G698" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="699">
-      <c r="A699" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B699" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C699" t="inlineStr"/>
-      <c r="D699" t="inlineStr">
-        <is>
-          <t>0.082M</t>
-        </is>
-      </c>
-      <c r="E699" t="inlineStr"/>
-      <c r="F699" t="inlineStr"/>
-      <c r="G699" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="700">
-      <c r="A700" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B700" t="inlineStr">
-        <is>
-          <t>30-Year TIPS Auction</t>
-        </is>
-      </c>
-      <c r="C700" t="inlineStr"/>
-      <c r="D700" t="inlineStr">
-        <is>
-          <t>2.055%</t>
-        </is>
-      </c>
-      <c r="E700" t="inlineStr"/>
-      <c r="F700" t="inlineStr"/>
-      <c r="G700" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="701">
-      <c r="A701" t="inlineStr">
-        <is>
-          <t>Friday February 21 2025</t>
-        </is>
-      </c>
-      <c r="B701" t="inlineStr"/>
-      <c r="C701" t="inlineStr"/>
-      <c r="D701" t="inlineStr"/>
-      <c r="E701" t="inlineStr"/>
-      <c r="F701" t="inlineStr"/>
-      <c r="G701" t="inlineStr"/>
-    </row>
-    <row r="702">
-      <c r="A702" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B702" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetFEB/19</t>
-        </is>
-      </c>
-      <c r="C702" t="inlineStr"/>
-      <c r="D702" t="inlineStr"/>
-      <c r="E702" t="inlineStr"/>
-      <c r="F702" t="inlineStr"/>
-      <c r="G702" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="703">
-      <c r="A703" t="inlineStr">
-        <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B703" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Composite PMI FlashFEB</t>
-        </is>
-      </c>
-      <c r="C703" t="inlineStr"/>
-      <c r="D703" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="E703" t="inlineStr"/>
-      <c r="F703" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="G703" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="704">
-      <c r="A704" t="inlineStr">
-        <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B704" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMI FlashFEB</t>
-        </is>
-      </c>
-      <c r="C704" t="inlineStr"/>
-      <c r="D704" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="E704" t="inlineStr"/>
-      <c r="F704" t="inlineStr">
-        <is>
-          <t>51.3</t>
-        </is>
-      </c>
-      <c r="G704" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="705">
-      <c r="A705" t="inlineStr">
-        <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B705" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Services PMI FlashFEB</t>
-        </is>
-      </c>
-      <c r="C705" t="inlineStr"/>
-      <c r="D705" t="inlineStr">
-        <is>
-          <t>52.9</t>
-        </is>
-      </c>
-      <c r="E705" t="inlineStr"/>
-      <c r="F705" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="G705" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="706">
-      <c r="A706" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B706" t="inlineStr">
-        <is>
-          <t>Existing Home SalesJAN</t>
-        </is>
-      </c>
-      <c r="C706" t="inlineStr"/>
-      <c r="D706" t="inlineStr">
-        <is>
-          <t>4.24M</t>
-        </is>
-      </c>
-      <c r="E706" t="inlineStr"/>
-      <c r="F706" t="inlineStr">
-        <is>
-          <t>4.16M</t>
-        </is>
-      </c>
-      <c r="G706" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="707">
-      <c r="A707" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B707" t="inlineStr">
-        <is>
-          <t>Existing Home Sales MoMJAN</t>
-        </is>
-      </c>
-      <c r="C707" t="inlineStr"/>
-      <c r="D707" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E707" t="inlineStr"/>
-      <c r="F707" t="inlineStr">
-        <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="G707" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="708">
-      <c r="A708" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B708" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment FinalFEB</t>
-        </is>
-      </c>
-      <c r="C708" t="inlineStr"/>
-      <c r="D708" t="inlineStr">
-        <is>
-          <t>71.1</t>
-        </is>
-      </c>
-      <c r="E708" t="inlineStr">
-        <is>
-          <t>67.8</t>
-        </is>
-      </c>
-      <c r="F708" t="inlineStr">
-        <is>
-          <t>67.8</t>
-        </is>
-      </c>
-      <c r="G708" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="709">
-      <c r="A709" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B709" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations FinalFEB</t>
-        </is>
-      </c>
-      <c r="C709" t="inlineStr"/>
-      <c r="D709" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="E709" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F709" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G709" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="710">
-      <c r="A710" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B710" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations FinalFEB</t>
-        </is>
-      </c>
-      <c r="C710" t="inlineStr"/>
-      <c r="D710" t="inlineStr">
-        <is>
-          <t>69.3</t>
-        </is>
-      </c>
-      <c r="E710" t="inlineStr">
-        <is>
-          <t>67.3</t>
-        </is>
-      </c>
-      <c r="F710" t="inlineStr">
-        <is>
-          <t>67.3</t>
-        </is>
-      </c>
-      <c r="G710" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="711">
-      <c r="A711" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B711" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions FinalFEB</t>
-        </is>
-      </c>
-      <c r="C711" t="inlineStr"/>
-      <c r="D711" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="E711" t="inlineStr">
-        <is>
-          <t>68.7</t>
-        </is>
-      </c>
-      <c r="F711" t="inlineStr">
-        <is>
-          <t>68.7</t>
-        </is>
-      </c>
-      <c r="G711" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="712">
-      <c r="A712" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B712" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations FinalFEB</t>
-        </is>
-      </c>
-      <c r="C712" t="inlineStr"/>
-      <c r="D712" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E712" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="F712" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="G712" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="713">
-      <c r="A713" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B713" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountFEB/21</t>
-        </is>
-      </c>
-      <c r="C713" t="inlineStr"/>
-      <c r="D713" t="inlineStr"/>
-      <c r="E713" t="inlineStr"/>
-      <c r="F713" t="inlineStr"/>
-      <c r="G713" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="714">
-      <c r="A714" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B714" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountFEB/21</t>
-        </is>
-      </c>
-      <c r="C714" t="inlineStr"/>
-      <c r="D714" t="inlineStr"/>
-      <c r="E714" t="inlineStr"/>
-      <c r="F714" t="inlineStr"/>
-      <c r="G714" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="715">
-      <c r="A715" t="inlineStr">
-        <is>
-          <t>Sunday February 23 2025</t>
-        </is>
-      </c>
-      <c r="B715" t="inlineStr"/>
-      <c r="C715" t="inlineStr"/>
-      <c r="D715" t="inlineStr"/>
-      <c r="E715" t="inlineStr"/>
-      <c r="F715" t="inlineStr"/>
-      <c r="G715" t="inlineStr"/>
+      <c r="G657" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-02-23.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-02-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G715"/>
+  <dimension ref="A1:G657"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17125,10 +17125,8 @@
           <t>$-93.0B</t>
         </is>
       </c>
-      <c r="G606" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G606" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="607">
@@ -17146,10 +17144,8 @@
       <c r="D607" t="inlineStr"/>
       <c r="E607" t="inlineStr"/>
       <c r="F607" t="inlineStr"/>
-      <c r="G607" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G607" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="608">
@@ -17183,10 +17179,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G608" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G608" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="609">
@@ -17220,10 +17214,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="G609" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G609" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="610">
@@ -17257,10 +17249,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="G610" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G610" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="611">
@@ -17294,10 +17284,8 @@
           <t>1875.0K</t>
         </is>
       </c>
-      <c r="G611" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G611" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="612">
@@ -17331,10 +17319,8 @@
           <t>3.5%</t>
         </is>
       </c>
-      <c r="G612" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G612" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="613">
@@ -17364,10 +17350,8 @@
           <t>216.0K</t>
         </is>
       </c>
-      <c r="G613" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G613" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="614">
@@ -17397,10 +17381,8 @@
           <t>147.2</t>
         </is>
       </c>
-      <c r="G614" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G614" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="615">
@@ -17430,10 +17412,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G615" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G615" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="616">
@@ -17467,10 +17447,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="G616" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G616" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="617">
@@ -17504,10 +17482,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="G617" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G617" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="618">
@@ -17537,10 +17513,8 @@
         </is>
       </c>
       <c r="F618" t="inlineStr"/>
-      <c r="G618" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G618" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="619">
@@ -17566,10 +17540,8 @@
       </c>
       <c r="E619" t="inlineStr"/>
       <c r="F619" t="inlineStr"/>
-      <c r="G619" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G619" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="620">
@@ -17595,10 +17567,8 @@
       </c>
       <c r="E620" t="inlineStr"/>
       <c r="F620" t="inlineStr"/>
-      <c r="G620" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G620" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="621">
@@ -17624,10 +17594,8 @@
       </c>
       <c r="E621" t="inlineStr"/>
       <c r="F621" t="inlineStr"/>
-      <c r="G621" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G621" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="622">
@@ -17653,10 +17621,8 @@
       </c>
       <c r="E622" t="inlineStr"/>
       <c r="F622" t="inlineStr"/>
-      <c r="G622" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G622" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="623">
@@ -17682,10 +17648,8 @@
       </c>
       <c r="E623" t="inlineStr"/>
       <c r="F623" t="inlineStr"/>
-      <c r="G623" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G623" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="624">
@@ -17707,44 +17671,54 @@
       </c>
       <c r="E624" t="inlineStr"/>
       <c r="F624" t="inlineStr"/>
-      <c r="G624" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G624" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>Friday February 14 2025</t>
-        </is>
-      </c>
-      <c r="B625" t="inlineStr"/>
+          <t>08:05 PM</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>Fed Golsbee Speech</t>
+        </is>
+      </c>
       <c r="C625" t="inlineStr"/>
       <c r="D625" t="inlineStr"/>
       <c r="E625" t="inlineStr"/>
       <c r="F625" t="inlineStr"/>
-      <c r="G625" t="inlineStr"/>
+      <c r="G625" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>Fed Balance SheetFEB/12</t>
+          <t>CB Leading Index MoMJAN</t>
         </is>
       </c>
       <c r="C626" t="inlineStr"/>
       <c r="D626" t="inlineStr">
         <is>
-          <t>$6.81T</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E626" t="inlineStr"/>
-      <c r="F626" t="inlineStr"/>
+      <c r="F626" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="G626" t="inlineStr">
         <is>
           <t>3</t>
@@ -17754,129 +17728,89 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>Retail Sales MoMJAN</t>
+          <t>EIA Natural Gas Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C627" t="inlineStr"/>
       <c r="D627" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E627" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F627" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+          <t>-100Bcf</t>
+        </is>
+      </c>
+      <c r="E627" t="inlineStr"/>
+      <c r="F627" t="inlineStr"/>
       <c r="G627" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>Export Prices MoMJAN</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C628" t="inlineStr"/>
-      <c r="D628" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E628" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F628" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="D628" t="inlineStr"/>
+      <c r="E628" t="inlineStr"/>
+      <c r="F628" t="inlineStr"/>
       <c r="G628" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>Import Prices MoMJAN</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C629" t="inlineStr"/>
-      <c r="D629" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E629" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F629" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="D629" t="inlineStr"/>
+      <c r="E629" t="inlineStr"/>
+      <c r="F629" t="inlineStr"/>
       <c r="G629" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>Retail Sales Control Group MoMJAN</t>
+          <t>EIA Crude Oil Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C630" t="inlineStr"/>
       <c r="D630" t="inlineStr">
         <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="E630" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F630" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>4.07M</t>
+        </is>
+      </c>
+      <c r="E630" t="inlineStr"/>
+      <c r="F630" t="inlineStr"/>
       <c r="G630" t="inlineStr">
         <is>
           <t>2</t>
@@ -17886,30 +17820,22 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Autos MoMJAN</t>
+          <t>EIA Gasoline Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C631" t="inlineStr"/>
       <c r="D631" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E631" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F631" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>-3.035M</t>
+        </is>
+      </c>
+      <c r="E631" t="inlineStr"/>
+      <c r="F631" t="inlineStr"/>
       <c r="G631" t="inlineStr">
         <is>
           <t>2</t>
@@ -17919,55 +17845,43 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>Export Prices YoYJAN</t>
+          <t>Fed Musalem Speech</t>
         </is>
       </c>
       <c r="C632" t="inlineStr"/>
-      <c r="D632" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
+      <c r="D632" t="inlineStr"/>
       <c r="E632" t="inlineStr"/>
-      <c r="F632" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="F632" t="inlineStr"/>
       <c r="G632" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>Import Prices YoYJAN</t>
+          <t>15-Year Mortgage RateFEB/20</t>
         </is>
       </c>
       <c r="C633" t="inlineStr"/>
       <c r="D633" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>6.09%</t>
         </is>
       </c>
       <c r="E633" t="inlineStr"/>
-      <c r="F633" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="F633" t="inlineStr"/>
       <c r="G633" t="inlineStr">
         <is>
           <t>3</t>
@@ -17977,26 +17891,22 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Gas/Autos MoMJAN</t>
+          <t>30-Year Mortgage RateFEB/20</t>
         </is>
       </c>
       <c r="C634" t="inlineStr"/>
       <c r="D634" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>6.87%</t>
         </is>
       </c>
       <c r="E634" t="inlineStr"/>
-      <c r="F634" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F634" t="inlineStr"/>
       <c r="G634" t="inlineStr">
         <is>
           <t>3</t>
@@ -18006,26 +17916,22 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>Retail Sales YoYJAN</t>
+          <t>EIA Crude Oil Imports ChangeFEB/14</t>
         </is>
       </c>
       <c r="C635" t="inlineStr"/>
       <c r="D635" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-0.184M</t>
         </is>
       </c>
       <c r="E635" t="inlineStr"/>
-      <c r="F635" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
+      <c r="F635" t="inlineStr"/>
       <c r="G635" t="inlineStr">
         <is>
           <t>3</t>
@@ -18035,63 +17941,47 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>Industrial Production MoMJAN</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C636" t="inlineStr"/>
       <c r="D636" t="inlineStr">
         <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="E636" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F636" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>0.872M</t>
+        </is>
+      </c>
+      <c r="E636" t="inlineStr"/>
+      <c r="F636" t="inlineStr"/>
       <c r="G636" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>EIA Distillate Fuel Production ChangeFEB/14</t>
         </is>
       </c>
       <c r="C637" t="inlineStr"/>
       <c r="D637" t="inlineStr">
         <is>
-          <t>77.6%</t>
-        </is>
-      </c>
-      <c r="E637" t="inlineStr">
-        <is>
-          <t>77.7%</t>
-        </is>
-      </c>
-      <c r="F637" t="inlineStr">
-        <is>
-          <t>77.4%</t>
-        </is>
-      </c>
+          <t>-0.009M</t>
+        </is>
+      </c>
+      <c r="E637" t="inlineStr"/>
+      <c r="F637" t="inlineStr"/>
       <c r="G637" t="inlineStr">
         <is>
           <t>3</t>
@@ -18101,26 +17991,22 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>Industrial Production YoYJAN</t>
+          <t>EIA Distillate Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C638" t="inlineStr"/>
       <c r="D638" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.135M</t>
         </is>
       </c>
       <c r="E638" t="inlineStr"/>
-      <c r="F638" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="F638" t="inlineStr"/>
       <c r="G638" t="inlineStr">
         <is>
           <t>3</t>
@@ -18130,30 +18016,22 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMJAN</t>
+          <t>EIA Gasoline Production ChangeFEB/14</t>
         </is>
       </c>
       <c r="C639" t="inlineStr"/>
       <c r="D639" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="E639" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F639" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>0.18M</t>
+        </is>
+      </c>
+      <c r="E639" t="inlineStr"/>
+      <c r="F639" t="inlineStr"/>
       <c r="G639" t="inlineStr">
         <is>
           <t>3</t>
@@ -18163,26 +18041,22 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYJAN</t>
+          <t>EIA Heating Oil Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C640" t="inlineStr"/>
       <c r="D640" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.159M</t>
         </is>
       </c>
       <c r="E640" t="inlineStr"/>
-      <c r="F640" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="F640" t="inlineStr"/>
       <c r="G640" t="inlineStr">
         <is>
           <t>3</t>
@@ -18192,63 +18066,47 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>Business Inventories MoMDEC</t>
+          <t>EIA Refinery Crude Runs ChangeFEB/14</t>
         </is>
       </c>
       <c r="C641" t="inlineStr"/>
       <c r="D641" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E641" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F641" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+          <t>0.082M</t>
+        </is>
+      </c>
+      <c r="E641" t="inlineStr"/>
+      <c r="F641" t="inlineStr"/>
       <c r="G641" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoMDEC</t>
+          <t>30-Year TIPS Auction</t>
         </is>
       </c>
       <c r="C642" t="inlineStr"/>
       <c r="D642" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E642" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F642" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>2.055%</t>
+        </is>
+      </c>
+      <c r="E642" t="inlineStr"/>
+      <c r="F642" t="inlineStr"/>
       <c r="G642" t="inlineStr">
         <is>
           <t>3</t>
@@ -18258,45 +18116,29 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B643" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountFEB/14</t>
-        </is>
-      </c>
+          <t>Friday February 21 2025</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr"/>
       <c r="C643" t="inlineStr"/>
-      <c r="D643" t="inlineStr">
-        <is>
-          <t>480</t>
-        </is>
-      </c>
+      <c r="D643" t="inlineStr"/>
       <c r="E643" t="inlineStr"/>
       <c r="F643" t="inlineStr"/>
-      <c r="G643" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G643" t="inlineStr"/>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountFEB/14</t>
+          <t>Fed Balance SheetFEB/19</t>
         </is>
       </c>
       <c r="C644" t="inlineStr"/>
-      <c r="D644" t="inlineStr">
-        <is>
-          <t>586</t>
-        </is>
-      </c>
+      <c r="D644" t="inlineStr"/>
       <c r="E644" t="inlineStr"/>
       <c r="F644" t="inlineStr"/>
       <c r="G644" t="inlineStr">
@@ -18308,44 +18150,84 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>Sunday February 16 2025</t>
-        </is>
-      </c>
-      <c r="B645" t="inlineStr"/>
+          <t>08:15 PM</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Composite PMI FlashFEB</t>
+        </is>
+      </c>
       <c r="C645" t="inlineStr"/>
-      <c r="D645" t="inlineStr"/>
+      <c r="D645" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
       <c r="E645" t="inlineStr"/>
-      <c r="F645" t="inlineStr"/>
-      <c r="G645" t="inlineStr"/>
+      <c r="F645" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
+      <c r="G645" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>Monday February 17 2025</t>
-        </is>
-      </c>
-      <c r="B646" t="inlineStr"/>
+          <t>08:15 PM</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Manufacturing PMI FlashFEB</t>
+        </is>
+      </c>
       <c r="C646" t="inlineStr"/>
-      <c r="D646" t="inlineStr"/>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
       <c r="E646" t="inlineStr"/>
-      <c r="F646" t="inlineStr"/>
-      <c r="G646" t="inlineStr"/>
+      <c r="F646" t="inlineStr">
+        <is>
+          <t>51.3</t>
+        </is>
+      </c>
+      <c r="G646" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>Fed Harker Speech</t>
+          <t>S&amp;P Global Services PMI FlashFEB</t>
         </is>
       </c>
       <c r="C647" t="inlineStr"/>
-      <c r="D647" t="inlineStr"/>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t>52.9</t>
+        </is>
+      </c>
       <c r="E647" t="inlineStr"/>
-      <c r="F647" t="inlineStr"/>
+      <c r="F647" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
       <c r="G647" t="inlineStr">
         <is>
           <t>2</t>
@@ -18355,37 +18237,53 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>Tuesday February 18 2025</t>
-        </is>
-      </c>
-      <c r="B648" t="inlineStr"/>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>Existing Home SalesJAN</t>
+        </is>
+      </c>
       <c r="C648" t="inlineStr"/>
-      <c r="D648" t="inlineStr"/>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>4.24M</t>
+        </is>
+      </c>
       <c r="E648" t="inlineStr"/>
-      <c r="F648" t="inlineStr"/>
-      <c r="G648" t="inlineStr"/>
+      <c r="F648" t="inlineStr">
+        <is>
+          <t>4.16M</t>
+        </is>
+      </c>
+      <c r="G648" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>NY Empire State Manufacturing IndexFEB</t>
+          <t>Existing Home Sales MoMJAN</t>
         </is>
       </c>
       <c r="C649" t="inlineStr"/>
       <c r="D649" t="inlineStr">
         <is>
-          <t>-12.6</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="E649" t="inlineStr"/>
       <c r="F649" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="G649" t="inlineStr">
@@ -18402,19 +18300,23 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>NAHB Housing Market IndexFEB</t>
+          <t>Michigan Consumer Sentiment FinalFEB</t>
         </is>
       </c>
       <c r="C650" t="inlineStr"/>
       <c r="D650" t="inlineStr">
         <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="E650" t="inlineStr"/>
+          <t>71.1</t>
+        </is>
+      </c>
+      <c r="E650" t="inlineStr">
+        <is>
+          <t>67.8</t>
+        </is>
+      </c>
       <c r="F650" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>67.8</t>
         </is>
       </c>
       <c r="G650" t="inlineStr">
@@ -18426,22 +18328,30 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Michigan 5 Year Inflation Expectations FinalFEB</t>
         </is>
       </c>
       <c r="C651" t="inlineStr"/>
       <c r="D651" t="inlineStr">
         <is>
-          <t>4.225%</t>
-        </is>
-      </c>
-      <c r="E651" t="inlineStr"/>
-      <c r="F651" t="inlineStr"/>
+          <t>3.2%</t>
+        </is>
+      </c>
+      <c r="E651" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="F651" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G651" t="inlineStr">
         <is>
           <t>3</t>
@@ -18451,22 +18361,30 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>Michigan Consumer Expectations FinalFEB</t>
         </is>
       </c>
       <c r="C652" t="inlineStr"/>
       <c r="D652" t="inlineStr">
         <is>
-          <t>4.025%</t>
-        </is>
-      </c>
-      <c r="E652" t="inlineStr"/>
-      <c r="F652" t="inlineStr"/>
+          <t>69.3</t>
+        </is>
+      </c>
+      <c r="E652" t="inlineStr">
+        <is>
+          <t>67.3</t>
+        </is>
+      </c>
+      <c r="F652" t="inlineStr">
+        <is>
+          <t>67.3</t>
+        </is>
+      </c>
       <c r="G652" t="inlineStr">
         <is>
           <t>3</t>
@@ -18476,22 +18394,30 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Michigan Current Conditions FinalFEB</t>
         </is>
       </c>
       <c r="C653" t="inlineStr"/>
       <c r="D653" t="inlineStr">
         <is>
-          <t>4.185%</t>
-        </is>
-      </c>
-      <c r="E653" t="inlineStr"/>
-      <c r="F653" t="inlineStr"/>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="E653" t="inlineStr">
+        <is>
+          <t>68.7</t>
+        </is>
+      </c>
+      <c r="F653" t="inlineStr">
+        <is>
+          <t>68.7</t>
+        </is>
+      </c>
       <c r="G653" t="inlineStr">
         <is>
           <t>3</t>
@@ -18501,18 +18427,30 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>NOPA Crush Report</t>
+          <t>Michigan Inflation Expectations FinalFEB</t>
         </is>
       </c>
       <c r="C654" t="inlineStr"/>
-      <c r="D654" t="inlineStr"/>
-      <c r="E654" t="inlineStr"/>
-      <c r="F654" t="inlineStr"/>
+      <c r="D654" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="E654" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
+      <c r="F654" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="G654" t="inlineStr">
         <is>
           <t>3</t>
@@ -18522,1535 +18460,57 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>Wednesday February 19 2025</t>
-        </is>
-      </c>
-      <c r="B655" t="inlineStr"/>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>Baker Hughes Oil Rig CountFEB/21</t>
+        </is>
+      </c>
       <c r="C655" t="inlineStr"/>
       <c r="D655" t="inlineStr"/>
       <c r="E655" t="inlineStr"/>
       <c r="F655" t="inlineStr"/>
-      <c r="G655" t="inlineStr"/>
+      <c r="G655" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsDEC</t>
+          <t>Baker Hughes Total Rigs CountFEB/21</t>
         </is>
       </c>
       <c r="C656" t="inlineStr"/>
-      <c r="D656" t="inlineStr">
-        <is>
-          <t>$79B</t>
-        </is>
-      </c>
+      <c r="D656" t="inlineStr"/>
       <c r="E656" t="inlineStr"/>
       <c r="F656" t="inlineStr"/>
       <c r="G656" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B657" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentDEC</t>
-        </is>
-      </c>
+          <t>Sunday February 23 2025</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr"/>
       <c r="C657" t="inlineStr"/>
-      <c r="D657" t="inlineStr">
-        <is>
-          <t>$-15.8B</t>
-        </is>
-      </c>
+      <c r="D657" t="inlineStr"/>
       <c r="E657" t="inlineStr"/>
       <c r="F657" t="inlineStr"/>
-      <c r="G657" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="658">
-      <c r="A658" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B658" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsDEC</t>
-        </is>
-      </c>
-      <c r="C658" t="inlineStr"/>
-      <c r="D658" t="inlineStr">
-        <is>
-          <t>$159.9B</t>
-        </is>
-      </c>
-      <c r="E658" t="inlineStr"/>
-      <c r="F658" t="inlineStr"/>
-      <c r="G658" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="659">
-      <c r="A659" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B659" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateFEB/14</t>
-        </is>
-      </c>
-      <c r="C659" t="inlineStr"/>
-      <c r="D659" t="inlineStr">
-        <is>
-          <t>6.95%</t>
-        </is>
-      </c>
-      <c r="E659" t="inlineStr"/>
-      <c r="F659" t="inlineStr"/>
-      <c r="G659" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="660">
-      <c r="A660" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B660" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsFEB/14</t>
-        </is>
-      </c>
-      <c r="C660" t="inlineStr"/>
-      <c r="D660" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="E660" t="inlineStr"/>
-      <c r="F660" t="inlineStr"/>
-      <c r="G660" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="661">
-      <c r="A661" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B661" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexFEB/14</t>
-        </is>
-      </c>
-      <c r="C661" t="inlineStr"/>
-      <c r="D661" t="inlineStr">
-        <is>
-          <t>230.0</t>
-        </is>
-      </c>
-      <c r="E661" t="inlineStr"/>
-      <c r="F661" t="inlineStr"/>
-      <c r="G661" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="662">
-      <c r="A662" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B662" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexFEB/14</t>
-        </is>
-      </c>
-      <c r="C662" t="inlineStr"/>
-      <c r="D662" t="inlineStr">
-        <is>
-          <t>640.6</t>
-        </is>
-      </c>
-      <c r="E662" t="inlineStr"/>
-      <c r="F662" t="inlineStr"/>
-      <c r="G662" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="663">
-      <c r="A663" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B663" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexFEB/14</t>
-        </is>
-      </c>
-      <c r="C663" t="inlineStr"/>
-      <c r="D663" t="inlineStr">
-        <is>
-          <t>153.1</t>
-        </is>
-      </c>
-      <c r="E663" t="inlineStr"/>
-      <c r="F663" t="inlineStr"/>
-      <c r="G663" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="664">
-      <c r="A664" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B664" t="inlineStr">
-        <is>
-          <t>Building Permits PrelJAN</t>
-        </is>
-      </c>
-      <c r="C664" t="inlineStr"/>
-      <c r="D664" t="inlineStr">
-        <is>
-          <t>1.482M</t>
-        </is>
-      </c>
-      <c r="E664" t="inlineStr"/>
-      <c r="F664" t="inlineStr">
-        <is>
-          <t>1.47M</t>
-        </is>
-      </c>
-      <c r="G664" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="665">
-      <c r="A665" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B665" t="inlineStr">
-        <is>
-          <t>Housing StartsJAN</t>
-        </is>
-      </c>
-      <c r="C665" t="inlineStr"/>
-      <c r="D665" t="inlineStr">
-        <is>
-          <t>1.499M</t>
-        </is>
-      </c>
-      <c r="E665" t="inlineStr"/>
-      <c r="F665" t="inlineStr">
-        <is>
-          <t>1.35M</t>
-        </is>
-      </c>
-      <c r="G665" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="666">
-      <c r="A666" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B666" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelJAN</t>
-        </is>
-      </c>
-      <c r="C666" t="inlineStr"/>
-      <c r="D666" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="E666" t="inlineStr"/>
-      <c r="F666" t="inlineStr">
-        <is>
-          <t>-0.8%</t>
-        </is>
-      </c>
-      <c r="G666" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="667">
-      <c r="A667" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B667" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMJAN</t>
-        </is>
-      </c>
-      <c r="C667" t="inlineStr"/>
-      <c r="D667" t="inlineStr">
-        <is>
-          <t>15.8%</t>
-        </is>
-      </c>
-      <c r="E667" t="inlineStr"/>
-      <c r="F667" t="inlineStr">
-        <is>
-          <t>-9.0%</t>
-        </is>
-      </c>
-      <c r="G667" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="668">
-      <c r="A668" t="inlineStr">
-        <is>
-          <t>07:25 PM</t>
-        </is>
-      </c>
-      <c r="B668" t="inlineStr">
-        <is>
-          <t>Redbook YoYFEB/15</t>
-        </is>
-      </c>
-      <c r="C668" t="inlineStr"/>
-      <c r="D668" t="inlineStr">
-        <is>
-          <t>5.3%</t>
-        </is>
-      </c>
-      <c r="E668" t="inlineStr"/>
-      <c r="F668" t="inlineStr"/>
-      <c r="G668" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="669">
-      <c r="A669" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B669" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C669" t="inlineStr"/>
-      <c r="D669" t="inlineStr">
-        <is>
-          <t>4.230%</t>
-        </is>
-      </c>
-      <c r="E669" t="inlineStr"/>
-      <c r="F669" t="inlineStr"/>
-      <c r="G669" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="670">
-      <c r="A670" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B670" t="inlineStr">
-        <is>
-          <t>20-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C670" t="inlineStr"/>
-      <c r="D670" t="inlineStr">
-        <is>
-          <t>4.900%</t>
-        </is>
-      </c>
-      <c r="E670" t="inlineStr"/>
-      <c r="F670" t="inlineStr"/>
-      <c r="G670" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="671">
-      <c r="A671" t="inlineStr">
-        <is>
-          <t>Thursday February 20 2025</t>
-        </is>
-      </c>
-      <c r="B671" t="inlineStr"/>
-      <c r="C671" t="inlineStr"/>
-      <c r="D671" t="inlineStr"/>
-      <c r="E671" t="inlineStr"/>
-      <c r="F671" t="inlineStr"/>
-      <c r="G671" t="inlineStr"/>
-    </row>
-    <row r="672">
-      <c r="A672" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B672" t="inlineStr">
-        <is>
-          <t>FOMC Minutes</t>
-        </is>
-      </c>
-      <c r="C672" t="inlineStr"/>
-      <c r="D672" t="inlineStr"/>
-      <c r="E672" t="inlineStr"/>
-      <c r="F672" t="inlineStr"/>
-      <c r="G672" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="673">
-      <c r="A673" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B673" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C673" t="inlineStr"/>
-      <c r="D673" t="inlineStr">
-        <is>
-          <t>9.043M</t>
-        </is>
-      </c>
-      <c r="E673" t="inlineStr"/>
-      <c r="F673" t="inlineStr"/>
-      <c r="G673" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="674">
-      <c r="A674" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B674" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsFEB/15</t>
-        </is>
-      </c>
-      <c r="C674" t="inlineStr"/>
-      <c r="D674" t="inlineStr">
-        <is>
-          <t>213K</t>
-        </is>
-      </c>
-      <c r="E674" t="inlineStr"/>
-      <c r="F674" t="inlineStr">
-        <is>
-          <t>220.0K</t>
-        </is>
-      </c>
-      <c r="G674" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="675">
-      <c r="A675" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B675" t="inlineStr">
-        <is>
-          <t>Philadelphia Fed Manufacturing IndexFEB</t>
-        </is>
-      </c>
-      <c r="C675" t="inlineStr"/>
-      <c r="D675" t="inlineStr">
-        <is>
-          <t>44.3</t>
-        </is>
-      </c>
-      <c r="E675" t="inlineStr"/>
-      <c r="F675" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="G675" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="676">
-      <c r="A676" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B676" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsFEB/08</t>
-        </is>
-      </c>
-      <c r="C676" t="inlineStr"/>
-      <c r="D676" t="inlineStr">
-        <is>
-          <t>1850K</t>
-        </is>
-      </c>
-      <c r="E676" t="inlineStr"/>
-      <c r="F676" t="inlineStr">
-        <is>
-          <t>1879.0K</t>
-        </is>
-      </c>
-      <c r="G676" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="677">
-      <c r="A677" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B677" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageFEB/15</t>
-        </is>
-      </c>
-      <c r="C677" t="inlineStr"/>
-      <c r="D677" t="inlineStr">
-        <is>
-          <t>216K</t>
-        </is>
-      </c>
-      <c r="E677" t="inlineStr"/>
-      <c r="F677" t="inlineStr">
-        <is>
-          <t>219.0K</t>
-        </is>
-      </c>
-      <c r="G677" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="678">
-      <c r="A678" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B678" t="inlineStr">
-        <is>
-          <t>Philly Fed Business ConditionsFEB</t>
-        </is>
-      </c>
-      <c r="C678" t="inlineStr"/>
-      <c r="D678" t="inlineStr">
-        <is>
-          <t>46.3</t>
-        </is>
-      </c>
-      <c r="E678" t="inlineStr"/>
-      <c r="F678" t="inlineStr"/>
-      <c r="G678" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="679">
-      <c r="A679" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B679" t="inlineStr">
-        <is>
-          <t>Philly Fed CAPEX IndexFEB</t>
-        </is>
-      </c>
-      <c r="C679" t="inlineStr"/>
-      <c r="D679" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="E679" t="inlineStr"/>
-      <c r="F679" t="inlineStr"/>
-      <c r="G679" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="680">
-      <c r="A680" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B680" t="inlineStr">
-        <is>
-          <t>Philly Fed EmploymentFEB</t>
-        </is>
-      </c>
-      <c r="C680" t="inlineStr"/>
-      <c r="D680" t="inlineStr">
-        <is>
-          <t>11.9</t>
-        </is>
-      </c>
-      <c r="E680" t="inlineStr"/>
-      <c r="F680" t="inlineStr"/>
-      <c r="G680" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="681">
-      <c r="A681" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B681" t="inlineStr">
-        <is>
-          <t>Philly Fed New OrdersFEB</t>
-        </is>
-      </c>
-      <c r="C681" t="inlineStr"/>
-      <c r="D681" t="inlineStr">
-        <is>
-          <t>42.9</t>
-        </is>
-      </c>
-      <c r="E681" t="inlineStr"/>
-      <c r="F681" t="inlineStr"/>
-      <c r="G681" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="682">
-      <c r="A682" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B682" t="inlineStr">
-        <is>
-          <t>Philly Fed Prices PaidFEB</t>
-        </is>
-      </c>
-      <c r="C682" t="inlineStr"/>
-      <c r="D682" t="inlineStr">
-        <is>
-          <t>31.9</t>
-        </is>
-      </c>
-      <c r="E682" t="inlineStr"/>
-      <c r="F682" t="inlineStr"/>
-      <c r="G682" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="683">
-      <c r="A683" t="inlineStr">
-        <is>
-          <t>08:05 PM</t>
-        </is>
-      </c>
-      <c r="B683" t="inlineStr">
-        <is>
-          <t>Fed Golsbee Speech</t>
-        </is>
-      </c>
-      <c r="C683" t="inlineStr"/>
-      <c r="D683" t="inlineStr"/>
-      <c r="E683" t="inlineStr"/>
-      <c r="F683" t="inlineStr"/>
-      <c r="G683" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="684">
-      <c r="A684" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B684" t="inlineStr">
-        <is>
-          <t>CB Leading Index MoMJAN</t>
-        </is>
-      </c>
-      <c r="C684" t="inlineStr"/>
-      <c r="D684" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E684" t="inlineStr"/>
-      <c r="F684" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G684" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="685">
-      <c r="A685" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B685" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C685" t="inlineStr"/>
-      <c r="D685" t="inlineStr">
-        <is>
-          <t>-100Bcf</t>
-        </is>
-      </c>
-      <c r="E685" t="inlineStr"/>
-      <c r="F685" t="inlineStr"/>
-      <c r="G685" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="686">
-      <c r="A686" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B686" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C686" t="inlineStr"/>
-      <c r="D686" t="inlineStr"/>
-      <c r="E686" t="inlineStr"/>
-      <c r="F686" t="inlineStr"/>
-      <c r="G686" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="687">
-      <c r="A687" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B687" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C687" t="inlineStr"/>
-      <c r="D687" t="inlineStr"/>
-      <c r="E687" t="inlineStr"/>
-      <c r="F687" t="inlineStr"/>
-      <c r="G687" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="688">
-      <c r="A688" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B688" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C688" t="inlineStr"/>
-      <c r="D688" t="inlineStr">
-        <is>
-          <t>4.07M</t>
-        </is>
-      </c>
-      <c r="E688" t="inlineStr"/>
-      <c r="F688" t="inlineStr"/>
-      <c r="G688" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="689">
-      <c r="A689" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B689" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C689" t="inlineStr"/>
-      <c r="D689" t="inlineStr">
-        <is>
-          <t>-3.035M</t>
-        </is>
-      </c>
-      <c r="E689" t="inlineStr"/>
-      <c r="F689" t="inlineStr"/>
-      <c r="G689" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="690">
-      <c r="A690" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B690" t="inlineStr">
-        <is>
-          <t>Fed Musalem Speech</t>
-        </is>
-      </c>
-      <c r="C690" t="inlineStr"/>
-      <c r="D690" t="inlineStr"/>
-      <c r="E690" t="inlineStr"/>
-      <c r="F690" t="inlineStr"/>
-      <c r="G690" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="691">
-      <c r="A691" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B691" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateFEB/20</t>
-        </is>
-      </c>
-      <c r="C691" t="inlineStr"/>
-      <c r="D691" t="inlineStr"/>
-      <c r="E691" t="inlineStr"/>
-      <c r="F691" t="inlineStr"/>
-      <c r="G691" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="692">
-      <c r="A692" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B692" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateFEB/20</t>
-        </is>
-      </c>
-      <c r="C692" t="inlineStr"/>
-      <c r="D692" t="inlineStr"/>
-      <c r="E692" t="inlineStr"/>
-      <c r="F692" t="inlineStr"/>
-      <c r="G692" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="693">
-      <c r="A693" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B693" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C693" t="inlineStr"/>
-      <c r="D693" t="inlineStr">
-        <is>
-          <t>-0.184M</t>
-        </is>
-      </c>
-      <c r="E693" t="inlineStr"/>
-      <c r="F693" t="inlineStr"/>
-      <c r="G693" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="694">
-      <c r="A694" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B694" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C694" t="inlineStr"/>
-      <c r="D694" t="inlineStr">
-        <is>
-          <t>0.872M</t>
-        </is>
-      </c>
-      <c r="E694" t="inlineStr"/>
-      <c r="F694" t="inlineStr"/>
-      <c r="G694" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="695">
-      <c r="A695" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B695" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C695" t="inlineStr"/>
-      <c r="D695" t="inlineStr">
-        <is>
-          <t>-0.009M</t>
-        </is>
-      </c>
-      <c r="E695" t="inlineStr"/>
-      <c r="F695" t="inlineStr"/>
-      <c r="G695" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="696">
-      <c r="A696" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B696" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C696" t="inlineStr"/>
-      <c r="D696" t="inlineStr">
-        <is>
-          <t>0.135M</t>
-        </is>
-      </c>
-      <c r="E696" t="inlineStr"/>
-      <c r="F696" t="inlineStr"/>
-      <c r="G696" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="697">
-      <c r="A697" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B697" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C697" t="inlineStr"/>
-      <c r="D697" t="inlineStr">
-        <is>
-          <t>0.18M</t>
-        </is>
-      </c>
-      <c r="E697" t="inlineStr"/>
-      <c r="F697" t="inlineStr"/>
-      <c r="G697" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="698">
-      <c r="A698" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B698" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C698" t="inlineStr"/>
-      <c r="D698" t="inlineStr">
-        <is>
-          <t>0.159M</t>
-        </is>
-      </c>
-      <c r="E698" t="inlineStr"/>
-      <c r="F698" t="inlineStr"/>
-      <c r="G698" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="699">
-      <c r="A699" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B699" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C699" t="inlineStr"/>
-      <c r="D699" t="inlineStr">
-        <is>
-          <t>0.082M</t>
-        </is>
-      </c>
-      <c r="E699" t="inlineStr"/>
-      <c r="F699" t="inlineStr"/>
-      <c r="G699" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="700">
-      <c r="A700" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B700" t="inlineStr">
-        <is>
-          <t>30-Year TIPS Auction</t>
-        </is>
-      </c>
-      <c r="C700" t="inlineStr"/>
-      <c r="D700" t="inlineStr">
-        <is>
-          <t>2.055%</t>
-        </is>
-      </c>
-      <c r="E700" t="inlineStr"/>
-      <c r="F700" t="inlineStr"/>
-      <c r="G700" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="701">
-      <c r="A701" t="inlineStr">
-        <is>
-          <t>Friday February 21 2025</t>
-        </is>
-      </c>
-      <c r="B701" t="inlineStr"/>
-      <c r="C701" t="inlineStr"/>
-      <c r="D701" t="inlineStr"/>
-      <c r="E701" t="inlineStr"/>
-      <c r="F701" t="inlineStr"/>
-      <c r="G701" t="inlineStr"/>
-    </row>
-    <row r="702">
-      <c r="A702" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B702" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetFEB/19</t>
-        </is>
-      </c>
-      <c r="C702" t="inlineStr"/>
-      <c r="D702" t="inlineStr"/>
-      <c r="E702" t="inlineStr"/>
-      <c r="F702" t="inlineStr"/>
-      <c r="G702" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="703">
-      <c r="A703" t="inlineStr">
-        <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B703" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Composite PMI FlashFEB</t>
-        </is>
-      </c>
-      <c r="C703" t="inlineStr"/>
-      <c r="D703" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="E703" t="inlineStr"/>
-      <c r="F703" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="G703" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="704">
-      <c r="A704" t="inlineStr">
-        <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B704" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMI FlashFEB</t>
-        </is>
-      </c>
-      <c r="C704" t="inlineStr"/>
-      <c r="D704" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="E704" t="inlineStr"/>
-      <c r="F704" t="inlineStr">
-        <is>
-          <t>51.3</t>
-        </is>
-      </c>
-      <c r="G704" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="705">
-      <c r="A705" t="inlineStr">
-        <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B705" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Services PMI FlashFEB</t>
-        </is>
-      </c>
-      <c r="C705" t="inlineStr"/>
-      <c r="D705" t="inlineStr">
-        <is>
-          <t>52.9</t>
-        </is>
-      </c>
-      <c r="E705" t="inlineStr"/>
-      <c r="F705" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="G705" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="706">
-      <c r="A706" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B706" t="inlineStr">
-        <is>
-          <t>Existing Home SalesJAN</t>
-        </is>
-      </c>
-      <c r="C706" t="inlineStr"/>
-      <c r="D706" t="inlineStr">
-        <is>
-          <t>4.24M</t>
-        </is>
-      </c>
-      <c r="E706" t="inlineStr"/>
-      <c r="F706" t="inlineStr">
-        <is>
-          <t>4.16M</t>
-        </is>
-      </c>
-      <c r="G706" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="707">
-      <c r="A707" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B707" t="inlineStr">
-        <is>
-          <t>Existing Home Sales MoMJAN</t>
-        </is>
-      </c>
-      <c r="C707" t="inlineStr"/>
-      <c r="D707" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E707" t="inlineStr"/>
-      <c r="F707" t="inlineStr">
-        <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="G707" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="708">
-      <c r="A708" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B708" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment FinalFEB</t>
-        </is>
-      </c>
-      <c r="C708" t="inlineStr"/>
-      <c r="D708" t="inlineStr">
-        <is>
-          <t>71.1</t>
-        </is>
-      </c>
-      <c r="E708" t="inlineStr">
-        <is>
-          <t>67.8</t>
-        </is>
-      </c>
-      <c r="F708" t="inlineStr">
-        <is>
-          <t>67.8</t>
-        </is>
-      </c>
-      <c r="G708" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="709">
-      <c r="A709" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B709" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations FinalFEB</t>
-        </is>
-      </c>
-      <c r="C709" t="inlineStr"/>
-      <c r="D709" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="E709" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F709" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G709" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="710">
-      <c r="A710" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B710" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations FinalFEB</t>
-        </is>
-      </c>
-      <c r="C710" t="inlineStr"/>
-      <c r="D710" t="inlineStr">
-        <is>
-          <t>69.3</t>
-        </is>
-      </c>
-      <c r="E710" t="inlineStr">
-        <is>
-          <t>67.3</t>
-        </is>
-      </c>
-      <c r="F710" t="inlineStr">
-        <is>
-          <t>67.3</t>
-        </is>
-      </c>
-      <c r="G710" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="711">
-      <c r="A711" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B711" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions FinalFEB</t>
-        </is>
-      </c>
-      <c r="C711" t="inlineStr"/>
-      <c r="D711" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="E711" t="inlineStr">
-        <is>
-          <t>68.7</t>
-        </is>
-      </c>
-      <c r="F711" t="inlineStr">
-        <is>
-          <t>68.7</t>
-        </is>
-      </c>
-      <c r="G711" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="712">
-      <c r="A712" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B712" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations FinalFEB</t>
-        </is>
-      </c>
-      <c r="C712" t="inlineStr"/>
-      <c r="D712" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E712" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="F712" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="G712" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="713">
-      <c r="A713" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B713" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountFEB/21</t>
-        </is>
-      </c>
-      <c r="C713" t="inlineStr"/>
-      <c r="D713" t="inlineStr"/>
-      <c r="E713" t="inlineStr"/>
-      <c r="F713" t="inlineStr"/>
-      <c r="G713" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="714">
-      <c r="A714" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B714" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountFEB/21</t>
-        </is>
-      </c>
-      <c r="C714" t="inlineStr"/>
-      <c r="D714" t="inlineStr"/>
-      <c r="E714" t="inlineStr"/>
-      <c r="F714" t="inlineStr"/>
-      <c r="G714" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="715">
-      <c r="A715" t="inlineStr">
-        <is>
-          <t>Sunday February 23 2025</t>
-        </is>
-      </c>
-      <c r="B715" t="inlineStr"/>
-      <c r="C715" t="inlineStr"/>
-      <c r="D715" t="inlineStr"/>
-      <c r="E715" t="inlineStr"/>
-      <c r="F715" t="inlineStr"/>
-      <c r="G715" t="inlineStr"/>
+      <c r="G657" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-02-23.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-02-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G715"/>
+  <dimension ref="A1:G657"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17125,10 +17125,8 @@
           <t>$-93.0B</t>
         </is>
       </c>
-      <c r="G606" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G606" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="607">
@@ -17146,10 +17144,8 @@
       <c r="D607" t="inlineStr"/>
       <c r="E607" t="inlineStr"/>
       <c r="F607" t="inlineStr"/>
-      <c r="G607" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G607" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="608">
@@ -17183,10 +17179,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G608" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G608" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="609">
@@ -17220,10 +17214,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="G609" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G609" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="610">
@@ -17257,10 +17249,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="G610" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G610" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="611">
@@ -17294,10 +17284,8 @@
           <t>1875.0K</t>
         </is>
       </c>
-      <c r="G611" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G611" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="612">
@@ -17331,10 +17319,8 @@
           <t>3.5%</t>
         </is>
       </c>
-      <c r="G612" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G612" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="613">
@@ -17364,10 +17350,8 @@
           <t>216.0K</t>
         </is>
       </c>
-      <c r="G613" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G613" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="614">
@@ -17397,10 +17381,8 @@
           <t>147.2</t>
         </is>
       </c>
-      <c r="G614" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G614" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="615">
@@ -17430,10 +17412,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G615" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G615" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="616">
@@ -17467,10 +17447,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="G616" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G616" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="617">
@@ -17504,10 +17482,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="G617" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G617" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="618">
@@ -17537,10 +17513,8 @@
         </is>
       </c>
       <c r="F618" t="inlineStr"/>
-      <c r="G618" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G618" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="619">
@@ -17566,10 +17540,8 @@
       </c>
       <c r="E619" t="inlineStr"/>
       <c r="F619" t="inlineStr"/>
-      <c r="G619" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G619" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="620">
@@ -17595,10 +17567,8 @@
       </c>
       <c r="E620" t="inlineStr"/>
       <c r="F620" t="inlineStr"/>
-      <c r="G620" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G620" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="621">
@@ -17624,10 +17594,8 @@
       </c>
       <c r="E621" t="inlineStr"/>
       <c r="F621" t="inlineStr"/>
-      <c r="G621" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G621" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="622">
@@ -17653,10 +17621,8 @@
       </c>
       <c r="E622" t="inlineStr"/>
       <c r="F622" t="inlineStr"/>
-      <c r="G622" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G622" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="623">
@@ -17682,10 +17648,8 @@
       </c>
       <c r="E623" t="inlineStr"/>
       <c r="F623" t="inlineStr"/>
-      <c r="G623" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G623" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="624">
@@ -17711,44 +17675,54 @@
       </c>
       <c r="E624" t="inlineStr"/>
       <c r="F624" t="inlineStr"/>
-      <c r="G624" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G624" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>Friday February 14 2025</t>
-        </is>
-      </c>
-      <c r="B625" t="inlineStr"/>
+          <t>08:05 PM</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>Fed Golsbee Speech</t>
+        </is>
+      </c>
       <c r="C625" t="inlineStr"/>
       <c r="D625" t="inlineStr"/>
       <c r="E625" t="inlineStr"/>
       <c r="F625" t="inlineStr"/>
-      <c r="G625" t="inlineStr"/>
+      <c r="G625" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>Fed Balance SheetFEB/12</t>
+          <t>CB Leading Index MoMJAN</t>
         </is>
       </c>
       <c r="C626" t="inlineStr"/>
       <c r="D626" t="inlineStr">
         <is>
-          <t>$6.81T</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E626" t="inlineStr"/>
-      <c r="F626" t="inlineStr"/>
+      <c r="F626" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="G626" t="inlineStr">
         <is>
           <t>3</t>
@@ -17758,129 +17732,89 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>Retail Sales MoMJAN</t>
+          <t>EIA Natural Gas Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C627" t="inlineStr"/>
       <c r="D627" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E627" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F627" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+          <t>-100Bcf</t>
+        </is>
+      </c>
+      <c r="E627" t="inlineStr"/>
+      <c r="F627" t="inlineStr"/>
       <c r="G627" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>Export Prices MoMJAN</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C628" t="inlineStr"/>
-      <c r="D628" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E628" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F628" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="D628" t="inlineStr"/>
+      <c r="E628" t="inlineStr"/>
+      <c r="F628" t="inlineStr"/>
       <c r="G628" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>Import Prices MoMJAN</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C629" t="inlineStr"/>
-      <c r="D629" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E629" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F629" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="D629" t="inlineStr"/>
+      <c r="E629" t="inlineStr"/>
+      <c r="F629" t="inlineStr"/>
       <c r="G629" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>Retail Sales Control Group MoMJAN</t>
+          <t>EIA Crude Oil Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C630" t="inlineStr"/>
       <c r="D630" t="inlineStr">
         <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="E630" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F630" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>4.07M</t>
+        </is>
+      </c>
+      <c r="E630" t="inlineStr"/>
+      <c r="F630" t="inlineStr"/>
       <c r="G630" t="inlineStr">
         <is>
           <t>2</t>
@@ -17890,30 +17824,22 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Autos MoMJAN</t>
+          <t>EIA Gasoline Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C631" t="inlineStr"/>
       <c r="D631" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E631" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F631" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>-3.035M</t>
+        </is>
+      </c>
+      <c r="E631" t="inlineStr"/>
+      <c r="F631" t="inlineStr"/>
       <c r="G631" t="inlineStr">
         <is>
           <t>2</t>
@@ -17923,55 +17849,43 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>Export Prices YoYJAN</t>
+          <t>Fed Musalem Speech</t>
         </is>
       </c>
       <c r="C632" t="inlineStr"/>
-      <c r="D632" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
+      <c r="D632" t="inlineStr"/>
       <c r="E632" t="inlineStr"/>
-      <c r="F632" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="F632" t="inlineStr"/>
       <c r="G632" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>Import Prices YoYJAN</t>
+          <t>15-Year Mortgage RateFEB/20</t>
         </is>
       </c>
       <c r="C633" t="inlineStr"/>
       <c r="D633" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>6.09%</t>
         </is>
       </c>
       <c r="E633" t="inlineStr"/>
-      <c r="F633" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="F633" t="inlineStr"/>
       <c r="G633" t="inlineStr">
         <is>
           <t>3</t>
@@ -17981,26 +17895,22 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Gas/Autos MoMJAN</t>
+          <t>30-Year Mortgage RateFEB/20</t>
         </is>
       </c>
       <c r="C634" t="inlineStr"/>
       <c r="D634" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>6.87%</t>
         </is>
       </c>
       <c r="E634" t="inlineStr"/>
-      <c r="F634" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F634" t="inlineStr"/>
       <c r="G634" t="inlineStr">
         <is>
           <t>3</t>
@@ -18010,26 +17920,22 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>Retail Sales YoYJAN</t>
+          <t>EIA Crude Oil Imports ChangeFEB/14</t>
         </is>
       </c>
       <c r="C635" t="inlineStr"/>
       <c r="D635" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-0.184M</t>
         </is>
       </c>
       <c r="E635" t="inlineStr"/>
-      <c r="F635" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
+      <c r="F635" t="inlineStr"/>
       <c r="G635" t="inlineStr">
         <is>
           <t>3</t>
@@ -18039,63 +17945,47 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>Industrial Production MoMJAN</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C636" t="inlineStr"/>
       <c r="D636" t="inlineStr">
         <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="E636" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F636" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>0.872M</t>
+        </is>
+      </c>
+      <c r="E636" t="inlineStr"/>
+      <c r="F636" t="inlineStr"/>
       <c r="G636" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>EIA Distillate Fuel Production ChangeFEB/14</t>
         </is>
       </c>
       <c r="C637" t="inlineStr"/>
       <c r="D637" t="inlineStr">
         <is>
-          <t>77.6%</t>
-        </is>
-      </c>
-      <c r="E637" t="inlineStr">
-        <is>
-          <t>77.7%</t>
-        </is>
-      </c>
-      <c r="F637" t="inlineStr">
-        <is>
-          <t>77.4%</t>
-        </is>
-      </c>
+          <t>-0.009M</t>
+        </is>
+      </c>
+      <c r="E637" t="inlineStr"/>
+      <c r="F637" t="inlineStr"/>
       <c r="G637" t="inlineStr">
         <is>
           <t>3</t>
@@ -18105,26 +17995,22 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>Industrial Production YoYJAN</t>
+          <t>EIA Distillate Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C638" t="inlineStr"/>
       <c r="D638" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.135M</t>
         </is>
       </c>
       <c r="E638" t="inlineStr"/>
-      <c r="F638" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="F638" t="inlineStr"/>
       <c r="G638" t="inlineStr">
         <is>
           <t>3</t>
@@ -18134,30 +18020,22 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMJAN</t>
+          <t>EIA Gasoline Production ChangeFEB/14</t>
         </is>
       </c>
       <c r="C639" t="inlineStr"/>
       <c r="D639" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="E639" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F639" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>0.18M</t>
+        </is>
+      </c>
+      <c r="E639" t="inlineStr"/>
+      <c r="F639" t="inlineStr"/>
       <c r="G639" t="inlineStr">
         <is>
           <t>3</t>
@@ -18167,26 +18045,22 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYJAN</t>
+          <t>EIA Heating Oil Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C640" t="inlineStr"/>
       <c r="D640" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.159M</t>
         </is>
       </c>
       <c r="E640" t="inlineStr"/>
-      <c r="F640" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="F640" t="inlineStr"/>
       <c r="G640" t="inlineStr">
         <is>
           <t>3</t>
@@ -18196,63 +18070,47 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>Business Inventories MoMDEC</t>
+          <t>EIA Refinery Crude Runs ChangeFEB/14</t>
         </is>
       </c>
       <c r="C641" t="inlineStr"/>
       <c r="D641" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E641" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F641" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+          <t>0.082M</t>
+        </is>
+      </c>
+      <c r="E641" t="inlineStr"/>
+      <c r="F641" t="inlineStr"/>
       <c r="G641" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoMDEC</t>
+          <t>30-Year TIPS Auction</t>
         </is>
       </c>
       <c r="C642" t="inlineStr"/>
       <c r="D642" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E642" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F642" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>2.055%</t>
+        </is>
+      </c>
+      <c r="E642" t="inlineStr"/>
+      <c r="F642" t="inlineStr"/>
       <c r="G642" t="inlineStr">
         <is>
           <t>3</t>
@@ -18262,45 +18120,29 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B643" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountFEB/14</t>
-        </is>
-      </c>
+          <t>Friday February 21 2025</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr"/>
       <c r="C643" t="inlineStr"/>
-      <c r="D643" t="inlineStr">
-        <is>
-          <t>480</t>
-        </is>
-      </c>
+      <c r="D643" t="inlineStr"/>
       <c r="E643" t="inlineStr"/>
       <c r="F643" t="inlineStr"/>
-      <c r="G643" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G643" t="inlineStr"/>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountFEB/14</t>
+          <t>Fed Balance SheetFEB/19</t>
         </is>
       </c>
       <c r="C644" t="inlineStr"/>
-      <c r="D644" t="inlineStr">
-        <is>
-          <t>586</t>
-        </is>
-      </c>
+      <c r="D644" t="inlineStr"/>
       <c r="E644" t="inlineStr"/>
       <c r="F644" t="inlineStr"/>
       <c r="G644" t="inlineStr">
@@ -18312,44 +18154,84 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>Sunday February 16 2025</t>
-        </is>
-      </c>
-      <c r="B645" t="inlineStr"/>
+          <t>08:15 PM</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Composite PMI FlashFEB</t>
+        </is>
+      </c>
       <c r="C645" t="inlineStr"/>
-      <c r="D645" t="inlineStr"/>
+      <c r="D645" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
       <c r="E645" t="inlineStr"/>
-      <c r="F645" t="inlineStr"/>
-      <c r="G645" t="inlineStr"/>
+      <c r="F645" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
+      <c r="G645" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>Monday February 17 2025</t>
-        </is>
-      </c>
-      <c r="B646" t="inlineStr"/>
+          <t>08:15 PM</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Manufacturing PMI FlashFEB</t>
+        </is>
+      </c>
       <c r="C646" t="inlineStr"/>
-      <c r="D646" t="inlineStr"/>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
       <c r="E646" t="inlineStr"/>
-      <c r="F646" t="inlineStr"/>
-      <c r="G646" t="inlineStr"/>
+      <c r="F646" t="inlineStr">
+        <is>
+          <t>51.3</t>
+        </is>
+      </c>
+      <c r="G646" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>Fed Harker Speech</t>
+          <t>S&amp;P Global Services PMI FlashFEB</t>
         </is>
       </c>
       <c r="C647" t="inlineStr"/>
-      <c r="D647" t="inlineStr"/>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t>52.9</t>
+        </is>
+      </c>
       <c r="E647" t="inlineStr"/>
-      <c r="F647" t="inlineStr"/>
+      <c r="F647" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
       <c r="G647" t="inlineStr">
         <is>
           <t>2</t>
@@ -18359,37 +18241,53 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>Tuesday February 18 2025</t>
-        </is>
-      </c>
-      <c r="B648" t="inlineStr"/>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>Existing Home SalesJAN</t>
+        </is>
+      </c>
       <c r="C648" t="inlineStr"/>
-      <c r="D648" t="inlineStr"/>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>4.24M</t>
+        </is>
+      </c>
       <c r="E648" t="inlineStr"/>
-      <c r="F648" t="inlineStr"/>
-      <c r="G648" t="inlineStr"/>
+      <c r="F648" t="inlineStr">
+        <is>
+          <t>4.16M</t>
+        </is>
+      </c>
+      <c r="G648" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>NY Empire State Manufacturing IndexFEB</t>
+          <t>Existing Home Sales MoMJAN</t>
         </is>
       </c>
       <c r="C649" t="inlineStr"/>
       <c r="D649" t="inlineStr">
         <is>
-          <t>-12.6</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="E649" t="inlineStr"/>
       <c r="F649" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="G649" t="inlineStr">
@@ -18406,19 +18304,23 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>NAHB Housing Market IndexFEB</t>
+          <t>Michigan Consumer Sentiment FinalFEB</t>
         </is>
       </c>
       <c r="C650" t="inlineStr"/>
       <c r="D650" t="inlineStr">
         <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="E650" t="inlineStr"/>
+          <t>71.1</t>
+        </is>
+      </c>
+      <c r="E650" t="inlineStr">
+        <is>
+          <t>67.8</t>
+        </is>
+      </c>
       <c r="F650" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>67.8</t>
         </is>
       </c>
       <c r="G650" t="inlineStr">
@@ -18430,22 +18332,30 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Michigan 5 Year Inflation Expectations FinalFEB</t>
         </is>
       </c>
       <c r="C651" t="inlineStr"/>
       <c r="D651" t="inlineStr">
         <is>
-          <t>4.225%</t>
-        </is>
-      </c>
-      <c r="E651" t="inlineStr"/>
-      <c r="F651" t="inlineStr"/>
+          <t>3.2%</t>
+        </is>
+      </c>
+      <c r="E651" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="F651" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G651" t="inlineStr">
         <is>
           <t>3</t>
@@ -18455,22 +18365,30 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>Michigan Consumer Expectations FinalFEB</t>
         </is>
       </c>
       <c r="C652" t="inlineStr"/>
       <c r="D652" t="inlineStr">
         <is>
-          <t>4.025%</t>
-        </is>
-      </c>
-      <c r="E652" t="inlineStr"/>
-      <c r="F652" t="inlineStr"/>
+          <t>69.3</t>
+        </is>
+      </c>
+      <c r="E652" t="inlineStr">
+        <is>
+          <t>67.3</t>
+        </is>
+      </c>
+      <c r="F652" t="inlineStr">
+        <is>
+          <t>67.3</t>
+        </is>
+      </c>
       <c r="G652" t="inlineStr">
         <is>
           <t>3</t>
@@ -18480,22 +18398,30 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Michigan Current Conditions FinalFEB</t>
         </is>
       </c>
       <c r="C653" t="inlineStr"/>
       <c r="D653" t="inlineStr">
         <is>
-          <t>4.185%</t>
-        </is>
-      </c>
-      <c r="E653" t="inlineStr"/>
-      <c r="F653" t="inlineStr"/>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="E653" t="inlineStr">
+        <is>
+          <t>68.7</t>
+        </is>
+      </c>
+      <c r="F653" t="inlineStr">
+        <is>
+          <t>68.7</t>
+        </is>
+      </c>
       <c r="G653" t="inlineStr">
         <is>
           <t>3</t>
@@ -18505,18 +18431,30 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>NOPA Crush Report</t>
+          <t>Michigan Inflation Expectations FinalFEB</t>
         </is>
       </c>
       <c r="C654" t="inlineStr"/>
-      <c r="D654" t="inlineStr"/>
-      <c r="E654" t="inlineStr"/>
-      <c r="F654" t="inlineStr"/>
+      <c r="D654" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="E654" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
+      <c r="F654" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="G654" t="inlineStr">
         <is>
           <t>3</t>
@@ -18526,1543 +18464,57 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>Wednesday February 19 2025</t>
-        </is>
-      </c>
-      <c r="B655" t="inlineStr"/>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>Baker Hughes Oil Rig CountFEB/21</t>
+        </is>
+      </c>
       <c r="C655" t="inlineStr"/>
       <c r="D655" t="inlineStr"/>
       <c r="E655" t="inlineStr"/>
       <c r="F655" t="inlineStr"/>
-      <c r="G655" t="inlineStr"/>
+      <c r="G655" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsDEC</t>
+          <t>Baker Hughes Total Rigs CountFEB/21</t>
         </is>
       </c>
       <c r="C656" t="inlineStr"/>
-      <c r="D656" t="inlineStr">
-        <is>
-          <t>$79B</t>
-        </is>
-      </c>
+      <c r="D656" t="inlineStr"/>
       <c r="E656" t="inlineStr"/>
       <c r="F656" t="inlineStr"/>
       <c r="G656" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B657" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentDEC</t>
-        </is>
-      </c>
+          <t>Sunday February 23 2025</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr"/>
       <c r="C657" t="inlineStr"/>
-      <c r="D657" t="inlineStr">
-        <is>
-          <t>$-15.8B</t>
-        </is>
-      </c>
+      <c r="D657" t="inlineStr"/>
       <c r="E657" t="inlineStr"/>
       <c r="F657" t="inlineStr"/>
-      <c r="G657" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="658">
-      <c r="A658" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B658" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsDEC</t>
-        </is>
-      </c>
-      <c r="C658" t="inlineStr"/>
-      <c r="D658" t="inlineStr">
-        <is>
-          <t>$159.9B</t>
-        </is>
-      </c>
-      <c r="E658" t="inlineStr"/>
-      <c r="F658" t="inlineStr"/>
-      <c r="G658" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="659">
-      <c r="A659" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B659" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateFEB/14</t>
-        </is>
-      </c>
-      <c r="C659" t="inlineStr"/>
-      <c r="D659" t="inlineStr">
-        <is>
-          <t>6.95%</t>
-        </is>
-      </c>
-      <c r="E659" t="inlineStr"/>
-      <c r="F659" t="inlineStr"/>
-      <c r="G659" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="660">
-      <c r="A660" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B660" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsFEB/14</t>
-        </is>
-      </c>
-      <c r="C660" t="inlineStr"/>
-      <c r="D660" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="E660" t="inlineStr"/>
-      <c r="F660" t="inlineStr"/>
-      <c r="G660" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="661">
-      <c r="A661" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B661" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexFEB/14</t>
-        </is>
-      </c>
-      <c r="C661" t="inlineStr"/>
-      <c r="D661" t="inlineStr">
-        <is>
-          <t>230.0</t>
-        </is>
-      </c>
-      <c r="E661" t="inlineStr"/>
-      <c r="F661" t="inlineStr"/>
-      <c r="G661" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="662">
-      <c r="A662" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B662" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexFEB/14</t>
-        </is>
-      </c>
-      <c r="C662" t="inlineStr"/>
-      <c r="D662" t="inlineStr">
-        <is>
-          <t>640.6</t>
-        </is>
-      </c>
-      <c r="E662" t="inlineStr"/>
-      <c r="F662" t="inlineStr"/>
-      <c r="G662" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="663">
-      <c r="A663" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B663" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexFEB/14</t>
-        </is>
-      </c>
-      <c r="C663" t="inlineStr"/>
-      <c r="D663" t="inlineStr">
-        <is>
-          <t>153.1</t>
-        </is>
-      </c>
-      <c r="E663" t="inlineStr"/>
-      <c r="F663" t="inlineStr"/>
-      <c r="G663" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="664">
-      <c r="A664" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B664" t="inlineStr">
-        <is>
-          <t>Building Permits PrelJAN</t>
-        </is>
-      </c>
-      <c r="C664" t="inlineStr"/>
-      <c r="D664" t="inlineStr">
-        <is>
-          <t>1.482M</t>
-        </is>
-      </c>
-      <c r="E664" t="inlineStr"/>
-      <c r="F664" t="inlineStr">
-        <is>
-          <t>1.47M</t>
-        </is>
-      </c>
-      <c r="G664" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="665">
-      <c r="A665" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B665" t="inlineStr">
-        <is>
-          <t>Housing StartsJAN</t>
-        </is>
-      </c>
-      <c r="C665" t="inlineStr"/>
-      <c r="D665" t="inlineStr">
-        <is>
-          <t>1.499M</t>
-        </is>
-      </c>
-      <c r="E665" t="inlineStr"/>
-      <c r="F665" t="inlineStr">
-        <is>
-          <t>1.35M</t>
-        </is>
-      </c>
-      <c r="G665" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="666">
-      <c r="A666" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B666" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelJAN</t>
-        </is>
-      </c>
-      <c r="C666" t="inlineStr"/>
-      <c r="D666" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="E666" t="inlineStr"/>
-      <c r="F666" t="inlineStr">
-        <is>
-          <t>-0.8%</t>
-        </is>
-      </c>
-      <c r="G666" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="667">
-      <c r="A667" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B667" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMJAN</t>
-        </is>
-      </c>
-      <c r="C667" t="inlineStr"/>
-      <c r="D667" t="inlineStr">
-        <is>
-          <t>15.8%</t>
-        </is>
-      </c>
-      <c r="E667" t="inlineStr"/>
-      <c r="F667" t="inlineStr">
-        <is>
-          <t>-9.0%</t>
-        </is>
-      </c>
-      <c r="G667" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="668">
-      <c r="A668" t="inlineStr">
-        <is>
-          <t>07:25 PM</t>
-        </is>
-      </c>
-      <c r="B668" t="inlineStr">
-        <is>
-          <t>Redbook YoYFEB/15</t>
-        </is>
-      </c>
-      <c r="C668" t="inlineStr"/>
-      <c r="D668" t="inlineStr">
-        <is>
-          <t>5.3%</t>
-        </is>
-      </c>
-      <c r="E668" t="inlineStr"/>
-      <c r="F668" t="inlineStr"/>
-      <c r="G668" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="669">
-      <c r="A669" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B669" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C669" t="inlineStr"/>
-      <c r="D669" t="inlineStr">
-        <is>
-          <t>4.230%</t>
-        </is>
-      </c>
-      <c r="E669" t="inlineStr"/>
-      <c r="F669" t="inlineStr"/>
-      <c r="G669" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="670">
-      <c r="A670" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B670" t="inlineStr">
-        <is>
-          <t>20-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C670" t="inlineStr"/>
-      <c r="D670" t="inlineStr">
-        <is>
-          <t>4.900%</t>
-        </is>
-      </c>
-      <c r="E670" t="inlineStr"/>
-      <c r="F670" t="inlineStr"/>
-      <c r="G670" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="671">
-      <c r="A671" t="inlineStr">
-        <is>
-          <t>Thursday February 20 2025</t>
-        </is>
-      </c>
-      <c r="B671" t="inlineStr"/>
-      <c r="C671" t="inlineStr"/>
-      <c r="D671" t="inlineStr"/>
-      <c r="E671" t="inlineStr"/>
-      <c r="F671" t="inlineStr"/>
-      <c r="G671" t="inlineStr"/>
-    </row>
-    <row r="672">
-      <c r="A672" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B672" t="inlineStr">
-        <is>
-          <t>FOMC Minutes</t>
-        </is>
-      </c>
-      <c r="C672" t="inlineStr"/>
-      <c r="D672" t="inlineStr"/>
-      <c r="E672" t="inlineStr"/>
-      <c r="F672" t="inlineStr"/>
-      <c r="G672" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="673">
-      <c r="A673" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B673" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C673" t="inlineStr"/>
-      <c r="D673" t="inlineStr">
-        <is>
-          <t>9.043M</t>
-        </is>
-      </c>
-      <c r="E673" t="inlineStr"/>
-      <c r="F673" t="inlineStr"/>
-      <c r="G673" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="674">
-      <c r="A674" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B674" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsFEB/15</t>
-        </is>
-      </c>
-      <c r="C674" t="inlineStr"/>
-      <c r="D674" t="inlineStr">
-        <is>
-          <t>213K</t>
-        </is>
-      </c>
-      <c r="E674" t="inlineStr"/>
-      <c r="F674" t="inlineStr">
-        <is>
-          <t>220.0K</t>
-        </is>
-      </c>
-      <c r="G674" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="675">
-      <c r="A675" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B675" t="inlineStr">
-        <is>
-          <t>Philadelphia Fed Manufacturing IndexFEB</t>
-        </is>
-      </c>
-      <c r="C675" t="inlineStr"/>
-      <c r="D675" t="inlineStr">
-        <is>
-          <t>44.3</t>
-        </is>
-      </c>
-      <c r="E675" t="inlineStr"/>
-      <c r="F675" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="G675" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="676">
-      <c r="A676" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B676" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsFEB/08</t>
-        </is>
-      </c>
-      <c r="C676" t="inlineStr"/>
-      <c r="D676" t="inlineStr">
-        <is>
-          <t>1850K</t>
-        </is>
-      </c>
-      <c r="E676" t="inlineStr"/>
-      <c r="F676" t="inlineStr">
-        <is>
-          <t>1879.0K</t>
-        </is>
-      </c>
-      <c r="G676" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="677">
-      <c r="A677" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B677" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageFEB/15</t>
-        </is>
-      </c>
-      <c r="C677" t="inlineStr"/>
-      <c r="D677" t="inlineStr">
-        <is>
-          <t>216K</t>
-        </is>
-      </c>
-      <c r="E677" t="inlineStr"/>
-      <c r="F677" t="inlineStr">
-        <is>
-          <t>219.0K</t>
-        </is>
-      </c>
-      <c r="G677" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="678">
-      <c r="A678" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B678" t="inlineStr">
-        <is>
-          <t>Philly Fed Business ConditionsFEB</t>
-        </is>
-      </c>
-      <c r="C678" t="inlineStr"/>
-      <c r="D678" t="inlineStr">
-        <is>
-          <t>46.3</t>
-        </is>
-      </c>
-      <c r="E678" t="inlineStr"/>
-      <c r="F678" t="inlineStr"/>
-      <c r="G678" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="679">
-      <c r="A679" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B679" t="inlineStr">
-        <is>
-          <t>Philly Fed CAPEX IndexFEB</t>
-        </is>
-      </c>
-      <c r="C679" t="inlineStr"/>
-      <c r="D679" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="E679" t="inlineStr"/>
-      <c r="F679" t="inlineStr"/>
-      <c r="G679" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="680">
-      <c r="A680" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B680" t="inlineStr">
-        <is>
-          <t>Philly Fed EmploymentFEB</t>
-        </is>
-      </c>
-      <c r="C680" t="inlineStr"/>
-      <c r="D680" t="inlineStr">
-        <is>
-          <t>11.9</t>
-        </is>
-      </c>
-      <c r="E680" t="inlineStr"/>
-      <c r="F680" t="inlineStr"/>
-      <c r="G680" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="681">
-      <c r="A681" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B681" t="inlineStr">
-        <is>
-          <t>Philly Fed New OrdersFEB</t>
-        </is>
-      </c>
-      <c r="C681" t="inlineStr"/>
-      <c r="D681" t="inlineStr">
-        <is>
-          <t>42.9</t>
-        </is>
-      </c>
-      <c r="E681" t="inlineStr"/>
-      <c r="F681" t="inlineStr"/>
-      <c r="G681" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="682">
-      <c r="A682" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B682" t="inlineStr">
-        <is>
-          <t>Philly Fed Prices PaidFEB</t>
-        </is>
-      </c>
-      <c r="C682" t="inlineStr"/>
-      <c r="D682" t="inlineStr">
-        <is>
-          <t>31.9</t>
-        </is>
-      </c>
-      <c r="E682" t="inlineStr"/>
-      <c r="F682" t="inlineStr"/>
-      <c r="G682" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="683">
-      <c r="A683" t="inlineStr">
-        <is>
-          <t>08:05 PM</t>
-        </is>
-      </c>
-      <c r="B683" t="inlineStr">
-        <is>
-          <t>Fed Golsbee Speech</t>
-        </is>
-      </c>
-      <c r="C683" t="inlineStr"/>
-      <c r="D683" t="inlineStr"/>
-      <c r="E683" t="inlineStr"/>
-      <c r="F683" t="inlineStr"/>
-      <c r="G683" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="684">
-      <c r="A684" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B684" t="inlineStr">
-        <is>
-          <t>CB Leading Index MoMJAN</t>
-        </is>
-      </c>
-      <c r="C684" t="inlineStr"/>
-      <c r="D684" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E684" t="inlineStr"/>
-      <c r="F684" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G684" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="685">
-      <c r="A685" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B685" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C685" t="inlineStr"/>
-      <c r="D685" t="inlineStr">
-        <is>
-          <t>-100Bcf</t>
-        </is>
-      </c>
-      <c r="E685" t="inlineStr"/>
-      <c r="F685" t="inlineStr"/>
-      <c r="G685" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="686">
-      <c r="A686" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B686" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C686" t="inlineStr"/>
-      <c r="D686" t="inlineStr"/>
-      <c r="E686" t="inlineStr"/>
-      <c r="F686" t="inlineStr"/>
-      <c r="G686" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="687">
-      <c r="A687" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B687" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C687" t="inlineStr"/>
-      <c r="D687" t="inlineStr"/>
-      <c r="E687" t="inlineStr"/>
-      <c r="F687" t="inlineStr"/>
-      <c r="G687" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="688">
-      <c r="A688" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B688" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C688" t="inlineStr"/>
-      <c r="D688" t="inlineStr">
-        <is>
-          <t>4.07M</t>
-        </is>
-      </c>
-      <c r="E688" t="inlineStr"/>
-      <c r="F688" t="inlineStr"/>
-      <c r="G688" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="689">
-      <c r="A689" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B689" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C689" t="inlineStr"/>
-      <c r="D689" t="inlineStr">
-        <is>
-          <t>-3.035M</t>
-        </is>
-      </c>
-      <c r="E689" t="inlineStr"/>
-      <c r="F689" t="inlineStr"/>
-      <c r="G689" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="690">
-      <c r="A690" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B690" t="inlineStr">
-        <is>
-          <t>Fed Musalem Speech</t>
-        </is>
-      </c>
-      <c r="C690" t="inlineStr"/>
-      <c r="D690" t="inlineStr"/>
-      <c r="E690" t="inlineStr"/>
-      <c r="F690" t="inlineStr"/>
-      <c r="G690" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="691">
-      <c r="A691" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B691" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateFEB/20</t>
-        </is>
-      </c>
-      <c r="C691" t="inlineStr"/>
-      <c r="D691" t="inlineStr">
-        <is>
-          <t>6.09%</t>
-        </is>
-      </c>
-      <c r="E691" t="inlineStr"/>
-      <c r="F691" t="inlineStr"/>
-      <c r="G691" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="692">
-      <c r="A692" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B692" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateFEB/20</t>
-        </is>
-      </c>
-      <c r="C692" t="inlineStr"/>
-      <c r="D692" t="inlineStr">
-        <is>
-          <t>6.87%</t>
-        </is>
-      </c>
-      <c r="E692" t="inlineStr"/>
-      <c r="F692" t="inlineStr"/>
-      <c r="G692" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="693">
-      <c r="A693" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B693" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C693" t="inlineStr"/>
-      <c r="D693" t="inlineStr">
-        <is>
-          <t>-0.184M</t>
-        </is>
-      </c>
-      <c r="E693" t="inlineStr"/>
-      <c r="F693" t="inlineStr"/>
-      <c r="G693" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="694">
-      <c r="A694" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B694" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C694" t="inlineStr"/>
-      <c r="D694" t="inlineStr">
-        <is>
-          <t>0.872M</t>
-        </is>
-      </c>
-      <c r="E694" t="inlineStr"/>
-      <c r="F694" t="inlineStr"/>
-      <c r="G694" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="695">
-      <c r="A695" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B695" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C695" t="inlineStr"/>
-      <c r="D695" t="inlineStr">
-        <is>
-          <t>-0.009M</t>
-        </is>
-      </c>
-      <c r="E695" t="inlineStr"/>
-      <c r="F695" t="inlineStr"/>
-      <c r="G695" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="696">
-      <c r="A696" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B696" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C696" t="inlineStr"/>
-      <c r="D696" t="inlineStr">
-        <is>
-          <t>0.135M</t>
-        </is>
-      </c>
-      <c r="E696" t="inlineStr"/>
-      <c r="F696" t="inlineStr"/>
-      <c r="G696" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="697">
-      <c r="A697" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B697" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C697" t="inlineStr"/>
-      <c r="D697" t="inlineStr">
-        <is>
-          <t>0.18M</t>
-        </is>
-      </c>
-      <c r="E697" t="inlineStr"/>
-      <c r="F697" t="inlineStr"/>
-      <c r="G697" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="698">
-      <c r="A698" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B698" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C698" t="inlineStr"/>
-      <c r="D698" t="inlineStr">
-        <is>
-          <t>0.159M</t>
-        </is>
-      </c>
-      <c r="E698" t="inlineStr"/>
-      <c r="F698" t="inlineStr"/>
-      <c r="G698" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="699">
-      <c r="A699" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B699" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C699" t="inlineStr"/>
-      <c r="D699" t="inlineStr">
-        <is>
-          <t>0.082M</t>
-        </is>
-      </c>
-      <c r="E699" t="inlineStr"/>
-      <c r="F699" t="inlineStr"/>
-      <c r="G699" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="700">
-      <c r="A700" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B700" t="inlineStr">
-        <is>
-          <t>30-Year TIPS Auction</t>
-        </is>
-      </c>
-      <c r="C700" t="inlineStr"/>
-      <c r="D700" t="inlineStr">
-        <is>
-          <t>2.055%</t>
-        </is>
-      </c>
-      <c r="E700" t="inlineStr"/>
-      <c r="F700" t="inlineStr"/>
-      <c r="G700" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="701">
-      <c r="A701" t="inlineStr">
-        <is>
-          <t>Friday February 21 2025</t>
-        </is>
-      </c>
-      <c r="B701" t="inlineStr"/>
-      <c r="C701" t="inlineStr"/>
-      <c r="D701" t="inlineStr"/>
-      <c r="E701" t="inlineStr"/>
-      <c r="F701" t="inlineStr"/>
-      <c r="G701" t="inlineStr"/>
-    </row>
-    <row r="702">
-      <c r="A702" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B702" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetFEB/19</t>
-        </is>
-      </c>
-      <c r="C702" t="inlineStr"/>
-      <c r="D702" t="inlineStr"/>
-      <c r="E702" t="inlineStr"/>
-      <c r="F702" t="inlineStr"/>
-      <c r="G702" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="703">
-      <c r="A703" t="inlineStr">
-        <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B703" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Composite PMI FlashFEB</t>
-        </is>
-      </c>
-      <c r="C703" t="inlineStr"/>
-      <c r="D703" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="E703" t="inlineStr"/>
-      <c r="F703" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="G703" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="704">
-      <c r="A704" t="inlineStr">
-        <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B704" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMI FlashFEB</t>
-        </is>
-      </c>
-      <c r="C704" t="inlineStr"/>
-      <c r="D704" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="E704" t="inlineStr"/>
-      <c r="F704" t="inlineStr">
-        <is>
-          <t>51.3</t>
-        </is>
-      </c>
-      <c r="G704" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="705">
-      <c r="A705" t="inlineStr">
-        <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B705" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Services PMI FlashFEB</t>
-        </is>
-      </c>
-      <c r="C705" t="inlineStr"/>
-      <c r="D705" t="inlineStr">
-        <is>
-          <t>52.9</t>
-        </is>
-      </c>
-      <c r="E705" t="inlineStr"/>
-      <c r="F705" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="G705" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="706">
-      <c r="A706" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B706" t="inlineStr">
-        <is>
-          <t>Existing Home SalesJAN</t>
-        </is>
-      </c>
-      <c r="C706" t="inlineStr"/>
-      <c r="D706" t="inlineStr">
-        <is>
-          <t>4.24M</t>
-        </is>
-      </c>
-      <c r="E706" t="inlineStr"/>
-      <c r="F706" t="inlineStr">
-        <is>
-          <t>4.16M</t>
-        </is>
-      </c>
-      <c r="G706" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="707">
-      <c r="A707" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B707" t="inlineStr">
-        <is>
-          <t>Existing Home Sales MoMJAN</t>
-        </is>
-      </c>
-      <c r="C707" t="inlineStr"/>
-      <c r="D707" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E707" t="inlineStr"/>
-      <c r="F707" t="inlineStr">
-        <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="G707" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="708">
-      <c r="A708" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B708" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment FinalFEB</t>
-        </is>
-      </c>
-      <c r="C708" t="inlineStr"/>
-      <c r="D708" t="inlineStr">
-        <is>
-          <t>71.1</t>
-        </is>
-      </c>
-      <c r="E708" t="inlineStr">
-        <is>
-          <t>67.8</t>
-        </is>
-      </c>
-      <c r="F708" t="inlineStr">
-        <is>
-          <t>67.8</t>
-        </is>
-      </c>
-      <c r="G708" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="709">
-      <c r="A709" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B709" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations FinalFEB</t>
-        </is>
-      </c>
-      <c r="C709" t="inlineStr"/>
-      <c r="D709" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="E709" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F709" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G709" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="710">
-      <c r="A710" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B710" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations FinalFEB</t>
-        </is>
-      </c>
-      <c r="C710" t="inlineStr"/>
-      <c r="D710" t="inlineStr">
-        <is>
-          <t>69.3</t>
-        </is>
-      </c>
-      <c r="E710" t="inlineStr">
-        <is>
-          <t>67.3</t>
-        </is>
-      </c>
-      <c r="F710" t="inlineStr">
-        <is>
-          <t>67.3</t>
-        </is>
-      </c>
-      <c r="G710" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="711">
-      <c r="A711" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B711" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions FinalFEB</t>
-        </is>
-      </c>
-      <c r="C711" t="inlineStr"/>
-      <c r="D711" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="E711" t="inlineStr">
-        <is>
-          <t>68.7</t>
-        </is>
-      </c>
-      <c r="F711" t="inlineStr">
-        <is>
-          <t>68.7</t>
-        </is>
-      </c>
-      <c r="G711" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="712">
-      <c r="A712" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B712" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations FinalFEB</t>
-        </is>
-      </c>
-      <c r="C712" t="inlineStr"/>
-      <c r="D712" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E712" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="F712" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="G712" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="713">
-      <c r="A713" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B713" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountFEB/21</t>
-        </is>
-      </c>
-      <c r="C713" t="inlineStr"/>
-      <c r="D713" t="inlineStr"/>
-      <c r="E713" t="inlineStr"/>
-      <c r="F713" t="inlineStr"/>
-      <c r="G713" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="714">
-      <c r="A714" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B714" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountFEB/21</t>
-        </is>
-      </c>
-      <c r="C714" t="inlineStr"/>
-      <c r="D714" t="inlineStr"/>
-      <c r="E714" t="inlineStr"/>
-      <c r="F714" t="inlineStr"/>
-      <c r="G714" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="715">
-      <c r="A715" t="inlineStr">
-        <is>
-          <t>Sunday February 23 2025</t>
-        </is>
-      </c>
-      <c r="B715" t="inlineStr"/>
-      <c r="C715" t="inlineStr"/>
-      <c r="D715" t="inlineStr"/>
-      <c r="E715" t="inlineStr"/>
-      <c r="F715" t="inlineStr"/>
-      <c r="G715" t="inlineStr"/>
+      <c r="G657" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-02-23.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-02-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G715"/>
+  <dimension ref="A1:G657"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17125,10 +17125,8 @@
           <t>$-93.0B</t>
         </is>
       </c>
-      <c r="G606" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G606" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="607">
@@ -17146,10 +17144,8 @@
       <c r="D607" t="inlineStr"/>
       <c r="E607" t="inlineStr"/>
       <c r="F607" t="inlineStr"/>
-      <c r="G607" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G607" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="608">
@@ -17183,10 +17179,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G608" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G608" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="609">
@@ -17220,10 +17214,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="G609" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G609" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="610">
@@ -17257,10 +17249,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="G610" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G610" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="611">
@@ -17294,10 +17284,8 @@
           <t>1875.0K</t>
         </is>
       </c>
-      <c r="G611" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G611" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="612">
@@ -17331,10 +17319,8 @@
           <t>3.5%</t>
         </is>
       </c>
-      <c r="G612" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G612" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="613">
@@ -17364,10 +17350,8 @@
           <t>216.0K</t>
         </is>
       </c>
-      <c r="G613" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G613" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="614">
@@ -17397,10 +17381,8 @@
           <t>147.2</t>
         </is>
       </c>
-      <c r="G614" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G614" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="615">
@@ -17430,10 +17412,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G615" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G615" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="616">
@@ -17467,10 +17447,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="G616" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G616" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="617">
@@ -17504,10 +17482,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="G617" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G617" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="618">
@@ -17537,10 +17513,8 @@
         </is>
       </c>
       <c r="F618" t="inlineStr"/>
-      <c r="G618" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G618" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="619">
@@ -17566,10 +17540,8 @@
       </c>
       <c r="E619" t="inlineStr"/>
       <c r="F619" t="inlineStr"/>
-      <c r="G619" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G619" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="620">
@@ -17595,10 +17567,8 @@
       </c>
       <c r="E620" t="inlineStr"/>
       <c r="F620" t="inlineStr"/>
-      <c r="G620" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G620" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="621">
@@ -17624,10 +17594,8 @@
       </c>
       <c r="E621" t="inlineStr"/>
       <c r="F621" t="inlineStr"/>
-      <c r="G621" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G621" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="622">
@@ -17653,10 +17621,8 @@
       </c>
       <c r="E622" t="inlineStr"/>
       <c r="F622" t="inlineStr"/>
-      <c r="G622" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G622" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="623">
@@ -17682,10 +17648,8 @@
       </c>
       <c r="E623" t="inlineStr"/>
       <c r="F623" t="inlineStr"/>
-      <c r="G623" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G623" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="624">
@@ -17711,48 +17675,54 @@
       </c>
       <c r="E624" t="inlineStr"/>
       <c r="F624" t="inlineStr"/>
-      <c r="G624" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G624" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>Friday February 14 2025</t>
-        </is>
-      </c>
-      <c r="B625" t="inlineStr"/>
+          <t>08:05 PM</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>Fed Golsbee Speech</t>
+        </is>
+      </c>
       <c r="C625" t="inlineStr"/>
       <c r="D625" t="inlineStr"/>
       <c r="E625" t="inlineStr"/>
       <c r="F625" t="inlineStr"/>
-      <c r="G625" t="inlineStr"/>
+      <c r="G625" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>Fed Balance SheetFEB/12</t>
-        </is>
-      </c>
-      <c r="C626" t="inlineStr">
-        <is>
-          <t>$6.81T</t>
-        </is>
-      </c>
+          <t>CB Leading Index MoMJAN</t>
+        </is>
+      </c>
+      <c r="C626" t="inlineStr"/>
       <c r="D626" t="inlineStr">
         <is>
-          <t>$6.81T</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E626" t="inlineStr"/>
-      <c r="F626" t="inlineStr"/>
+      <c r="F626" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="G626" t="inlineStr">
         <is>
           <t>3</t>
@@ -17762,129 +17732,89 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>Retail Sales MoMJAN</t>
+          <t>EIA Natural Gas Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C627" t="inlineStr"/>
       <c r="D627" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E627" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F627" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+          <t>-100Bcf</t>
+        </is>
+      </c>
+      <c r="E627" t="inlineStr"/>
+      <c r="F627" t="inlineStr"/>
       <c r="G627" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>Export Prices MoMJAN</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C628" t="inlineStr"/>
-      <c r="D628" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E628" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F628" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="D628" t="inlineStr"/>
+      <c r="E628" t="inlineStr"/>
+      <c r="F628" t="inlineStr"/>
       <c r="G628" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>Import Prices MoMJAN</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C629" t="inlineStr"/>
-      <c r="D629" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E629" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F629" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="D629" t="inlineStr"/>
+      <c r="E629" t="inlineStr"/>
+      <c r="F629" t="inlineStr"/>
       <c r="G629" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>Retail Sales Control Group MoMJAN</t>
+          <t>EIA Crude Oil Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C630" t="inlineStr"/>
       <c r="D630" t="inlineStr">
         <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="E630" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F630" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>4.07M</t>
+        </is>
+      </c>
+      <c r="E630" t="inlineStr"/>
+      <c r="F630" t="inlineStr"/>
       <c r="G630" t="inlineStr">
         <is>
           <t>2</t>
@@ -17894,30 +17824,22 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Autos MoMJAN</t>
+          <t>EIA Gasoline Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C631" t="inlineStr"/>
       <c r="D631" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E631" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F631" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>-3.035M</t>
+        </is>
+      </c>
+      <c r="E631" t="inlineStr"/>
+      <c r="F631" t="inlineStr"/>
       <c r="G631" t="inlineStr">
         <is>
           <t>2</t>
@@ -17927,55 +17849,43 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>Export Prices YoYJAN</t>
+          <t>Fed Musalem Speech</t>
         </is>
       </c>
       <c r="C632" t="inlineStr"/>
-      <c r="D632" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
+      <c r="D632" t="inlineStr"/>
       <c r="E632" t="inlineStr"/>
-      <c r="F632" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="F632" t="inlineStr"/>
       <c r="G632" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>Import Prices YoYJAN</t>
+          <t>15-Year Mortgage RateFEB/20</t>
         </is>
       </c>
       <c r="C633" t="inlineStr"/>
       <c r="D633" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>6.09%</t>
         </is>
       </c>
       <c r="E633" t="inlineStr"/>
-      <c r="F633" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="F633" t="inlineStr"/>
       <c r="G633" t="inlineStr">
         <is>
           <t>3</t>
@@ -17985,26 +17895,22 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Gas/Autos MoMJAN</t>
+          <t>30-Year Mortgage RateFEB/20</t>
         </is>
       </c>
       <c r="C634" t="inlineStr"/>
       <c r="D634" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>6.87%</t>
         </is>
       </c>
       <c r="E634" t="inlineStr"/>
-      <c r="F634" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F634" t="inlineStr"/>
       <c r="G634" t="inlineStr">
         <is>
           <t>3</t>
@@ -18014,26 +17920,22 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>Retail Sales YoYJAN</t>
+          <t>EIA Crude Oil Imports ChangeFEB/14</t>
         </is>
       </c>
       <c r="C635" t="inlineStr"/>
       <c r="D635" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-0.184M</t>
         </is>
       </c>
       <c r="E635" t="inlineStr"/>
-      <c r="F635" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
+      <c r="F635" t="inlineStr"/>
       <c r="G635" t="inlineStr">
         <is>
           <t>3</t>
@@ -18043,63 +17945,47 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>Industrial Production MoMJAN</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C636" t="inlineStr"/>
       <c r="D636" t="inlineStr">
         <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="E636" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F636" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>0.872M</t>
+        </is>
+      </c>
+      <c r="E636" t="inlineStr"/>
+      <c r="F636" t="inlineStr"/>
       <c r="G636" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>EIA Distillate Fuel Production ChangeFEB/14</t>
         </is>
       </c>
       <c r="C637" t="inlineStr"/>
       <c r="D637" t="inlineStr">
         <is>
-          <t>77.6%</t>
-        </is>
-      </c>
-      <c r="E637" t="inlineStr">
-        <is>
-          <t>77.7%</t>
-        </is>
-      </c>
-      <c r="F637" t="inlineStr">
-        <is>
-          <t>77.4%</t>
-        </is>
-      </c>
+          <t>-0.009M</t>
+        </is>
+      </c>
+      <c r="E637" t="inlineStr"/>
+      <c r="F637" t="inlineStr"/>
       <c r="G637" t="inlineStr">
         <is>
           <t>3</t>
@@ -18109,26 +17995,22 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>Industrial Production YoYJAN</t>
+          <t>EIA Distillate Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C638" t="inlineStr"/>
       <c r="D638" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.135M</t>
         </is>
       </c>
       <c r="E638" t="inlineStr"/>
-      <c r="F638" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="F638" t="inlineStr"/>
       <c r="G638" t="inlineStr">
         <is>
           <t>3</t>
@@ -18138,30 +18020,22 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMJAN</t>
+          <t>EIA Gasoline Production ChangeFEB/14</t>
         </is>
       </c>
       <c r="C639" t="inlineStr"/>
       <c r="D639" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="E639" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F639" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>0.18M</t>
+        </is>
+      </c>
+      <c r="E639" t="inlineStr"/>
+      <c r="F639" t="inlineStr"/>
       <c r="G639" t="inlineStr">
         <is>
           <t>3</t>
@@ -18171,26 +18045,22 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYJAN</t>
+          <t>EIA Heating Oil Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C640" t="inlineStr"/>
       <c r="D640" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.159M</t>
         </is>
       </c>
       <c r="E640" t="inlineStr"/>
-      <c r="F640" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="F640" t="inlineStr"/>
       <c r="G640" t="inlineStr">
         <is>
           <t>3</t>
@@ -18200,63 +18070,47 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>Business Inventories MoMDEC</t>
+          <t>EIA Refinery Crude Runs ChangeFEB/14</t>
         </is>
       </c>
       <c r="C641" t="inlineStr"/>
       <c r="D641" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E641" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F641" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+          <t>0.082M</t>
+        </is>
+      </c>
+      <c r="E641" t="inlineStr"/>
+      <c r="F641" t="inlineStr"/>
       <c r="G641" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoMDEC</t>
+          <t>30-Year TIPS Auction</t>
         </is>
       </c>
       <c r="C642" t="inlineStr"/>
       <c r="D642" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E642" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F642" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>2.055%</t>
+        </is>
+      </c>
+      <c r="E642" t="inlineStr"/>
+      <c r="F642" t="inlineStr"/>
       <c r="G642" t="inlineStr">
         <is>
           <t>3</t>
@@ -18266,43 +18120,31 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B643" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountFEB/14</t>
-        </is>
-      </c>
+          <t>Friday February 21 2025</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr"/>
       <c r="C643" t="inlineStr"/>
-      <c r="D643" t="inlineStr">
-        <is>
-          <t>480</t>
-        </is>
-      </c>
+      <c r="D643" t="inlineStr"/>
       <c r="E643" t="inlineStr"/>
       <c r="F643" t="inlineStr"/>
-      <c r="G643" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G643" t="inlineStr"/>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountFEB/14</t>
+          <t>Fed Balance SheetFEB/19</t>
         </is>
       </c>
       <c r="C644" t="inlineStr"/>
       <c r="D644" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>$6.81T</t>
         </is>
       </c>
       <c r="E644" t="inlineStr"/>
@@ -18316,44 +18158,84 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>Sunday February 16 2025</t>
-        </is>
-      </c>
-      <c r="B645" t="inlineStr"/>
+          <t>08:15 PM</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Composite PMI FlashFEB</t>
+        </is>
+      </c>
       <c r="C645" t="inlineStr"/>
-      <c r="D645" t="inlineStr"/>
+      <c r="D645" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
       <c r="E645" t="inlineStr"/>
-      <c r="F645" t="inlineStr"/>
-      <c r="G645" t="inlineStr"/>
+      <c r="F645" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
+      <c r="G645" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>Monday February 17 2025</t>
-        </is>
-      </c>
-      <c r="B646" t="inlineStr"/>
+          <t>08:15 PM</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Manufacturing PMI FlashFEB</t>
+        </is>
+      </c>
       <c r="C646" t="inlineStr"/>
-      <c r="D646" t="inlineStr"/>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
       <c r="E646" t="inlineStr"/>
-      <c r="F646" t="inlineStr"/>
-      <c r="G646" t="inlineStr"/>
+      <c r="F646" t="inlineStr">
+        <is>
+          <t>51.3</t>
+        </is>
+      </c>
+      <c r="G646" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>Fed Harker Speech</t>
+          <t>S&amp;P Global Services PMI FlashFEB</t>
         </is>
       </c>
       <c r="C647" t="inlineStr"/>
-      <c r="D647" t="inlineStr"/>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t>52.9</t>
+        </is>
+      </c>
       <c r="E647" t="inlineStr"/>
-      <c r="F647" t="inlineStr"/>
+      <c r="F647" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
       <c r="G647" t="inlineStr">
         <is>
           <t>2</t>
@@ -18363,37 +18245,53 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>Tuesday February 18 2025</t>
-        </is>
-      </c>
-      <c r="B648" t="inlineStr"/>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>Existing Home SalesJAN</t>
+        </is>
+      </c>
       <c r="C648" t="inlineStr"/>
-      <c r="D648" t="inlineStr"/>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>4.24M</t>
+        </is>
+      </c>
       <c r="E648" t="inlineStr"/>
-      <c r="F648" t="inlineStr"/>
-      <c r="G648" t="inlineStr"/>
+      <c r="F648" t="inlineStr">
+        <is>
+          <t>4.16M</t>
+        </is>
+      </c>
+      <c r="G648" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>NY Empire State Manufacturing IndexFEB</t>
+          <t>Existing Home Sales MoMJAN</t>
         </is>
       </c>
       <c r="C649" t="inlineStr"/>
       <c r="D649" t="inlineStr">
         <is>
-          <t>-12.6</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="E649" t="inlineStr"/>
       <c r="F649" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="G649" t="inlineStr">
@@ -18410,19 +18308,23 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>NAHB Housing Market IndexFEB</t>
+          <t>Michigan Consumer Sentiment FinalFEB</t>
         </is>
       </c>
       <c r="C650" t="inlineStr"/>
       <c r="D650" t="inlineStr">
         <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="E650" t="inlineStr"/>
+          <t>71.1</t>
+        </is>
+      </c>
+      <c r="E650" t="inlineStr">
+        <is>
+          <t>67.8</t>
+        </is>
+      </c>
       <c r="F650" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>67.8</t>
         </is>
       </c>
       <c r="G650" t="inlineStr">
@@ -18434,22 +18336,30 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Michigan 5 Year Inflation Expectations FinalFEB</t>
         </is>
       </c>
       <c r="C651" t="inlineStr"/>
       <c r="D651" t="inlineStr">
         <is>
-          <t>4.225%</t>
-        </is>
-      </c>
-      <c r="E651" t="inlineStr"/>
-      <c r="F651" t="inlineStr"/>
+          <t>3.2%</t>
+        </is>
+      </c>
+      <c r="E651" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="F651" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G651" t="inlineStr">
         <is>
           <t>3</t>
@@ -18459,22 +18369,30 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>Michigan Consumer Expectations FinalFEB</t>
         </is>
       </c>
       <c r="C652" t="inlineStr"/>
       <c r="D652" t="inlineStr">
         <is>
-          <t>4.025%</t>
-        </is>
-      </c>
-      <c r="E652" t="inlineStr"/>
-      <c r="F652" t="inlineStr"/>
+          <t>69.3</t>
+        </is>
+      </c>
+      <c r="E652" t="inlineStr">
+        <is>
+          <t>67.3</t>
+        </is>
+      </c>
+      <c r="F652" t="inlineStr">
+        <is>
+          <t>67.3</t>
+        </is>
+      </c>
       <c r="G652" t="inlineStr">
         <is>
           <t>3</t>
@@ -18484,22 +18402,30 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Michigan Current Conditions FinalFEB</t>
         </is>
       </c>
       <c r="C653" t="inlineStr"/>
       <c r="D653" t="inlineStr">
         <is>
-          <t>4.185%</t>
-        </is>
-      </c>
-      <c r="E653" t="inlineStr"/>
-      <c r="F653" t="inlineStr"/>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="E653" t="inlineStr">
+        <is>
+          <t>68.7</t>
+        </is>
+      </c>
+      <c r="F653" t="inlineStr">
+        <is>
+          <t>68.7</t>
+        </is>
+      </c>
       <c r="G653" t="inlineStr">
         <is>
           <t>3</t>
@@ -18509,18 +18435,30 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>NOPA Crush Report</t>
+          <t>Michigan Inflation Expectations FinalFEB</t>
         </is>
       </c>
       <c r="C654" t="inlineStr"/>
-      <c r="D654" t="inlineStr"/>
-      <c r="E654" t="inlineStr"/>
-      <c r="F654" t="inlineStr"/>
+      <c r="D654" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="E654" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
+      <c r="F654" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="G654" t="inlineStr">
         <is>
           <t>3</t>
@@ -18530,1547 +18468,57 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>Wednesday February 19 2025</t>
-        </is>
-      </c>
-      <c r="B655" t="inlineStr"/>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>Baker Hughes Oil Rig CountFEB/21</t>
+        </is>
+      </c>
       <c r="C655" t="inlineStr"/>
       <c r="D655" t="inlineStr"/>
       <c r="E655" t="inlineStr"/>
       <c r="F655" t="inlineStr"/>
-      <c r="G655" t="inlineStr"/>
+      <c r="G655" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsDEC</t>
+          <t>Baker Hughes Total Rigs CountFEB/21</t>
         </is>
       </c>
       <c r="C656" t="inlineStr"/>
-      <c r="D656" t="inlineStr">
-        <is>
-          <t>$79B</t>
-        </is>
-      </c>
+      <c r="D656" t="inlineStr"/>
       <c r="E656" t="inlineStr"/>
       <c r="F656" t="inlineStr"/>
       <c r="G656" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B657" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentDEC</t>
-        </is>
-      </c>
+          <t>Sunday February 23 2025</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr"/>
       <c r="C657" t="inlineStr"/>
-      <c r="D657" t="inlineStr">
-        <is>
-          <t>$-15.8B</t>
-        </is>
-      </c>
+      <c r="D657" t="inlineStr"/>
       <c r="E657" t="inlineStr"/>
       <c r="F657" t="inlineStr"/>
-      <c r="G657" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="658">
-      <c r="A658" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B658" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsDEC</t>
-        </is>
-      </c>
-      <c r="C658" t="inlineStr"/>
-      <c r="D658" t="inlineStr">
-        <is>
-          <t>$159.9B</t>
-        </is>
-      </c>
-      <c r="E658" t="inlineStr"/>
-      <c r="F658" t="inlineStr"/>
-      <c r="G658" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="659">
-      <c r="A659" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B659" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateFEB/14</t>
-        </is>
-      </c>
-      <c r="C659" t="inlineStr"/>
-      <c r="D659" t="inlineStr">
-        <is>
-          <t>6.95%</t>
-        </is>
-      </c>
-      <c r="E659" t="inlineStr"/>
-      <c r="F659" t="inlineStr"/>
-      <c r="G659" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="660">
-      <c r="A660" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B660" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsFEB/14</t>
-        </is>
-      </c>
-      <c r="C660" t="inlineStr"/>
-      <c r="D660" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="E660" t="inlineStr"/>
-      <c r="F660" t="inlineStr"/>
-      <c r="G660" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="661">
-      <c r="A661" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B661" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexFEB/14</t>
-        </is>
-      </c>
-      <c r="C661" t="inlineStr"/>
-      <c r="D661" t="inlineStr">
-        <is>
-          <t>230.0</t>
-        </is>
-      </c>
-      <c r="E661" t="inlineStr"/>
-      <c r="F661" t="inlineStr"/>
-      <c r="G661" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="662">
-      <c r="A662" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B662" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexFEB/14</t>
-        </is>
-      </c>
-      <c r="C662" t="inlineStr"/>
-      <c r="D662" t="inlineStr">
-        <is>
-          <t>640.6</t>
-        </is>
-      </c>
-      <c r="E662" t="inlineStr"/>
-      <c r="F662" t="inlineStr"/>
-      <c r="G662" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="663">
-      <c r="A663" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B663" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexFEB/14</t>
-        </is>
-      </c>
-      <c r="C663" t="inlineStr"/>
-      <c r="D663" t="inlineStr">
-        <is>
-          <t>153.1</t>
-        </is>
-      </c>
-      <c r="E663" t="inlineStr"/>
-      <c r="F663" t="inlineStr"/>
-      <c r="G663" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="664">
-      <c r="A664" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B664" t="inlineStr">
-        <is>
-          <t>Building Permits PrelJAN</t>
-        </is>
-      </c>
-      <c r="C664" t="inlineStr"/>
-      <c r="D664" t="inlineStr">
-        <is>
-          <t>1.482M</t>
-        </is>
-      </c>
-      <c r="E664" t="inlineStr"/>
-      <c r="F664" t="inlineStr">
-        <is>
-          <t>1.47M</t>
-        </is>
-      </c>
-      <c r="G664" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="665">
-      <c r="A665" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B665" t="inlineStr">
-        <is>
-          <t>Housing StartsJAN</t>
-        </is>
-      </c>
-      <c r="C665" t="inlineStr"/>
-      <c r="D665" t="inlineStr">
-        <is>
-          <t>1.499M</t>
-        </is>
-      </c>
-      <c r="E665" t="inlineStr"/>
-      <c r="F665" t="inlineStr">
-        <is>
-          <t>1.35M</t>
-        </is>
-      </c>
-      <c r="G665" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="666">
-      <c r="A666" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B666" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelJAN</t>
-        </is>
-      </c>
-      <c r="C666" t="inlineStr"/>
-      <c r="D666" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="E666" t="inlineStr"/>
-      <c r="F666" t="inlineStr">
-        <is>
-          <t>-0.8%</t>
-        </is>
-      </c>
-      <c r="G666" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="667">
-      <c r="A667" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B667" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMJAN</t>
-        </is>
-      </c>
-      <c r="C667" t="inlineStr"/>
-      <c r="D667" t="inlineStr">
-        <is>
-          <t>15.8%</t>
-        </is>
-      </c>
-      <c r="E667" t="inlineStr"/>
-      <c r="F667" t="inlineStr">
-        <is>
-          <t>-9.0%</t>
-        </is>
-      </c>
-      <c r="G667" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="668">
-      <c r="A668" t="inlineStr">
-        <is>
-          <t>07:25 PM</t>
-        </is>
-      </c>
-      <c r="B668" t="inlineStr">
-        <is>
-          <t>Redbook YoYFEB/15</t>
-        </is>
-      </c>
-      <c r="C668" t="inlineStr"/>
-      <c r="D668" t="inlineStr">
-        <is>
-          <t>5.3%</t>
-        </is>
-      </c>
-      <c r="E668" t="inlineStr"/>
-      <c r="F668" t="inlineStr"/>
-      <c r="G668" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="669">
-      <c r="A669" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B669" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C669" t="inlineStr"/>
-      <c r="D669" t="inlineStr">
-        <is>
-          <t>4.230%</t>
-        </is>
-      </c>
-      <c r="E669" t="inlineStr"/>
-      <c r="F669" t="inlineStr"/>
-      <c r="G669" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="670">
-      <c r="A670" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B670" t="inlineStr">
-        <is>
-          <t>20-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C670" t="inlineStr"/>
-      <c r="D670" t="inlineStr">
-        <is>
-          <t>4.900%</t>
-        </is>
-      </c>
-      <c r="E670" t="inlineStr"/>
-      <c r="F670" t="inlineStr"/>
-      <c r="G670" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="671">
-      <c r="A671" t="inlineStr">
-        <is>
-          <t>Thursday February 20 2025</t>
-        </is>
-      </c>
-      <c r="B671" t="inlineStr"/>
-      <c r="C671" t="inlineStr"/>
-      <c r="D671" t="inlineStr"/>
-      <c r="E671" t="inlineStr"/>
-      <c r="F671" t="inlineStr"/>
-      <c r="G671" t="inlineStr"/>
-    </row>
-    <row r="672">
-      <c r="A672" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B672" t="inlineStr">
-        <is>
-          <t>FOMC Minutes</t>
-        </is>
-      </c>
-      <c r="C672" t="inlineStr"/>
-      <c r="D672" t="inlineStr"/>
-      <c r="E672" t="inlineStr"/>
-      <c r="F672" t="inlineStr"/>
-      <c r="G672" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="673">
-      <c r="A673" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B673" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C673" t="inlineStr"/>
-      <c r="D673" t="inlineStr">
-        <is>
-          <t>9.043M</t>
-        </is>
-      </c>
-      <c r="E673" t="inlineStr"/>
-      <c r="F673" t="inlineStr"/>
-      <c r="G673" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="674">
-      <c r="A674" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B674" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsFEB/15</t>
-        </is>
-      </c>
-      <c r="C674" t="inlineStr"/>
-      <c r="D674" t="inlineStr">
-        <is>
-          <t>213K</t>
-        </is>
-      </c>
-      <c r="E674" t="inlineStr"/>
-      <c r="F674" t="inlineStr">
-        <is>
-          <t>220.0K</t>
-        </is>
-      </c>
-      <c r="G674" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="675">
-      <c r="A675" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B675" t="inlineStr">
-        <is>
-          <t>Philadelphia Fed Manufacturing IndexFEB</t>
-        </is>
-      </c>
-      <c r="C675" t="inlineStr"/>
-      <c r="D675" t="inlineStr">
-        <is>
-          <t>44.3</t>
-        </is>
-      </c>
-      <c r="E675" t="inlineStr"/>
-      <c r="F675" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="G675" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="676">
-      <c r="A676" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B676" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsFEB/08</t>
-        </is>
-      </c>
-      <c r="C676" t="inlineStr"/>
-      <c r="D676" t="inlineStr">
-        <is>
-          <t>1850K</t>
-        </is>
-      </c>
-      <c r="E676" t="inlineStr"/>
-      <c r="F676" t="inlineStr">
-        <is>
-          <t>1879.0K</t>
-        </is>
-      </c>
-      <c r="G676" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="677">
-      <c r="A677" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B677" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageFEB/15</t>
-        </is>
-      </c>
-      <c r="C677" t="inlineStr"/>
-      <c r="D677" t="inlineStr">
-        <is>
-          <t>216K</t>
-        </is>
-      </c>
-      <c r="E677" t="inlineStr"/>
-      <c r="F677" t="inlineStr">
-        <is>
-          <t>219.0K</t>
-        </is>
-      </c>
-      <c r="G677" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="678">
-      <c r="A678" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B678" t="inlineStr">
-        <is>
-          <t>Philly Fed Business ConditionsFEB</t>
-        </is>
-      </c>
-      <c r="C678" t="inlineStr"/>
-      <c r="D678" t="inlineStr">
-        <is>
-          <t>46.3</t>
-        </is>
-      </c>
-      <c r="E678" t="inlineStr"/>
-      <c r="F678" t="inlineStr"/>
-      <c r="G678" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="679">
-      <c r="A679" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B679" t="inlineStr">
-        <is>
-          <t>Philly Fed CAPEX IndexFEB</t>
-        </is>
-      </c>
-      <c r="C679" t="inlineStr"/>
-      <c r="D679" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="E679" t="inlineStr"/>
-      <c r="F679" t="inlineStr"/>
-      <c r="G679" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="680">
-      <c r="A680" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B680" t="inlineStr">
-        <is>
-          <t>Philly Fed EmploymentFEB</t>
-        </is>
-      </c>
-      <c r="C680" t="inlineStr"/>
-      <c r="D680" t="inlineStr">
-        <is>
-          <t>11.9</t>
-        </is>
-      </c>
-      <c r="E680" t="inlineStr"/>
-      <c r="F680" t="inlineStr"/>
-      <c r="G680" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="681">
-      <c r="A681" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B681" t="inlineStr">
-        <is>
-          <t>Philly Fed New OrdersFEB</t>
-        </is>
-      </c>
-      <c r="C681" t="inlineStr"/>
-      <c r="D681" t="inlineStr">
-        <is>
-          <t>42.9</t>
-        </is>
-      </c>
-      <c r="E681" t="inlineStr"/>
-      <c r="F681" t="inlineStr"/>
-      <c r="G681" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="682">
-      <c r="A682" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B682" t="inlineStr">
-        <is>
-          <t>Philly Fed Prices PaidFEB</t>
-        </is>
-      </c>
-      <c r="C682" t="inlineStr"/>
-      <c r="D682" t="inlineStr">
-        <is>
-          <t>31.9</t>
-        </is>
-      </c>
-      <c r="E682" t="inlineStr"/>
-      <c r="F682" t="inlineStr"/>
-      <c r="G682" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="683">
-      <c r="A683" t="inlineStr">
-        <is>
-          <t>08:05 PM</t>
-        </is>
-      </c>
-      <c r="B683" t="inlineStr">
-        <is>
-          <t>Fed Golsbee Speech</t>
-        </is>
-      </c>
-      <c r="C683" t="inlineStr"/>
-      <c r="D683" t="inlineStr"/>
-      <c r="E683" t="inlineStr"/>
-      <c r="F683" t="inlineStr"/>
-      <c r="G683" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="684">
-      <c r="A684" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B684" t="inlineStr">
-        <is>
-          <t>CB Leading Index MoMJAN</t>
-        </is>
-      </c>
-      <c r="C684" t="inlineStr"/>
-      <c r="D684" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E684" t="inlineStr"/>
-      <c r="F684" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G684" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="685">
-      <c r="A685" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B685" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C685" t="inlineStr"/>
-      <c r="D685" t="inlineStr">
-        <is>
-          <t>-100Bcf</t>
-        </is>
-      </c>
-      <c r="E685" t="inlineStr"/>
-      <c r="F685" t="inlineStr"/>
-      <c r="G685" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="686">
-      <c r="A686" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B686" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C686" t="inlineStr"/>
-      <c r="D686" t="inlineStr"/>
-      <c r="E686" t="inlineStr"/>
-      <c r="F686" t="inlineStr"/>
-      <c r="G686" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="687">
-      <c r="A687" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B687" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C687" t="inlineStr"/>
-      <c r="D687" t="inlineStr"/>
-      <c r="E687" t="inlineStr"/>
-      <c r="F687" t="inlineStr"/>
-      <c r="G687" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="688">
-      <c r="A688" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B688" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C688" t="inlineStr"/>
-      <c r="D688" t="inlineStr">
-        <is>
-          <t>4.07M</t>
-        </is>
-      </c>
-      <c r="E688" t="inlineStr"/>
-      <c r="F688" t="inlineStr"/>
-      <c r="G688" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="689">
-      <c r="A689" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B689" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C689" t="inlineStr"/>
-      <c r="D689" t="inlineStr">
-        <is>
-          <t>-3.035M</t>
-        </is>
-      </c>
-      <c r="E689" t="inlineStr"/>
-      <c r="F689" t="inlineStr"/>
-      <c r="G689" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="690">
-      <c r="A690" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B690" t="inlineStr">
-        <is>
-          <t>Fed Musalem Speech</t>
-        </is>
-      </c>
-      <c r="C690" t="inlineStr"/>
-      <c r="D690" t="inlineStr"/>
-      <c r="E690" t="inlineStr"/>
-      <c r="F690" t="inlineStr"/>
-      <c r="G690" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="691">
-      <c r="A691" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B691" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateFEB/20</t>
-        </is>
-      </c>
-      <c r="C691" t="inlineStr"/>
-      <c r="D691" t="inlineStr">
-        <is>
-          <t>6.09%</t>
-        </is>
-      </c>
-      <c r="E691" t="inlineStr"/>
-      <c r="F691" t="inlineStr"/>
-      <c r="G691" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="692">
-      <c r="A692" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B692" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateFEB/20</t>
-        </is>
-      </c>
-      <c r="C692" t="inlineStr"/>
-      <c r="D692" t="inlineStr">
-        <is>
-          <t>6.87%</t>
-        </is>
-      </c>
-      <c r="E692" t="inlineStr"/>
-      <c r="F692" t="inlineStr"/>
-      <c r="G692" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="693">
-      <c r="A693" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B693" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C693" t="inlineStr"/>
-      <c r="D693" t="inlineStr">
-        <is>
-          <t>-0.184M</t>
-        </is>
-      </c>
-      <c r="E693" t="inlineStr"/>
-      <c r="F693" t="inlineStr"/>
-      <c r="G693" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="694">
-      <c r="A694" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B694" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C694" t="inlineStr"/>
-      <c r="D694" t="inlineStr">
-        <is>
-          <t>0.872M</t>
-        </is>
-      </c>
-      <c r="E694" t="inlineStr"/>
-      <c r="F694" t="inlineStr"/>
-      <c r="G694" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="695">
-      <c r="A695" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B695" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C695" t="inlineStr"/>
-      <c r="D695" t="inlineStr">
-        <is>
-          <t>-0.009M</t>
-        </is>
-      </c>
-      <c r="E695" t="inlineStr"/>
-      <c r="F695" t="inlineStr"/>
-      <c r="G695" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="696">
-      <c r="A696" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B696" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C696" t="inlineStr"/>
-      <c r="D696" t="inlineStr">
-        <is>
-          <t>0.135M</t>
-        </is>
-      </c>
-      <c r="E696" t="inlineStr"/>
-      <c r="F696" t="inlineStr"/>
-      <c r="G696" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="697">
-      <c r="A697" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B697" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C697" t="inlineStr"/>
-      <c r="D697" t="inlineStr">
-        <is>
-          <t>0.18M</t>
-        </is>
-      </c>
-      <c r="E697" t="inlineStr"/>
-      <c r="F697" t="inlineStr"/>
-      <c r="G697" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="698">
-      <c r="A698" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B698" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C698" t="inlineStr"/>
-      <c r="D698" t="inlineStr">
-        <is>
-          <t>0.159M</t>
-        </is>
-      </c>
-      <c r="E698" t="inlineStr"/>
-      <c r="F698" t="inlineStr"/>
-      <c r="G698" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="699">
-      <c r="A699" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B699" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C699" t="inlineStr"/>
-      <c r="D699" t="inlineStr">
-        <is>
-          <t>0.082M</t>
-        </is>
-      </c>
-      <c r="E699" t="inlineStr"/>
-      <c r="F699" t="inlineStr"/>
-      <c r="G699" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="700">
-      <c r="A700" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B700" t="inlineStr">
-        <is>
-          <t>30-Year TIPS Auction</t>
-        </is>
-      </c>
-      <c r="C700" t="inlineStr"/>
-      <c r="D700" t="inlineStr">
-        <is>
-          <t>2.055%</t>
-        </is>
-      </c>
-      <c r="E700" t="inlineStr"/>
-      <c r="F700" t="inlineStr"/>
-      <c r="G700" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="701">
-      <c r="A701" t="inlineStr">
-        <is>
-          <t>Friday February 21 2025</t>
-        </is>
-      </c>
-      <c r="B701" t="inlineStr"/>
-      <c r="C701" t="inlineStr"/>
-      <c r="D701" t="inlineStr"/>
-      <c r="E701" t="inlineStr"/>
-      <c r="F701" t="inlineStr"/>
-      <c r="G701" t="inlineStr"/>
-    </row>
-    <row r="702">
-      <c r="A702" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B702" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetFEB/19</t>
-        </is>
-      </c>
-      <c r="C702" t="inlineStr"/>
-      <c r="D702" t="inlineStr">
-        <is>
-          <t>$6.81T</t>
-        </is>
-      </c>
-      <c r="E702" t="inlineStr"/>
-      <c r="F702" t="inlineStr"/>
-      <c r="G702" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="703">
-      <c r="A703" t="inlineStr">
-        <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B703" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Composite PMI FlashFEB</t>
-        </is>
-      </c>
-      <c r="C703" t="inlineStr"/>
-      <c r="D703" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="E703" t="inlineStr"/>
-      <c r="F703" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="G703" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="704">
-      <c r="A704" t="inlineStr">
-        <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B704" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMI FlashFEB</t>
-        </is>
-      </c>
-      <c r="C704" t="inlineStr"/>
-      <c r="D704" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="E704" t="inlineStr"/>
-      <c r="F704" t="inlineStr">
-        <is>
-          <t>51.3</t>
-        </is>
-      </c>
-      <c r="G704" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="705">
-      <c r="A705" t="inlineStr">
-        <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B705" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Services PMI FlashFEB</t>
-        </is>
-      </c>
-      <c r="C705" t="inlineStr"/>
-      <c r="D705" t="inlineStr">
-        <is>
-          <t>52.9</t>
-        </is>
-      </c>
-      <c r="E705" t="inlineStr"/>
-      <c r="F705" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="G705" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="706">
-      <c r="A706" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B706" t="inlineStr">
-        <is>
-          <t>Existing Home SalesJAN</t>
-        </is>
-      </c>
-      <c r="C706" t="inlineStr"/>
-      <c r="D706" t="inlineStr">
-        <is>
-          <t>4.24M</t>
-        </is>
-      </c>
-      <c r="E706" t="inlineStr"/>
-      <c r="F706" t="inlineStr">
-        <is>
-          <t>4.16M</t>
-        </is>
-      </c>
-      <c r="G706" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="707">
-      <c r="A707" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B707" t="inlineStr">
-        <is>
-          <t>Existing Home Sales MoMJAN</t>
-        </is>
-      </c>
-      <c r="C707" t="inlineStr"/>
-      <c r="D707" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E707" t="inlineStr"/>
-      <c r="F707" t="inlineStr">
-        <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="G707" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="708">
-      <c r="A708" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B708" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment FinalFEB</t>
-        </is>
-      </c>
-      <c r="C708" t="inlineStr"/>
-      <c r="D708" t="inlineStr">
-        <is>
-          <t>71.1</t>
-        </is>
-      </c>
-      <c r="E708" t="inlineStr">
-        <is>
-          <t>67.8</t>
-        </is>
-      </c>
-      <c r="F708" t="inlineStr">
-        <is>
-          <t>67.8</t>
-        </is>
-      </c>
-      <c r="G708" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="709">
-      <c r="A709" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B709" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations FinalFEB</t>
-        </is>
-      </c>
-      <c r="C709" t="inlineStr"/>
-      <c r="D709" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="E709" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F709" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G709" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="710">
-      <c r="A710" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B710" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations FinalFEB</t>
-        </is>
-      </c>
-      <c r="C710" t="inlineStr"/>
-      <c r="D710" t="inlineStr">
-        <is>
-          <t>69.3</t>
-        </is>
-      </c>
-      <c r="E710" t="inlineStr">
-        <is>
-          <t>67.3</t>
-        </is>
-      </c>
-      <c r="F710" t="inlineStr">
-        <is>
-          <t>67.3</t>
-        </is>
-      </c>
-      <c r="G710" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="711">
-      <c r="A711" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B711" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions FinalFEB</t>
-        </is>
-      </c>
-      <c r="C711" t="inlineStr"/>
-      <c r="D711" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="E711" t="inlineStr">
-        <is>
-          <t>68.7</t>
-        </is>
-      </c>
-      <c r="F711" t="inlineStr">
-        <is>
-          <t>68.7</t>
-        </is>
-      </c>
-      <c r="G711" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="712">
-      <c r="A712" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B712" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations FinalFEB</t>
-        </is>
-      </c>
-      <c r="C712" t="inlineStr"/>
-      <c r="D712" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E712" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="F712" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="G712" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="713">
-      <c r="A713" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B713" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountFEB/21</t>
-        </is>
-      </c>
-      <c r="C713" t="inlineStr"/>
-      <c r="D713" t="inlineStr"/>
-      <c r="E713" t="inlineStr"/>
-      <c r="F713" t="inlineStr"/>
-      <c r="G713" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="714">
-      <c r="A714" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B714" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountFEB/21</t>
-        </is>
-      </c>
-      <c r="C714" t="inlineStr"/>
-      <c r="D714" t="inlineStr"/>
-      <c r="E714" t="inlineStr"/>
-      <c r="F714" t="inlineStr"/>
-      <c r="G714" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="715">
-      <c r="A715" t="inlineStr">
-        <is>
-          <t>Sunday February 23 2025</t>
-        </is>
-      </c>
-      <c r="B715" t="inlineStr"/>
-      <c r="C715" t="inlineStr"/>
-      <c r="D715" t="inlineStr"/>
-      <c r="E715" t="inlineStr"/>
-      <c r="F715" t="inlineStr"/>
-      <c r="G715" t="inlineStr"/>
+      <c r="G657" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
